--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1069.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1069.xlsx
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0006862594670451927</v>
+        <v>0.0007512735218178952</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0007137098457270005</v>
+        <v>0.0007434477559656255</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,37 +7591,37 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03359852899978878</v>
+        <v>0.03365234414948513</v>
       </c>
       <c r="G87" t="n">
-        <v>0.001611804355255861</v>
+        <v>0.001602715900141263</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.06275939368363859</v>
+        <v>0.06134415267726807</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001626808748136576</v>
+        <v>0.001587879865395715</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1961548390765611</v>
+        <v>0.1670330638294432</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001963107931793988</v>
+        <v>0.001568302446332683</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0.3088842542415543</v>
+        <v>0.279752361619419</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001928970167619593</v>
+        <v>0.001600222332975386</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03529287476407811</v>
+        <v>0.03543726688837481</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002417706532883792</v>
+        <v>0.002404073850211895</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.001266923675271433</v>
+        <v>-0.002157493964133225</v>
       </c>
       <c r="J88" t="n">
         <v>0.08342542391156797</v>
@@ -7658,25 +7658,25 @@
         <v>0.002604942656296522</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.001043964074359244</v>
+        <v>-0.002257090612393404</v>
       </c>
       <c r="M88" t="n">
-        <v>0.2024745233784226</v>
+        <v>0.1961548390765611</v>
       </c>
       <c r="N88" t="n">
-        <v>0.002416450116407853</v>
+        <v>0.002149086577963945</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.00423213521109313</v>
+        <v>-0.004873727560288656</v>
       </c>
       <c r="P88" t="n">
-        <v>0.3178947605296202</v>
+        <v>0.3088842542415543</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002401393948563576</v>
+        <v>0.002009343924603743</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.004363011895756127</v>
+        <v>-0.002885574528865949</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03684164415751424</v>
+        <v>0.03706484955919814</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003223608710511722</v>
+        <v>0.003205431800282526</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.001266923675271433</v>
+        <v>-0.002157493964133225</v>
       </c>
       <c r="J89" t="n">
-        <v>0.08645144894199892</v>
+        <v>0.08635029211581045</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003253617496273152</v>
+        <v>0.003175759730791431</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.001043964074359244</v>
+        <v>-0.002257090612393404</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2129881291061753</v>
+        <v>0.2093082690440415</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003221933488543804</v>
+        <v>0.003136604892665367</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.00423213521109313</v>
+        <v>-0.004873727560288656</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3322810839779619</v>
+        <v>0.3337886176688828</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.003201858598084768</v>
+        <v>0.003200444665950772</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.004363011895756127</v>
+        <v>-0.002885574528865949</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.03825145782427541</v>
+        <v>0.03855389965264025</v>
       </c>
       <c r="G90" t="n">
-        <v>0.004029510888139652</v>
+        <v>0.004006789750353158</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.001266923675271433</v>
+        <v>-0.002157709713529638</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09002276231718644</v>
+        <v>0.09020231033629238</v>
       </c>
       <c r="K90" t="n">
-        <v>0.00406702187034144</v>
+        <v>0.003969699663489288</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.001043964074359244</v>
+        <v>-0.002257090612393404</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2227788352601197</v>
+        <v>0.2189323752019084</v>
       </c>
       <c r="N90" t="n">
-        <v>0.004027416860679755</v>
+        <v>0.003920756115831709</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.00423213521109313</v>
+        <v>-0.004873727560288656</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3457214096895982</v>
+        <v>0.3490623190342573</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.00400232324760596</v>
+        <v>0.004000555832438466</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.004363011895756127</v>
+        <v>-0.002885574528865949</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.03954792834980603</v>
+        <v>0.03989277243833619</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004835413065767583</v>
+        <v>0.00480814770042379</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.001266923675271433</v>
+        <v>-0.002157278214736812</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09325431168683211</v>
+        <v>0.09372033529168587</v>
       </c>
       <c r="K91" t="n">
-        <v>0.004880426244409729</v>
+        <v>0.004763639596187146</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.001043964074359244</v>
+        <v>-0.002257090612393404</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2317059580085297</v>
+        <v>0.2277128170808427</v>
       </c>
       <c r="N91" t="n">
-        <v>0.004832900232815706</v>
+        <v>0.00470490733899805</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.00423213521109313</v>
+        <v>-0.004873727560288656</v>
       </c>
       <c r="P91" t="n">
-        <v>0.3580295080980291</v>
+        <v>0.3630978645478847</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004802787897127152</v>
+        <v>0.004800666998926158</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.004363011895756127</v>
+        <v>-0.002885574528865949</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04071961502278297</v>
+        <v>0.04113944326373598</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005641315243395513</v>
+        <v>0.00560950565049442</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.001309032299480224</v>
+        <v>-0.002889295960830347</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09628933642642322</v>
+        <v>0.09698953369793155</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005693830618478017</v>
+        <v>0.005557579528885003</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.001164708541003053</v>
+        <v>-0.002251513757832807</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2398450011124699</v>
+        <v>0.2357622938420855</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005638383604951658</v>
+        <v>0.005489058562164392</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.004028017992191466</v>
+        <v>-0.004565521719550076</v>
       </c>
       <c r="P92" t="n">
-        <v>0.3691856212880175</v>
+        <v>0.3760124865766379</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005603252546648344</v>
+        <v>0.005600778165413852</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.004440137880437177</v>
+        <v>-0.0028030042495079</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.04176672387205033</v>
+        <v>0.04225704116340462</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006447217421023444</v>
+        <v>0.006410863600565052</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.001309032299480224</v>
+        <v>-0.002889873820022513</v>
       </c>
       <c r="J93" t="n">
-        <v>0.09898355680100264</v>
+        <v>0.09998156728409317</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006507234992546304</v>
+        <v>0.006351519461582861</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.001164708541003053</v>
+        <v>-0.002251513757832807</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2473150699401458</v>
+        <v>0.2430823275734269</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006443866977087608</v>
+        <v>0.006273209785330734</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.004028017992191466</v>
+        <v>-0.004565521719550076</v>
       </c>
       <c r="P93" t="n">
-        <v>0.379670698043173</v>
+        <v>0.3878650327871529</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.006403717196169536</v>
+        <v>0.006400889331901544</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.004440137880437177</v>
+        <v>-0.0028030042495079</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04272226062356148</v>
+        <v>0.04327229854254754</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007253119598651375</v>
+        <v>0.007212221550635684</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.001309032299480224</v>
+        <v>-0.002889873820022513</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1015142628024168</v>
+        <v>0.1026950438503749</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007320639366614592</v>
+        <v>0.007145459394280719</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.001164708541003053</v>
+        <v>-0.002251513757832807</v>
       </c>
       <c r="M94" t="n">
-        <v>0.254160288887072</v>
+        <v>0.2498716524630996</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007249350349223559</v>
+        <v>0.007057361008497074</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.004028017992191466</v>
+        <v>-0.004565521719550076</v>
       </c>
       <c r="P94" t="n">
-        <v>0.3892269327361163</v>
+        <v>0.3987143508460655</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007204181845690729</v>
+        <v>0.007201000498389238</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.004440137880437177</v>
+        <v>-0.0028030042495079</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04358046635131373</v>
+        <v>0.04416579500018916</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008059021776279304</v>
+        <v>0.008013579500706317</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.001309032299480224</v>
+        <v>-0.002889007031234264</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1037774107719851</v>
+        <v>0.1052363674153572</v>
       </c>
       <c r="K95" t="n">
-        <v>0.00813404374068288</v>
+        <v>0.007939399326978576</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.001164708541003053</v>
+        <v>-0.002251513757832807</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2603833614373608</v>
+        <v>0.2558926473604057</v>
       </c>
       <c r="N95" t="n">
-        <v>0.008054833721359509</v>
+        <v>0.007841512231663418</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.004028017992191466</v>
+        <v>-0.004565521719550076</v>
       </c>
       <c r="P95" t="n">
-        <v>0.3979010037631532</v>
+        <v>0.4086851503488541</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.008004646495211921</v>
+        <v>0.008001111664876931</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.004440137880437177</v>
+        <v>-0.0028030042495079</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.04436878334980859</v>
+        <v>0.04498523585770997</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008864923953907235</v>
+        <v>0.008814937450776947</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.001333665953170643</v>
+        <v>-0.003431502163087848</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1058487079183021</v>
+        <v>0.1075129383259295</v>
       </c>
       <c r="K96" t="n">
-        <v>0.008947448114751169</v>
+        <v>0.008733339259676433</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.001413118086494486</v>
+        <v>-0.002240402338663413</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2659012219603232</v>
+        <v>0.2613848709183923</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008860317093495461</v>
+        <v>0.008625663454829758</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.003670726689668292</v>
+        <v>-0.003996325727410999</v>
       </c>
       <c r="P96" t="n">
-        <v>0.4059368510861223</v>
+        <v>0.4177722209142638</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.008805111144733114</v>
+        <v>0.008801222831364624</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.00449558238074328</v>
+        <v>-0.002655762255341529</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.0450332228156014</v>
+        <v>0.0456971777172597</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009670826131535167</v>
+        <v>0.009616295400847579</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.001333665953170643</v>
+        <v>-0.003431502163087848</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1077125891229453</v>
+        <v>0.1096332904932393</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009760852488819458</v>
+        <v>0.009527279192374291</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.001413118086494486</v>
+        <v>-0.002240402338663413</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2709615184359227</v>
+        <v>0.2663909755783302</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009665800465631412</v>
+        <v>0.009409814677996099</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.003670726689668292</v>
+        <v>-0.003996325727410999</v>
       </c>
       <c r="P97" t="n">
-        <v>0.4131233162231381</v>
+        <v>0.4257638296382732</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009605575794254305</v>
+        <v>0.009601333997852316</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.00449558238074328</v>
+        <v>-0.002655762255341529</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04565577317110071</v>
+        <v>0.04634331705237742</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0104767283091631</v>
+        <v>0.01041765335091821</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.001333665953170643</v>
+        <v>-0.003432188463520466</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1094476736966174</v>
+        <v>0.1114847672709019</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01057425686288774</v>
+        <v>0.01032121912507215</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.001413118086494486</v>
+        <v>-0.002240402338663413</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2754815173838921</v>
+        <v>0.2710374802176516</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01047128383776736</v>
+        <v>0.01019396590116244</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.003670726689668292</v>
+        <v>-0.003996325727410999</v>
       </c>
       <c r="P98" t="n">
-        <v>0.419840680236813</v>
+        <v>0.4332562948984157</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.0104060404437755</v>
+        <v>0.01040144516434001</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.00449558238074328</v>
+        <v>-0.002655762255341529</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04619560796012913</v>
+        <v>0.04693845990356098</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01128263048679103</v>
+        <v>0.01121901130098884</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.001333665953170643</v>
+        <v>-0.003431159012871539</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1109580738235123</v>
+        <v>0.1132426787438844</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01138766123695603</v>
+        <v>0.01111515905777001</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.001413118086494486</v>
+        <v>-0.002240402338663413</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2795877921365945</v>
+        <v>0.2751138576866279</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01127676720990332</v>
+        <v>0.01097811712432878</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.003670726689668292</v>
+        <v>-0.003996325727410999</v>
       </c>
       <c r="P99" t="n">
-        <v>0.4257386043474672</v>
+        <v>0.4400411844175779</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01120650509329669</v>
+        <v>0.0112015563308277</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.00449558238074328</v>
+        <v>-0.002655762255341529</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04666650488838273</v>
+        <v>0.0474407822480301</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01208853266441896</v>
+        <v>0.01202036925105947</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.001347677505812029</v>
+        <v>-0.00380688076839336</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1123872788435914</v>
+        <v>0.1148089420543986</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01220106561102432</v>
+        <v>0.01190909899046786</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.001732260839368259</v>
+        <v>-0.002226020829244167</v>
       </c>
       <c r="M100" t="n">
-        <v>0.283410118577381</v>
+        <v>0.278785872174083</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01208225058203926</v>
+        <v>0.01176226834749513</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.003244828242513118</v>
+        <v>-0.003310916498961333</v>
       </c>
       <c r="P100" t="n">
-        <v>0.4310657764622301</v>
+        <v>0.4461771449349838</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01200696974281788</v>
+        <v>0.0120016674973154</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.004532901507346257</v>
+        <v>-0.002477731516683809</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04708248233972795</v>
+        <v>0.0478998979196439</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01289443484204689</v>
+        <v>0.0128217272011301</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.001347677505812029</v>
+        <v>-0.003807642220692269</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1136376996489711</v>
+        <v>0.1162306352155685</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01301446998509261</v>
+        <v>0.01270303892316572</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.001732260839368259</v>
+        <v>-0.002226020829244167</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2866003805967818</v>
+        <v>0.2819647556962407</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01288773395417522</v>
+        <v>0.01254641957066147</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.003244828242513118</v>
+        <v>-0.003310916498961333</v>
       </c>
       <c r="P101" t="n">
-        <v>0.4361463114214258</v>
+        <v>0.4514422417717199</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01280743439233907</v>
+        <v>0.01280177866380309</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.004532901507346257</v>
+        <v>-0.002477731516683809</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0474648343487003</v>
+        <v>0.04830190181532078</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01370033701967482</v>
+        <v>0.01362308515120074</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.001347677505812029</v>
+        <v>-0.003807261494542814</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1147895025983598</v>
+        <v>0.1175225360570453</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0138278743591609</v>
+        <v>0.01349697885586358</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.001732260839368259</v>
+        <v>-0.002226020829244167</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2895904443023237</v>
+        <v>0.2849496518717593</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01369321732631117</v>
+        <v>0.01333057079382781</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.003244828242513118</v>
+        <v>-0.003310916498961333</v>
       </c>
       <c r="P102" t="n">
-        <v>0.4404828551954566</v>
+        <v>0.4564544018560137</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.01360789904186027</v>
+        <v>0.01360188983029078</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.004532901507346257</v>
+        <v>-0.002477731516683809</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04779946807029183</v>
+        <v>0.04866126392208471</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01450623919730275</v>
+        <v>0.01442444310127137</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.001347677505812029</v>
+        <v>-0.00380688076839336</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1158749765782894</v>
+        <v>0.1187162906638955</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01464127873322918</v>
+        <v>0.01429091878856144</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.001732260839368259</v>
+        <v>-0.002226020829244167</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2924248885832588</v>
+        <v>0.2877403121247891</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01449870069844712</v>
+        <v>0.01411472201699415</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.003244828242513118</v>
+        <v>-0.003310916498961333</v>
       </c>
       <c r="P103" t="n">
-        <v>0.4443281129613874</v>
+        <v>0.4608517192679735</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01440836369138146</v>
+        <v>0.01440200099677848</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.004532901507346257</v>
+        <v>-0.002477731516683809</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04810768854737681</v>
+        <v>0.04897086547398073</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01531214137493068</v>
+        <v>0.015225801051342</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.001357831101468493</v>
+        <v>-0.004045389748013286</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1167932931354794</v>
+        <v>0.1197421202802867</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01545468310729747</v>
+        <v>0.01508485872125929</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.002065204928159088</v>
+        <v>-0.002212192237785603</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2947919648559322</v>
+        <v>0.2901149406851479</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01530418407058307</v>
+        <v>0.01489887324016049</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.002834889589715457</v>
+        <v>-0.002648550831258185</v>
       </c>
       <c r="P104" t="n">
-        <v>0.4480796775166461</v>
+        <v>0.4651194650509527</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01520882834090265</v>
+        <v>0.01520211216326617</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.004555651370917916</v>
+        <v>-0.002301950213720005</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04837509963902932</v>
+        <v>0.04927429052184333</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01611804355255861</v>
+        <v>0.01602715900141263</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.001357831101468493</v>
+        <v>-0.004045389748013286</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1176925870403646</v>
+        <v>0.1207843379786241</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01626808748136576</v>
+        <v>0.01587879865395715</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.002065204928159088</v>
+        <v>-0.002212192237785603</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2970429176008446</v>
+        <v>0.2924212197555938</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01610966744271902</v>
+        <v>0.01568302446332684</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.002834889589715457</v>
+        <v>-0.002648550831258185</v>
       </c>
       <c r="P105" t="n">
-        <v>0.451370465506361</v>
+        <v>0.4686023567238539</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01600929299042384</v>
+        <v>0.01600222332975386</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.004555651370917916</v>
+        <v>-0.002301950213720005</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04863748137372405</v>
+        <v>0.04954265231605331</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01692394573018654</v>
+        <v>0.01682851695148326</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.001357831101468493</v>
+        <v>-0.004045389748013286</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1185721729072545</v>
+        <v>0.1216877728190475</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01708149185543405</v>
+        <v>0.01667273858665501</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.002065204928159088</v>
+        <v>-0.002212192237785603</v>
       </c>
       <c r="M106" t="n">
-        <v>0.2992209849524277</v>
+        <v>0.2946130630644762</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01691515081485497</v>
+        <v>0.01646717568649318</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.002834889589715457</v>
+        <v>-0.002648550831258185</v>
       </c>
       <c r="P106" t="n">
-        <v>0.45445934346581</v>
+        <v>0.4720027148913275</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01680975763994503</v>
+        <v>0.01680233449624155</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.004555651370917916</v>
+        <v>-0.002301950213720005</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04887311823209139</v>
+        <v>0.04980515691122187</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01772984790781447</v>
+        <v>0.01762987490155389</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.001357831101468493</v>
+        <v>-0.004045389748013286</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1193632099600199</v>
+        <v>0.1225523795068283</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01789489622950234</v>
+        <v>0.01746667851935287</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.002065204928159088</v>
+        <v>-0.002212192237785603</v>
       </c>
       <c r="M107" t="n">
-        <v>0.3010534575456562</v>
+        <v>0.2965978999700877</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01772063418699092</v>
+        <v>0.01725132690965952</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.002834889589715457</v>
+        <v>-0.002648550831258185</v>
       </c>
       <c r="P107" t="n">
-        <v>0.4571138596418558</v>
+        <v>0.4752374121355295</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01761022228946623</v>
+        <v>0.01760244566272925</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.004555651370917916</v>
+        <v>-0.002301950213720005</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04912525868859317</v>
+        <v>0.05007661512962421</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0185357500854424</v>
+        <v>0.01843123285162452</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.001369547364979684</v>
+        <v>-0.004171291754180189</v>
       </c>
       <c r="J108" t="n">
-        <v>0.120182423037405</v>
+        <v>0.123393196705324</v>
       </c>
       <c r="K108" t="n">
-        <v>0.01870830060357062</v>
+        <v>0.01826061845205073</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.002355018481401691</v>
+        <v>-0.002199414463073203</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3029417241306468</v>
+        <v>0.2984602075829463</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01852611755912687</v>
+        <v>0.01803547813282586</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.002525477670264818</v>
+        <v>-0.002148878716296594</v>
       </c>
       <c r="P108" t="n">
-        <v>0.4596650517080184</v>
+        <v>0.4782205410687957</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.01841068693898742</v>
+        <v>0.01840255682921694</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.004567388082130077</v>
+        <v>-0.002160677745846049</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04936477652627375</v>
+        <v>0.05033502700735901</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01934165226307033</v>
+        <v>0.01923259080169516</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.001369547364979684</v>
+        <v>-0.004170874666713518</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1209433178232398</v>
+        <v>0.1241729946866856</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01952170497763892</v>
+        <v>0.01905455838474858</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.002355018481401691</v>
+        <v>-0.002199414463073203</v>
       </c>
       <c r="M109" t="n">
-        <v>0.3047929203588119</v>
+        <v>0.300330316387252</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01933160093126282</v>
+        <v>0.0188196293559922</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.002525477670264818</v>
+        <v>-0.002148878716296594</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4621633035449729</v>
+        <v>0.4811562651656849</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01921115158850861</v>
+        <v>0.01920266799570463</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.004567388082130077</v>
+        <v>-0.002160677745846049</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04959861329170473</v>
+        <v>0.05058761226785249</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02014755444069826</v>
+        <v>0.02003394875176579</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.001369547364979684</v>
+        <v>-0.004171291754180189</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1217120631150421</v>
+        <v>0.1249235706251183</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0203351093517072</v>
+        <v>0.01984849831744644</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.002355018481401691</v>
+        <v>-0.002199414463073203</v>
       </c>
       <c r="M110" t="n">
-        <v>0.3066489212291802</v>
+        <v>0.3021591899247347</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02013708430339877</v>
+        <v>0.01960378057915854</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.002525477670264818</v>
+        <v>-0.002148878716296594</v>
       </c>
       <c r="P110" t="n">
-        <v>0.4648018467079461</v>
+        <v>0.4838841071457788</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.0200116162380298</v>
+        <v>0.02000277916219233</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.004567388082130077</v>
+        <v>-0.002160677745846049</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04985570709633982</v>
+        <v>0.05088620211503596</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02095345661832619</v>
+        <v>0.02083530670183642</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.001369547364979684</v>
+        <v>-0.004171708841646861</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1225212647307627</v>
+        <v>0.1257649041124285</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02114851372577549</v>
+        <v>0.0206424382501443</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.002355018481401691</v>
+        <v>-0.002199414463073203</v>
       </c>
       <c r="M111" t="n">
-        <v>0.3086433212330775</v>
+        <v>0.3040778984830718</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02094256767553473</v>
+        <v>0.02038793180232489</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.002525477670264818</v>
+        <v>-0.001954694548206173</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4672021510620136</v>
+        <v>0.4867559078467302</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02081208088755099</v>
+        <v>0.02080289032868002</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.004567388082130077</v>
+        <v>-0.002160677745846049</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05016531336824796</v>
+        <v>0.05118624949217335</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02175935879595413</v>
+        <v>0.02163666465190705</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.001388198625020386</v>
+        <v>-0.004210996284933961</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1233691876769442</v>
+        <v>0.1265187821248264</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02196191809984378</v>
+        <v>0.02143637818284215</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.002544769627630783</v>
+        <v>-0.002192829115895353</v>
       </c>
       <c r="M112" t="n">
-        <v>0.3106349546717966</v>
+        <v>0.3061278479953782</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02174805104767068</v>
+        <v>0.02117208302549122</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.002401159423150714</v>
+        <v>-0.001954694548206173</v>
       </c>
       <c r="P112" t="n">
-        <v>0.4694116020319383</v>
+        <v>0.4896103555877984</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02161254553707219</v>
+        <v>0.02160300149516771</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.004571667751654547</v>
+        <v>-0.002088878564540696</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05046091579994937</v>
+        <v>0.05153235378897311</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02256526097358205</v>
+        <v>0.02243802260197768</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.001388198625020386</v>
+        <v>-0.004210996284933961</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1242537624636909</v>
+        <v>0.1274113490812097</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02277532247391207</v>
+        <v>0.02223031811554001</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.002544769627630783</v>
+        <v>-0.002192829115895353</v>
       </c>
       <c r="M113" t="n">
-        <v>0.312757043838341</v>
+        <v>0.3083045084806839</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02255353441980663</v>
+        <v>0.02195623424865757</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.002401159423150714</v>
+        <v>-0.001954694548206173</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4721272949448493</v>
+        <v>0.4926539428752791</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02241301018659338</v>
+        <v>0.02240311266165541</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.004571667751654547</v>
+        <v>-0.002088878564540696</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05079839042208101</v>
+        <v>0.05189601651220795</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02337116315120999</v>
+        <v>0.02323938055204831</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.001388198625020386</v>
+        <v>-0.004210996284933961</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1252776766025556</v>
+        <v>0.1282450226419952</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02358872684798035</v>
+        <v>0.02302425804823787</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.002544769627630783</v>
+        <v>-0.002192829115895353</v>
       </c>
       <c r="M114" t="n">
-        <v>0.3149519649456413</v>
+        <v>0.3104434007616501</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02335901779194258</v>
+        <v>0.02274038547182391</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.002401159423150714</v>
+        <v>-0.001954694548206173</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4746063334704841</v>
+        <v>0.4955736398851976</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02321347483611457</v>
+        <v>0.0232032238281431</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.004571667751654547</v>
+        <v>-0.002088878564540696</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.05113406860758785</v>
+        <v>0.05223662658056245</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02417706532883792</v>
+        <v>0.02404073850211895</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.001388198625020386</v>
+        <v>-0.004210575269508552</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1263341205610377</v>
+        <v>0.1292435699947175</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02440213122204864</v>
+        <v>0.02381819798093573</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.002544769627630783</v>
+        <v>-0.002192829115895353</v>
       </c>
       <c r="M115" t="n">
-        <v>0.3171590174170056</v>
+        <v>0.3125976752300667</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02416450116407853</v>
+        <v>0.02352453669499025</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.002401159423150714</v>
+        <v>-0.001954694548206173</v>
       </c>
       <c r="P115" t="n">
-        <v>0.4774034059246363</v>
+        <v>0.4987962566641843</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02401393948563576</v>
+        <v>0.02400333499463079</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.004571667751654547</v>
+        <v>-0.002088878564540696</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05144582537022763</v>
+        <v>0.0525750261793352</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02498296750646585</v>
+        <v>0.02484209645218957</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.001414341746610863</v>
+        <v>-0.004152750222069661</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1274515774964413</v>
+        <v>0.1301672603331099</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02521553559611693</v>
+        <v>0.02461213791363358</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.002586324828028838</v>
+        <v>-0.00220774195048124</v>
       </c>
       <c r="M116" t="n">
-        <v>0.3191428107955566</v>
+        <v>0.314674026743519</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02496998453621448</v>
+        <v>0.02430868791815659</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.002458291474213086</v>
+        <v>-0.001957144662358074</v>
       </c>
       <c r="P116" t="n">
-        <v>0.4804498716178724</v>
+        <v>0.5021933050783309</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02481440413515695</v>
+        <v>0.02480344616111849</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.004565657489448289</v>
+        <v>-0.002097151263920861</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05172621462802125</v>
+        <v>0.05291154148888876</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02578886968409378</v>
+        <v>0.02564345440226021</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.001414341746610863</v>
+        <v>-0.004153996171731247</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1286557762038131</v>
+        <v>0.1310458796825295</v>
       </c>
       <c r="K117" t="n">
-        <v>0.02602893997018522</v>
+        <v>0.02540607784633145</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.002586324828028838</v>
+        <v>-0.00220774195048124</v>
       </c>
       <c r="M117" t="n">
-        <v>0.3212767099806481</v>
+        <v>0.3168108410568805</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02577546790835043</v>
+        <v>0.02509283914132293</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.002458291474213086</v>
+        <v>-0.001957144662358074</v>
       </c>
       <c r="P117" t="n">
-        <v>0.4834419298461515</v>
+        <v>0.5051623272384356</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02561486878467814</v>
+        <v>0.02560355732760618</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.004565657489448289</v>
+        <v>-0.002097151263920861</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05202810871467954</v>
+        <v>0.05325416802308147</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02659477186172171</v>
+        <v>0.02644481235233084</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.001414341746610863</v>
+        <v>-0.004153580855177385</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1298283065714009</v>
+        <v>0.1319891780618286</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0268423443442535</v>
+        <v>0.0262000177790293</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.002586324828028838</v>
+        <v>-0.00220774195048124</v>
       </c>
       <c r="M118" t="n">
-        <v>0.3234200691785954</v>
+        <v>0.3188208174272359</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02658095128048639</v>
+        <v>0.02587699036448927</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.002458291474213086</v>
+        <v>-0.001957144662358074</v>
       </c>
       <c r="P118" t="n">
-        <v>0.4861962495654821</v>
+        <v>0.5083799460282092</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02641533343419934</v>
+        <v>0.02640366849409387</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.004565657489448289</v>
+        <v>-0.002097151263920861</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05231421403480216</v>
+        <v>0.05357248870202352</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02740067403934964</v>
+        <v>0.02724617030240147</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.001414341746610863</v>
+        <v>-0.004153165538623523</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1310384469098764</v>
+        <v>0.1328347683644058</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0276557487183218</v>
+        <v>0.02699395771172716</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.002586324828028838</v>
+        <v>-0.00220774195048124</v>
       </c>
       <c r="M119" t="n">
-        <v>0.3253346712852024</v>
+        <v>0.3208429687524632</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02738643465262234</v>
+        <v>0.02666114158765562</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.002613247808815097</v>
+        <v>-0.001957144662358074</v>
       </c>
       <c r="P119" t="n">
-        <v>0.4887881544571103</v>
+        <v>0.5111635562914657</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.02721579808372053</v>
+        <v>0.02720377966058156</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.004565657489448289</v>
+        <v>-0.002097151263920861</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05258470944251641</v>
+        <v>0.05388200768797757</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02820657621697756</v>
+        <v>0.0280475282524721</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.001439659021826373</v>
+        <v>-0.003986459400591874</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1322298333882189</v>
+        <v>0.1336559207529515</v>
       </c>
       <c r="K120" t="n">
-        <v>0.02846915309239008</v>
+        <v>0.02778789764442502</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.002567585987868509</v>
+        <v>-0.002299811595810544</v>
       </c>
       <c r="M120" t="n">
-        <v>0.3273988313823548</v>
+        <v>0.3228296022645838</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02819191802475828</v>
+        <v>0.02744529281082196</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.002613247808815097</v>
+        <v>-0.001965004263853472</v>
       </c>
       <c r="P120" t="n">
-        <v>0.491590739726494</v>
+        <v>0.5142717508169924</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02801626273324172</v>
+        <v>0.02800389082706926</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.004492095890156381</v>
+        <v>-0.002144767117349646</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.05285505188424224</v>
+        <v>0.05417517657774977</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0290124783946055</v>
+        <v>0.02884888620254274</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.001439659021826373</v>
+        <v>-0.003986459400591874</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1333813535593303</v>
+        <v>0.134471926653574</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02928255746645837</v>
+        <v>0.02858183757712288</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.002567585987868509</v>
+        <v>-0.002299811595810544</v>
       </c>
       <c r="M121" t="n">
-        <v>0.3293262076044003</v>
+        <v>0.3248746575524057</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02899740139689424</v>
+        <v>0.0282294440339883</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.002613247808815097</v>
+        <v>-0.001965004263853472</v>
       </c>
       <c r="P121" t="n">
-        <v>0.4940149777800334</v>
+        <v>0.5172475366361756</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02881672738276292</v>
+        <v>0.02880400199355695</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.004492095890156381</v>
+        <v>-0.002144767117349646</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05314091310781202</v>
+        <v>0.05447551865349268</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02981838057223343</v>
+        <v>0.02965024415261337</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.001439659021826373</v>
+        <v>-0.003986459400591874</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1345821736829105</v>
+        <v>0.1352653414551963</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03009596184052666</v>
+        <v>0.02937577750982073</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.002567585987868509</v>
+        <v>-0.002299811595810544</v>
       </c>
       <c r="M122" t="n">
-        <v>0.3310663914718379</v>
+        <v>0.3267875888935362</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02980288476903019</v>
+        <v>0.02901359525715464</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.002613247808815097</v>
+        <v>-0.001965004263853472</v>
       </c>
       <c r="P122" t="n">
-        <v>0.4966582021660324</v>
+        <v>0.5199349042170991</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.02961719203228411</v>
+        <v>0.02960411316004464</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.004492095890156381</v>
+        <v>-0.002144767117349646</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0533966567323121</v>
+        <v>0.054744298437171</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03062428274986136</v>
+        <v>0.030451602102684</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.001439659021826373</v>
+        <v>-0.003987256772209155</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1357937889196567</v>
+        <v>0.1360183984951935</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03090936621459495</v>
+        <v>0.03016971744251859</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.002567585987868509</v>
+        <v>-0.002299811595810544</v>
       </c>
       <c r="M123" t="n">
-        <v>0.3329063585782028</v>
+        <v>0.3285662324071619</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03060836814116614</v>
+        <v>0.02979774648032099</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.002613247808815097</v>
+        <v>-0.001965004263853472</v>
       </c>
       <c r="P123" t="n">
-        <v>0.4991519669772549</v>
+        <v>0.5226392832131953</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.0304176566818053</v>
+        <v>0.03040422432653234</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.004492095890156381</v>
+        <v>-0.002144767117349646</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.0536300307269799</v>
+        <v>0.05502860380071015</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03143018492748929</v>
+        <v>0.03125296005275463</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.001465268414006723</v>
+        <v>-0.003745499357163824</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1369580542928589</v>
+        <v>0.1367877459118186</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03172277058866323</v>
+        <v>0.03096365737521645</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.002531977853355767</v>
+        <v>-0.002458008288828891</v>
       </c>
       <c r="M124" t="n">
-        <v>0.3347496740618108</v>
+        <v>0.3304006311517121</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03141385151330209</v>
+        <v>0.03058189770348733</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.002836232665801885</v>
+        <v>-0.001977072139434585</v>
       </c>
       <c r="P124" t="n">
-        <v>0.5014234969492215</v>
+        <v>0.525437934138723</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.03121812133132649</v>
+        <v>0.03120433549302003</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.004350831726023981</v>
+        <v>-0.002225524261907058</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05388758029746156</v>
+        <v>0.05531314049962509</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03223608710511722</v>
+        <v>0.03205431800282527</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.001465268414006723</v>
+        <v>-0.003745499357163824</v>
       </c>
       <c r="J125" t="n">
-        <v>0.138090663471066</v>
+        <v>0.1375184096420076</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03253617496273152</v>
+        <v>0.0317575973079143</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.002531977853355767</v>
+        <v>-0.002458008288828891</v>
       </c>
       <c r="M125" t="n">
-        <v>0.3364984221420266</v>
+        <v>0.3322908692116491</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03221933488543804</v>
+        <v>0.03136604892665367</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.002836232665801885</v>
+        <v>-0.001977072139434585</v>
       </c>
       <c r="P125" t="n">
-        <v>0.5037006002400365</v>
+        <v>0.5281757161892215</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03201858598084768</v>
+        <v>0.03200444665950773</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.004350831726023981</v>
+        <v>-0.002225524261907058</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05411552858796528</v>
+        <v>0.05557448533790728</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03304198928274515</v>
+        <v>0.03285567595289589</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.001465268414006723</v>
+        <v>-0.003746623119347192</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1392456224306045</v>
+        <v>0.1382486534066168</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03334957933679981</v>
+        <v>0.03255153724061216</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.002531977853355767</v>
+        <v>-0.002458008288828891</v>
       </c>
       <c r="M126" t="n">
-        <v>0.3382973974010299</v>
+        <v>0.3339950082386207</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03302481825757399</v>
+        <v>0.03215020014982001</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.002836232665801885</v>
+        <v>-0.001977072139434585</v>
       </c>
       <c r="P126" t="n">
-        <v>0.5058359005511307</v>
+        <v>0.5306172664860166</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03281905063036888</v>
+        <v>0.03280455782599542</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.004350831726023981</v>
+        <v>-0.002225524261907058</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.0543528507183899</v>
+        <v>0.05582856438376697</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03384789146037308</v>
+        <v>0.03365703390296652</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.001465268414006723</v>
+        <v>-0.003746248531952736</v>
       </c>
       <c r="J127" t="n">
-        <v>0.140326028828264</v>
+        <v>0.1389228452941138</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0341629837108681</v>
+        <v>0.03334547717331002</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.002531977853355767</v>
+        <v>-0.002661358048310537</v>
       </c>
       <c r="M127" t="n">
-        <v>0.3398525391496368</v>
+        <v>0.3356075989387792</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03383030162970994</v>
+        <v>0.03293435137298635</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.003097462857480881</v>
+        <v>-0.001977072139434585</v>
       </c>
       <c r="P127" t="n">
-        <v>0.5079834578150283</v>
+        <v>0.5333857331906685</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03361951527989007</v>
+        <v>0.03360466899248311</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.004350831726023981</v>
+        <v>-0.002225524261907058</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.05456091492227146</v>
+        <v>0.0560755971772965</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03465379363800101</v>
+        <v>0.03445839185303715</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.001493960841804024</v>
+        <v>-0.003463180627811975</v>
       </c>
       <c r="J128" t="n">
-        <v>0.141462469886411</v>
+        <v>0.1395982912912201</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03497638808493639</v>
+        <v>0.03413941710600788</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.002486620700512936</v>
+        <v>-0.002661358048310537</v>
       </c>
       <c r="M128" t="n">
-        <v>0.3414064808449614</v>
+        <v>0.3372733347012941</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03463578500184589</v>
+        <v>0.03371850259615269</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.003097462857480881</v>
+        <v>-0.001992338682787469</v>
       </c>
       <c r="P128" t="n">
-        <v>0.5101470238070492</v>
+        <v>0.5356980248306681</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.03441997992941126</v>
+        <v>0.0344047801589708</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.004159765064857823</v>
+        <v>-0.002334677353908507</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05479458611619291</v>
+        <v>0.05631580325858829</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03545969581562894</v>
+        <v>0.03525974980310779</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.001493960841804024</v>
+        <v>-0.003462488130185938</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1424805844568573</v>
+        <v>0.1402760311530332</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03578979245900468</v>
+        <v>0.03493335703870573</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.002486620700512936</v>
+        <v>-0.002661358048310537</v>
       </c>
       <c r="M129" t="n">
-        <v>0.3430571791765609</v>
+        <v>0.339041092944856</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03544126837398184</v>
+        <v>0.03450265381931903</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.003097462857480881</v>
+        <v>-0.001992338682787469</v>
       </c>
       <c r="P129" t="n">
-        <v>0.5120254742511605</v>
+        <v>0.5381010127634016</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.03522044457893245</v>
+        <v>0.0352048913254585</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.004159765064857823</v>
+        <v>-0.002334677353908507</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.05499159096871342</v>
+        <v>0.05652539093829381</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03626559799325688</v>
+        <v>0.03606110775317842</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.001493960841804024</v>
+        <v>-0.003463180627811975</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1435312068472347</v>
+        <v>0.1408998248155118</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03660319683307296</v>
+        <v>0.03572729697140359</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.002486620700512936</v>
+        <v>-0.002661358048310537</v>
       </c>
       <c r="M130" t="n">
-        <v>0.344458703442856</v>
+        <v>0.3404698084457301</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03624675174611779</v>
+        <v>0.03528680504248537</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.003097462857480881</v>
+        <v>-0.001992338682787469</v>
       </c>
       <c r="P130" t="n">
-        <v>0.5142313838687516</v>
+        <v>0.5403578718512001</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.03602090922845364</v>
+        <v>0.03600500249194619</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.004159765064857823</v>
+        <v>-0.002334677353908507</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.05520703429189032</v>
+        <v>0.05677661344482827</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03707150017088481</v>
+        <v>0.03686246570324905</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.001493960841804024</v>
+        <v>-0.003462834378998956</v>
       </c>
       <c r="J131" t="n">
-        <v>0.144612867131701</v>
+        <v>0.141546739176528</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03741660120714125</v>
+        <v>0.03652123690410145</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.002486620700512936</v>
+        <v>-0.002661358048310537</v>
       </c>
       <c r="M131" t="n">
-        <v>0.3459057176502489</v>
+        <v>0.3420477186997627</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03705223511825375</v>
+        <v>0.03607095626565172</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.003097462857480881</v>
+        <v>-0.001992338682787469</v>
       </c>
       <c r="P131" t="n">
-        <v>0.5161579760643755</v>
+        <v>0.5428631384595949</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.03682137387797484</v>
+        <v>0.03680511365843388</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.004159765064857823</v>
+        <v>-0.002334677353908507</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05540980383943112</v>
+        <v>0.05697351095107153</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03787740234851273</v>
+        <v>0.03766382365331968</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.00152381631244966</v>
+        <v>-0.003173787606672118</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1455675906561848</v>
+        <v>0.142121913184476</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03823000558120954</v>
+        <v>0.03731517683679931</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.002438634805362344</v>
+        <v>-0.002889328353127817</v>
       </c>
       <c r="M132" t="n">
-        <v>0.3474476839667281</v>
+        <v>0.3435782159227866</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0378577184903897</v>
+        <v>0.03685510748881806</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.003367155196159513</v>
+        <v>-0.002010993421033365</v>
       </c>
       <c r="P132" t="n">
-        <v>0.5179602008209707</v>
+        <v>0.5449029231267595</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03762183852749603</v>
+        <v>0.03760522482492158</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.003936795974464639</v>
+        <v>-0.002466564947950959</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05560801391277725</v>
+        <v>0.05719661113364166</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03868330452614067</v>
+        <v>0.03846518160339032</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.00152381631244966</v>
+        <v>-0.00317473983817727</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1465290617507417</v>
+        <v>0.1427412844910649</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03904340995527783</v>
+        <v>0.03810911676949717</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.002438634805362344</v>
+        <v>-0.002889328353127817</v>
       </c>
       <c r="M133" t="n">
-        <v>0.3486857168504563</v>
+        <v>0.3449117808627111</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03866320186252565</v>
+        <v>0.0376392587119844</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.003367155196159513</v>
+        <v>-0.002010993421033365</v>
       </c>
       <c r="P133" t="n">
-        <v>0.5197945592223947</v>
+        <v>0.5471104597498001</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.03842230317701722</v>
+        <v>0.03840533599140927</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.003936795974464639</v>
+        <v>-0.002466564947950959</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05578606964334742</v>
+        <v>0.05739784389321154</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0394892067037686</v>
+        <v>0.03926653955346095</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.00152381631244966</v>
+        <v>-0.003174105017173835</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1474954417174692</v>
+        <v>0.1433095621475544</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03985681432934612</v>
+        <v>0.03890305670219502</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.002438634805362344</v>
+        <v>-0.002889328353127817</v>
       </c>
       <c r="M134" t="n">
-        <v>0.3499166832586387</v>
+        <v>0.3463439442100294</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0394686852346616</v>
+        <v>0.03842340993515075</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.003367155196159513</v>
+        <v>-0.002010993421033365</v>
       </c>
       <c r="P134" t="n">
-        <v>0.5214332562178258</v>
+        <v>0.5490070538573111</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.03922276782653841</v>
+        <v>0.03920544715789696</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.003936795974464639</v>
+        <v>-0.002466564947950959</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05599976338180752</v>
+        <v>0.05762597303452086</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04029510888139652</v>
+        <v>0.04006789750353158</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.00152381631244966</v>
+        <v>-0.00317473983817727</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1483458418885114</v>
+        <v>0.1439241864523773</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0406702187034144</v>
+        <v>0.03969699663489288</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.002438634805362344</v>
+        <v>-0.002889328353127817</v>
       </c>
       <c r="M135" t="n">
-        <v>0.3512902007102178</v>
+        <v>0.3476260807589923</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04027416860679755</v>
+        <v>0.03920756115831708</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.003367155196159513</v>
+        <v>-0.002030421885489346</v>
       </c>
       <c r="P135" t="n">
-        <v>0.5232649790618529</v>
+        <v>0.5512306192174484</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.0400232324760596</v>
+        <v>0.04000555832438465</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.003936795974464639</v>
+        <v>-0.002466564947950959</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05616996727389903</v>
+        <v>0.0578245392527356</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04110101105902446</v>
+        <v>0.04086925545360221</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.001551635110151304</v>
+        <v>-0.002913176126753549</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1492361600007925</v>
+        <v>0.1444892713182587</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04148362307748269</v>
+        <v>0.04049093656759074</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.002395140443926316</v>
+        <v>-0.003121698820821277</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3523544243888703</v>
+        <v>0.3490557642348955</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04107965197893351</v>
+        <v>0.03999171238148343</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.00361552649414521</v>
+        <v>-0.002030421885489346</v>
       </c>
       <c r="P136" t="n">
-        <v>0.5249069116299661</v>
+        <v>0.5531405447838162</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.04082369712558079</v>
+        <v>0.04080566949087235</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.003699824522651161</v>
+        <v>-0.002616415897366014</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05636853989806682</v>
+        <v>0.05800173392530908</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04190691323665239</v>
+        <v>0.04167061340367284</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.001551635110151304</v>
+        <v>-0.002913176126753549</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1500049719742254</v>
+        <v>0.1450053146820716</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04229702745155098</v>
+        <v>0.0412848765002886</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.002395140443926316</v>
+        <v>-0.003121698820821277</v>
       </c>
       <c r="M137" t="n">
-        <v>0.353509269997916</v>
+        <v>0.3501833019478975</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04188513535106946</v>
+        <v>0.04077586360464977</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.00361552649414521</v>
+        <v>-0.002030421885489346</v>
       </c>
       <c r="P137" t="n">
-        <v>0.5268271418448299</v>
+        <v>0.5549754207894146</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.04162416177510199</v>
+        <v>0.04160578065736004</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.003699824522651161</v>
+        <v>-0.002616415897366014</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05654794161701054</v>
+        <v>0.05819851061696511</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04271281541428031</v>
+        <v>0.04247197135374347</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.001551635110151304</v>
+        <v>-0.002912593549785895</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1507894574417628</v>
+        <v>0.1455901685554125</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04311043182561927</v>
+        <v>0.04207881643298645</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.002395140443926316</v>
+        <v>-0.003121698820821277</v>
       </c>
       <c r="M138" t="n">
-        <v>0.3544518708007615</v>
+        <v>0.3513568187151422</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0426906187232054</v>
+        <v>0.04156001482781611</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.00361552649414521</v>
+        <v>-0.002030421885489346</v>
       </c>
       <c r="P138" t="n">
-        <v>0.5283302784963541</v>
+        <v>0.5566534540987967</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04242462642462318</v>
+        <v>0.04240589182384773</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.003699824522651161</v>
+        <v>-0.002616415897366014</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05670832952341727</v>
+        <v>0.05836613021230731</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04351871759190825</v>
+        <v>0.0432733293038141</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.001551635110151304</v>
+        <v>-0.002913467415237376</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1515274286538124</v>
+        <v>0.1461080443648449</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04392383619968756</v>
+        <v>0.04287275636568431</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.002395140443926316</v>
+        <v>-0.003121698820821277</v>
       </c>
       <c r="M139" t="n">
-        <v>0.3554329259888007</v>
+        <v>0.3525760020919056</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04349610209534135</v>
+        <v>0.04234416605098245</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.00361552649414521</v>
+        <v>-0.002030421885489346</v>
       </c>
       <c r="P139" t="n">
-        <v>0.5300409266004869</v>
+        <v>0.5584154806952427</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.04322509107414437</v>
+        <v>0.04320600299033543</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.003699824522651161</v>
+        <v>-0.002616415897366014</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.056898095802211</v>
+        <v>0.05854567823528836</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04432461976953618</v>
+        <v>0.04407468725388473</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.001583552759649428</v>
+        <v>-0.002714651782509307</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1521355934673442</v>
+        <v>0.1466182890178467</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04473724057375585</v>
+        <v>0.04366669629838217</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.00236325789222718</v>
+        <v>-0.003336666814207179</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3563506030565812</v>
+        <v>0.3535887042575212</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0443015854674773</v>
+        <v>0.04312831727414879</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.003812793563745403</v>
+        <v>-0.002051629576076892</v>
       </c>
       <c r="P140" t="n">
-        <v>0.5316510274010718</v>
+        <v>0.5597754359574616</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.04402555572366557</v>
+        <v>0.04400611415682312</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.003466750777224121</v>
+        <v>-0.002778958557153534</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05704521060780372</v>
+        <v>0.058745705273179</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0451305219471641</v>
+        <v>0.04487604520395536</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.001583552759649428</v>
+        <v>-0.002714651782509307</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1528135534679929</v>
+        <v>0.147161173876707</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04555064494782413</v>
+        <v>0.04446063623108003</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.00236325789222718</v>
+        <v>-0.003336666814207179</v>
       </c>
       <c r="M141" t="n">
-        <v>0.3573052121808186</v>
+        <v>0.354544332659542</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04510706883961326</v>
+        <v>0.04391246849731514</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.003812793563745403</v>
+        <v>-0.002051629576076892</v>
       </c>
       <c r="P141" t="n">
-        <v>0.5331632051135876</v>
+        <v>0.5614605741451894</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.04482602037318675</v>
+        <v>0.04480622532331081</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.003466750777224121</v>
+        <v>-0.002778958557153534</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0572384827514086</v>
+        <v>0.05890890177397913</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04593642412479204</v>
+        <v>0.045677403154026</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.001583552759649428</v>
+        <v>-0.002715194712865809</v>
       </c>
       <c r="J142" t="n">
-        <v>0.153315951961379</v>
+        <v>0.1477180803020949</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04636404932189242</v>
+        <v>0.04525457616377788</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.00236325789222718</v>
+        <v>-0.003336666814207179</v>
       </c>
       <c r="M142" t="n">
-        <v>0.3580928683616736</v>
+        <v>0.3554418881064476</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04591255221174921</v>
+        <v>0.04469661972048147</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.003812793563745403</v>
+        <v>-0.002051629576076892</v>
       </c>
       <c r="P142" t="n">
-        <v>0.5348155162077088</v>
+        <v>0.5629843024540812</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.04562648502270795</v>
+        <v>0.0456063364897985</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.003466750777224121</v>
+        <v>-0.002778958557153534</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05740567542534872</v>
+        <v>0.05906831159377715</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04674232630241997</v>
+        <v>0.04647876110409663</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.001583552759649428</v>
+        <v>-0.002714380317331056</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1538636384412774</v>
+        <v>0.1481909020001305</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04717745369596071</v>
+        <v>0.04604851609647574</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.00236325789222718</v>
+        <v>-0.003515285764583948</v>
       </c>
       <c r="M143" t="n">
-        <v>0.3588645871824463</v>
+        <v>0.3563816481428862</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04671803558388515</v>
+        <v>0.04548077094364782</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.003812793563745403</v>
+        <v>-0.002051629576076892</v>
       </c>
       <c r="P143" t="n">
-        <v>0.5363761192300421</v>
+        <v>0.5641007734664856</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.04642694967222914</v>
+        <v>0.0464064476562862</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.003466750777224121</v>
+        <v>-0.002778958557153534</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05755500877658608</v>
+        <v>0.05924070262569026</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0475482284800479</v>
+        <v>0.04728011905416726</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.001620504671887096</v>
+        <v>-0.00261387554958333</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1543323476463327</v>
+        <v>0.1487388229517911</v>
       </c>
       <c r="K144" t="n">
-        <v>0.04799085807002899</v>
+        <v>0.04684245602917361</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.00235010742628726</v>
+        <v>-0.003515285764583948</v>
       </c>
       <c r="M144" t="n">
-        <v>0.3594665988439537</v>
+        <v>0.35716022759127</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04752351895602111</v>
+        <v>0.04626492216681416</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.003929173217267518</v>
+        <v>-0.002072587725073914</v>
       </c>
       <c r="P144" t="n">
-        <v>0.5379264380092392</v>
+        <v>0.5654596613105123</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.04722741432175033</v>
+        <v>0.04720655882277389</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.003255474805990253</v>
+        <v>-0.002950327980203392</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05772726068008148</v>
+        <v>0.05938494322939765</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04835413065767583</v>
+        <v>0.04808147700423789</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.001620504671887096</v>
+        <v>-0.002613091543719628</v>
       </c>
       <c r="J145" t="n">
-        <v>0.154658108332571</v>
+        <v>0.1492238454283752</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04880426244409728</v>
+        <v>0.04763639596187146</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.00235010742628726</v>
+        <v>-0.003515285764583948</v>
       </c>
       <c r="M145" t="n">
-        <v>0.3599483913695213</v>
+        <v>0.3580809184929508</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04832900232815706</v>
+        <v>0.0470490733899805</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.003929173217267518</v>
+        <v>-0.002072587725073914</v>
       </c>
       <c r="P145" t="n">
-        <v>0.5393906409893416</v>
+        <v>0.5667346766535298</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04802787897127152</v>
+        <v>0.04800666998926158</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.003255474805990253</v>
+        <v>-0.002950327980203392</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05787401157008509</v>
+        <v>0.05955924851972712</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04916003283530376</v>
+        <v>0.04888283495430852</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.001620504671887096</v>
+        <v>-0.00261387554958333</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1550599880436123</v>
+        <v>0.1497062647398475</v>
       </c>
       <c r="K146" t="n">
-        <v>0.04961766681816557</v>
+        <v>0.04843033589456931</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.00235010742628726</v>
+        <v>-0.003515285764583948</v>
       </c>
       <c r="M146" t="n">
-        <v>0.3606149984512617</v>
+        <v>0.3587366221935935</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04913448570029302</v>
+        <v>0.04783322461314685</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.003929173217267518</v>
+        <v>-0.002072587725073914</v>
       </c>
       <c r="P146" t="n">
-        <v>0.541008652870787</v>
+        <v>0.5676793300720432</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.04882834362079271</v>
+        <v>0.04880678115574928</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.003255474805990253</v>
+        <v>-0.002950327980203392</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05803615413285426</v>
+        <v>0.059706895137039</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04996593501293169</v>
+        <v>0.04968419290437915</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.001620504671887096</v>
+        <v>-0.00261387554958333</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1553485483412896</v>
+        <v>0.1502069392846865</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05043107119223386</v>
+        <v>0.04922427582726717</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.00235010742628726</v>
+        <v>-0.003515285764583948</v>
       </c>
       <c r="M147" t="n">
-        <v>0.3609550301338168</v>
+        <v>0.3593292253040438</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04993996907242896</v>
+        <v>0.04861737583631318</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.003929173217267518</v>
+        <v>-0.002072587725073914</v>
       </c>
       <c r="P147" t="n">
-        <v>0.5423882704659753</v>
+        <v>0.5687828101726728</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.04962880827031391</v>
+        <v>0.04960689232223697</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.003255474805990253</v>
+        <v>-0.002950327980203392</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05822222139394183</v>
+        <v>0.05988002103610039</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05077183719055962</v>
+        <v>0.05048555085444979</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.001659318284618353</v>
+        <v>-0.002619017464251809</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1556893114659601</v>
+        <v>0.1507469270651246</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05124447556630215</v>
+        <v>0.05001821575996503</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.002366147294162887</v>
+        <v>-0.00363724342325207</v>
       </c>
       <c r="M148" t="n">
-        <v>0.361392366286803</v>
+        <v>0.360010703078614</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05074545244456491</v>
+        <v>0.04940152705947953</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.003943264894193495</v>
+        <v>-0.002092682654925964</v>
       </c>
       <c r="P148" t="n">
-        <v>0.5439282193334574</v>
+        <v>0.5696350159950204</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.0504292729198351</v>
+        <v>0.05040700348872466</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.003083896676756287</v>
+        <v>-0.003123499283159785</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05838350046339773</v>
+        <v>0.06003686336666719</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05157773936818755</v>
+        <v>0.05128690880452041</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.001659318284618353</v>
+        <v>-0.002619541267744659</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1559591793695508</v>
+        <v>0.1511873417439382</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05205787994037044</v>
+        <v>0.05081215569266289</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.002366147294162887</v>
+        <v>-0.00363724342325207</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3617591245380567</v>
+        <v>0.3604232253576273</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05155093581670087</v>
+        <v>0.05018567828264587</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.003943264894193495</v>
+        <v>-0.002092682654925964</v>
       </c>
       <c r="P149" t="n">
-        <v>0.5457120863406753</v>
+        <v>0.5705625031173718</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05122973756935629</v>
+        <v>0.05120711465521235</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.003083896676756287</v>
+        <v>-0.003123499283159785</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05852831413989996</v>
+        <v>0.06019385332679594</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05238364154581548</v>
+        <v>0.05208826675459105</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.001659318284618353</v>
+        <v>-0.002619279365998234</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1563231073287235</v>
+        <v>0.1517153430727954</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05287128431443872</v>
+        <v>0.05160609562536075</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.002366147294162887</v>
+        <v>-0.00363724342325207</v>
       </c>
       <c r="M150" t="n">
-        <v>0.3620572398149452</v>
+        <v>0.3609228081944722</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05235641918883682</v>
+        <v>0.05096982950581221</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.003943264894193495</v>
+        <v>-0.002092682654925964</v>
       </c>
       <c r="P150" t="n">
-        <v>0.5470269806961588</v>
+        <v>0.5714003526368611</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.05203020221887748</v>
+        <v>0.05200722582170005</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.003083896676756287</v>
+        <v>-0.003123499283159785</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05870614659914251</v>
+        <v>0.06034239612324745</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05318954372344342</v>
+        <v>0.05288962470466169</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.001659318284618353</v>
+        <v>-0.002619017464251809</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1565958272921057</v>
+        <v>0.1522510701798646</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05368468868850701</v>
+        <v>0.0524000355580586</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.002366147294162887</v>
+        <v>-0.00363724342325207</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3623385930823284</v>
+        <v>0.3613043172962587</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05316190256097277</v>
+        <v>0.05175398072897855</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.003943264894193495</v>
+        <v>-0.002092682654925964</v>
       </c>
       <c r="P151" t="n">
-        <v>0.5485920069647804</v>
+        <v>0.5719830051573734</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.05283066686839868</v>
+        <v>0.05280733698818774</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.003083896676756287</v>
+        <v>-0.003123499283159785</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05884333651304671</v>
+        <v>0.06048223378141412</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05399544590107135</v>
+        <v>0.05369098265473232</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.001700171930785174</v>
+        <v>-0.002672726738931492</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1569013101345926</v>
+        <v>0.1527733183260521</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0544980930625753</v>
+        <v>0.05319397549075646</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.002413356969436591</v>
+        <v>-0.003731201413559923</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3627064721796117</v>
+        <v>0.3615369733225284</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05396738593310871</v>
+        <v>0.05253813195214489</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.003901559197202384</v>
+        <v>-0.002112078934089815</v>
       </c>
       <c r="P152" t="n">
-        <v>0.5501716061405169</v>
+        <v>0.572720231660617</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.05363113151791987</v>
+        <v>0.05360744815467543</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.002969916457328956</v>
+        <v>-0.003299037203021881</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05900591970241773</v>
+        <v>0.06065518402069574</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05480134807869928</v>
+        <v>0.05449234060480294</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.001700171930785174</v>
+        <v>-0.002672726738931492</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1571363604239253</v>
+        <v>0.1533013274169959</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05531149743664359</v>
+        <v>0.05398791542345432</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.002413356969436591</v>
+        <v>-0.003731201413559923</v>
       </c>
       <c r="M153" t="n">
-        <v>0.362956601052151</v>
+        <v>0.3619049699900324</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05477286930524467</v>
+        <v>0.05332228317531124</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.003901559197202384</v>
+        <v>-0.002112078934089815</v>
       </c>
       <c r="P153" t="n">
-        <v>0.5519292549240732</v>
+        <v>0.573225810430676</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.05443159616744107</v>
+        <v>0.05440755932116313</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.002969916457328956</v>
+        <v>-0.003299037203021881</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05918603909112703</v>
+        <v>0.06081063907183624</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0556072502563272</v>
+        <v>0.05529369855487357</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.001700171930785174</v>
+        <v>-0.002672726738931492</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1574253814199987</v>
+        <v>0.1538545472024708</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05612490181071188</v>
+        <v>0.05478185535615218</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.002413356969436591</v>
+        <v>-0.003731201413559923</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3632948627388651</v>
+        <v>0.3622046692703245</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05557835267738062</v>
+        <v>0.05410643439847757</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.003901559197202384</v>
+        <v>-0.002112078934089815</v>
       </c>
       <c r="P154" t="n">
-        <v>0.5536279909493868</v>
+        <v>0.5734557857512713</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05523206081696225</v>
+        <v>0.05520767048765082</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.002969916457328956</v>
+        <v>-0.003299037203021881</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05935091961462591</v>
+        <v>0.06094829474608671</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05641315243395513</v>
+        <v>0.0560950565049442</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.001700171930785174</v>
+        <v>-0.002672994011605385</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1576857505911942</v>
+        <v>0.1543709019184736</v>
       </c>
       <c r="K155" t="n">
-        <v>0.05693830618478016</v>
+        <v>0.05557579528885004</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.002413356969436591</v>
+        <v>-0.003731201413559923</v>
       </c>
       <c r="M155" t="n">
-        <v>0.363516739744706</v>
+        <v>0.3625393153181463</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05638383604951656</v>
+        <v>0.05489058562164392</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.003901559197202384</v>
+        <v>-0.002112078934089815</v>
       </c>
       <c r="P155" t="n">
-        <v>0.555270442803704</v>
+        <v>0.5739059347902606</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05603252546648345</v>
+        <v>0.05600778165413851</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.002969916457328956</v>
+        <v>-0.003299037203021881</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0595256309597559</v>
+        <v>0.06112707796197166</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05721905461158307</v>
+        <v>0.05689641445501483</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.001751647988716458</v>
+        <v>-0.002759855398015655</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1579591777032963</v>
+        <v>0.1548696260486565</v>
       </c>
       <c r="K156" t="n">
-        <v>0.05775171055884845</v>
+        <v>0.0563697352215479</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.002484209371532148</v>
+        <v>-0.003824460925081558</v>
       </c>
       <c r="M156" t="n">
-        <v>0.3637769621394867</v>
+        <v>0.3627047226485959</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05718931942165253</v>
+        <v>0.05567473684481026</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.003822845006666786</v>
+        <v>-0.002136619712842042</v>
       </c>
       <c r="P156" t="n">
-        <v>0.5568592253581366</v>
+        <v>0.5744956700840308</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.05683299011600464</v>
+        <v>0.0568078928206262</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.00293134563441322</v>
+        <v>-0.003537700264397045</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05969410796379676</v>
+        <v>0.06127071702811633</v>
       </c>
       <c r="G157" t="n">
-        <v>0.058024956789211</v>
+        <v>0.05769777240508547</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.001751647988716458</v>
+        <v>-0.002760131355959663</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1581626755808149</v>
+        <v>0.1554523406549413</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05856511493291674</v>
+        <v>0.05716367515424575</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.002484209371532148</v>
+        <v>-0.003824460925081558</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3640249420479243</v>
+        <v>0.3630093010159781</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05799480279378847</v>
+        <v>0.0564588880679766</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.003822845006666786</v>
+        <v>-0.002136619712842042</v>
       </c>
       <c r="P157" t="n">
-        <v>0.5585590486340775</v>
+        <v>0.574814273372754</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.05763345476552583</v>
+        <v>0.0576080039871139</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.00293134563441322</v>
+        <v>-0.003537700264397045</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05985848999754748</v>
+        <v>0.06142127739038282</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05883085896683893</v>
+        <v>0.0584991303551561</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.001751647988716458</v>
+        <v>-0.002759579440071648</v>
       </c>
       <c r="J158" t="n">
-        <v>0.15840043263174</v>
+        <v>0.1559539851231061</v>
       </c>
       <c r="K158" t="n">
-        <v>0.05937851930698503</v>
+        <v>0.0579576150869436</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.002484209371532148</v>
+        <v>-0.003824460925081558</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3642614210810105</v>
+        <v>0.3633514611113132</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05880028616592443</v>
+        <v>0.05724303929114294</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.003822845006666786</v>
+        <v>-0.002136619712842042</v>
       </c>
       <c r="P158" t="n">
-        <v>0.5603012663034532</v>
+        <v>0.5751103965617671</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05843391941504703</v>
+        <v>0.05840811515360159</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.00293134563441322</v>
+        <v>-0.003537700264397045</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06003538747722326</v>
+        <v>0.06156158010065711</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05963676114446686</v>
+        <v>0.05930048830522674</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.001751647988716458</v>
+        <v>-0.002760131355959663</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1586727959010605</v>
+        <v>0.1565175388431579</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06019192368105332</v>
+        <v>0.05875155501964146</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.002484209371532148</v>
+        <v>-0.003824460925081558</v>
       </c>
       <c r="M159" t="n">
-        <v>0.3646415024281491</v>
+        <v>0.3635267133190717</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05960576953806038</v>
+        <v>0.05802719051430928</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.003822845006666786</v>
+        <v>-0.002136619712842042</v>
       </c>
       <c r="P159" t="n">
-        <v>0.5620856144277691</v>
+        <v>0.5756331596583409</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05923438406456821</v>
+        <v>0.05920822632008928</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.00293134563441322</v>
+        <v>-0.003537700264397045</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06019913589328002</v>
+        <v>0.06171693387677199</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06044266332209478</v>
+        <v>0.06010184625529737</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.001835417435946163</v>
+        <v>-0.002869850050159125</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1588756765759623</v>
+        <v>0.1570804406985312</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06100532805512161</v>
+        <v>0.05954549495233932</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.00257115929511999</v>
+        <v>-0.003913091050481853</v>
       </c>
       <c r="M160" t="n">
-        <v>0.3648572692606123</v>
+        <v>0.363792538811375</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06041125291019632</v>
+        <v>0.05881134173747563</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.003714795819574791</v>
+        <v>-0.002165836299132837</v>
       </c>
       <c r="P160" t="n">
-        <v>0.5639873694598565</v>
+        <v>0.5758061991224713</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.06003484871408941</v>
+        <v>0.06000833748657698</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.00295000719147952</v>
+        <v>-0.003850253038661669</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0603909686215466</v>
+        <v>0.06185307235551243</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06124856549972271</v>
+        <v>0.060903204205368</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.001835417435946163</v>
+        <v>-0.002870424077571898</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1590927083909383</v>
+        <v>0.1576417587392889</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06181873242918989</v>
+        <v>0.06033943488503718</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.00257115929511999</v>
+        <v>-0.003913091050481853</v>
       </c>
       <c r="M161" t="n">
-        <v>0.365063757267607</v>
+        <v>0.363995731680672</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06121673628233228</v>
+        <v>0.05959549296064198</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.003714795819574791</v>
+        <v>-0.002165836299132837</v>
       </c>
       <c r="P161" t="n">
-        <v>0.5656747105396777</v>
+        <v>0.5763741562413462</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.0608353133636106</v>
+        <v>0.06080844865306467</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.00295000719147952</v>
+        <v>-0.003850253038661669</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06056840701703439</v>
+        <v>0.06201244820258801</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06205446767735066</v>
+        <v>0.06170456215543862</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.001835417435946163</v>
+        <v>-0.002870424077571898</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1592613761484674</v>
+        <v>0.1581797468309591</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06263213680325819</v>
+        <v>0.06113337481773504</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.00257115929511999</v>
+        <v>-0.003913091050481853</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3652617082826298</v>
+        <v>0.3640856590339174</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06202221965446823</v>
+        <v>0.06037964418380831</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.003714795819574791</v>
+        <v>-0.002165836299132837</v>
       </c>
       <c r="P162" t="n">
-        <v>0.5675486265914739</v>
+        <v>0.5765950836075984</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06163577801313179</v>
+        <v>0.06160855981955236</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.00295000719147952</v>
+        <v>-0.003850253038661669</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06075601565223253</v>
+        <v>0.06215215740912586</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06286036985497859</v>
+        <v>0.06250592010550926</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.001952351942368393</v>
+        <v>-0.002870137063865512</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1595074536015004</v>
+        <v>0.158714179225191</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06344554117732647</v>
+        <v>0.06192731475043289</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.00257115929511999</v>
+        <v>-0.003913091050481853</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3652972595008639</v>
+        <v>0.3643201820931934</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06282770302660418</v>
+        <v>0.06116379540697466</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.003714795819574791</v>
+        <v>-0.002165836299132837</v>
       </c>
       <c r="P163" t="n">
-        <v>0.5694402472972547</v>
+        <v>0.5769661502719474</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06243624266265298</v>
+        <v>0.06240867098604006</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.00295000719147952</v>
+        <v>-0.003850253038661669</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06097013828255031</v>
+        <v>0.0622804828144254</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06366627203260651</v>
+        <v>0.06330727805557988</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.001952351942368393</v>
+        <v>-0.002994736664411566</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1596846072770058</v>
+        <v>0.1592441242001617</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06425894555139476</v>
+        <v>0.06272125468313075</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.002666661534870547</v>
+        <v>-0.003998548867712265</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3655318602986882</v>
+        <v>0.3644430781761934</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06363318639874013</v>
+        <v>0.061947946630141</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.003585085132914491</v>
+        <v>-0.002196995707511793</v>
       </c>
       <c r="P164" t="n">
-        <v>0.5712613329132114</v>
+        <v>0.5769927285584638</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06323670731217418</v>
+        <v>0.06320878215252775</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.002995133766608199</v>
+        <v>-0.004208506774886702</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06115108875577673</v>
+        <v>0.06241435523265657</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06447217421023443</v>
+        <v>0.06410863600565053</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.001952351942368393</v>
+        <v>-0.002995036138078007</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1598768157067952</v>
+        <v>0.1597686500340478</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06507234992546304</v>
+        <v>0.06351519461582861</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.002666661534870547</v>
+        <v>-0.003998548867712265</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3657601868492382</v>
+        <v>0.3647123863372479</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06443866977087608</v>
+        <v>0.06273209785330734</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.003585085132914491</v>
+        <v>-0.002196995707511793</v>
       </c>
       <c r="P165" t="n">
-        <v>0.5732521810824387</v>
+        <v>0.5775032862874862</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.06403717196169537</v>
+        <v>0.06400889331901545</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.002995133766608199</v>
+        <v>-0.004208506774886702</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.06134893750363096</v>
+        <v>0.06252779170344001</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06527807638786237</v>
+        <v>0.06490999395572115</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.001952351942368393</v>
+        <v>-0.002994437190745125</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1601053472571802</v>
+        <v>0.1602447760498165</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06588575429953133</v>
+        <v>0.06430913454852646</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.002666661534870547</v>
+        <v>-0.003998548867712265</v>
       </c>
       <c r="M166" t="n">
-        <v>0.3658798031323149</v>
+        <v>0.3648717043071569</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06524415314301203</v>
+        <v>0.06351624907647369</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.003585085132914491</v>
+        <v>-0.002196995707511793</v>
       </c>
       <c r="P166" t="n">
-        <v>0.5750777673393392</v>
+        <v>0.5775893863738581</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.06483763661121655</v>
+        <v>0.06480900448550314</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.002995133766608199</v>
+        <v>-0.004208506774886702</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.06151217900204019</v>
+        <v>0.06268082228161734</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0660839785654903</v>
+        <v>0.06571135190579179</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.001952351942368393</v>
+        <v>-0.002994736664411566</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1602443682772949</v>
+        <v>0.1607977173912744</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06669915867359962</v>
+        <v>0.06510307448122432</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.002666661534870547</v>
+        <v>-0.003998548867712265</v>
       </c>
       <c r="M167" t="n">
-        <v>0.3660977680342168</v>
+        <v>0.3648702808718239</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06604963651514799</v>
+        <v>0.06430040029964001</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.003585085132914491</v>
+        <v>-0.002196995707511793</v>
       </c>
       <c r="P167" t="n">
-        <v>0.5769789625516948</v>
+        <v>0.5777488042886105</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.06563810126073776</v>
+        <v>0.06560911565199083</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.002995133766608199</v>
+        <v>-0.004208506774886702</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.06172519605319741</v>
+        <v>0.06278713233585771</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06688988074311823</v>
+        <v>0.06651270985586241</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.002093256542940488</v>
+        <v>-0.003123142144201688</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1604622051420055</v>
+        <v>0.1612792696565842</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06751256304766791</v>
+        <v>0.06589701441392219</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.002763170885454249</v>
+        <v>-0.004076441901751131</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3662084385294794</v>
+        <v>0.3651208753923314</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06685511988728393</v>
+        <v>0.06508455152280636</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.003441386443673974</v>
+        <v>-0.002229084897930083</v>
       </c>
       <c r="P168" t="n">
-        <v>0.5791160217843752</v>
+        <v>0.5779830637521305</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.06643856591025894</v>
+        <v>0.06640922681847852</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.003056660223908899</v>
+        <v>-0.004581895766628309</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.06190232251838347</v>
+        <v>0.06289817445336958</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06769578292074617</v>
+        <v>0.06731406780593305</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.002093256542940488</v>
+        <v>-0.00312282989243762</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1605697383818658</v>
+        <v>0.1617515772068442</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0683259674217362</v>
+        <v>0.06669095434662005</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.002763170885454249</v>
+        <v>-0.004076441901751131</v>
       </c>
       <c r="M169" t="n">
-        <v>0.3663157334152725</v>
+        <v>0.3653154157856552</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06766060325941989</v>
+        <v>0.0658687027459727</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.003441386443673974</v>
+        <v>-0.002229084897930083</v>
       </c>
       <c r="P169" t="n">
-        <v>0.5808198670289758</v>
+        <v>0.5782936834442166</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.06723903055978013</v>
+        <v>0.06720933798496621</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.003056660223908899</v>
+        <v>-0.004581895766628309</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.06207696484827631</v>
+        <v>0.06301377477218205</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06850168509837409</v>
+        <v>0.06811542575600367</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.002093256542940488</v>
+        <v>-0.00312282989243762</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1607566016586734</v>
+        <v>0.1622349348364353</v>
       </c>
       <c r="K170" t="n">
-        <v>0.06913937179580448</v>
+        <v>0.06748489427931791</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.002763170885454249</v>
+        <v>-0.004076441901751131</v>
       </c>
       <c r="M170" t="n">
-        <v>0.3665753523414573</v>
+        <v>0.3654546944753571</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06846608663155583</v>
+        <v>0.06665285396913904</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.003441386443673974</v>
+        <v>-0.002229084897930083</v>
       </c>
       <c r="P170" t="n">
-        <v>0.5828310020881675</v>
+        <v>0.578599326804959</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.06803949520930133</v>
+        <v>0.0680094491514539</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.003056660223908899</v>
+        <v>-0.004581895766628309</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.06224851984784487</v>
+        <v>0.06315108458848341</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06930758727600202</v>
+        <v>0.06891678370607431</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.002093256542940488</v>
+        <v>-0.003122517640673553</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1608966462850487</v>
+        <v>0.1627072851954573</v>
       </c>
       <c r="K171" t="n">
-        <v>0.06995277616987278</v>
+        <v>0.06827883421201576</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.002763170885454249</v>
+        <v>-0.004147138564136504</v>
       </c>
       <c r="M171" t="n">
-        <v>0.366626501855189</v>
+        <v>0.3654364087132134</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06927157000369179</v>
+        <v>0.06743700519230539</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.003441386443673974</v>
+        <v>-0.002229084897930083</v>
       </c>
       <c r="P171" t="n">
-        <v>0.5843944850437196</v>
+        <v>0.5789014410125501</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.06883995985882252</v>
+        <v>0.06880956031794161</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.003056660223908899</v>
+        <v>-0.004581895766628309</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.06243357208542868</v>
+        <v>0.06324926788883556</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07011348945362995</v>
+        <v>0.06971814165614494</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.002241771832724758</v>
+        <v>-0.003243767056024291</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1610533035709429</v>
+        <v>0.163189013518069</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07076618054394106</v>
+        <v>0.06907277414471362</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.002853142141541526</v>
+        <v>-0.004147138564136504</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3667798377874421</v>
+        <v>0.3656222099211813</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07007705337582774</v>
+        <v>0.06822115641547173</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.003291373248841331</v>
+        <v>-0.002261128712498112</v>
       </c>
       <c r="P172" t="n">
-        <v>0.5861705271446607</v>
+        <v>0.5790356832669434</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.06964042450834371</v>
+        <v>0.0696096714844293</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.003124521427491263</v>
+        <v>-0.004944904010602213</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.06262301119687405</v>
+        <v>0.0633427256607465</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07091939163125788</v>
+        <v>0.07051949960621558</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.002241771832724758</v>
+        <v>-0.003244415809435495</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1612479475506173</v>
+        <v>0.163593876435934</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07157958491800935</v>
+        <v>0.06986671407741146</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.002853142141541526</v>
+        <v>-0.004147138564136504</v>
       </c>
       <c r="M173" t="n">
-        <v>0.367036193908305</v>
+        <v>0.3657036424002625</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07088253674796369</v>
+        <v>0.06900530763863806</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.003291373248841331</v>
+        <v>-0.002261128712498112</v>
       </c>
       <c r="P173" t="n">
-        <v>0.5880708216682825</v>
+        <v>0.5790862889748924</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.07044088915786491</v>
+        <v>0.07040978265091699</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.003124521427491263</v>
+        <v>-0.004944904010602213</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.0627645156922912</v>
+        <v>0.06343124839041989</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07172529380888581</v>
+        <v>0.07132085755628621</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.002241771832724758</v>
+        <v>-0.003244091432729893</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1613963214953998</v>
+        <v>0.1640703821916779</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07239298929207764</v>
+        <v>0.07066065401010932</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.002853142141541526</v>
+        <v>-0.004147138564136504</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3670861211314941</v>
+        <v>0.3658878180464611</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07168802012009964</v>
+        <v>0.0697894588618044</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.003291373248841331</v>
+        <v>-0.002261128712498112</v>
       </c>
       <c r="P174" t="n">
-        <v>0.589754405701994</v>
+        <v>0.5794693346303182</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.0712413538073861</v>
+        <v>0.07120989381740468</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.003124521427491263</v>
+        <v>-0.004944904010602213</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.06293503063181886</v>
+        <v>0.063532033862568</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07253119598651375</v>
+        <v>0.07212221550635683</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.002384855002612659</v>
+        <v>-0.003243767056024291</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1615408446578164</v>
+        <v>0.1644894300138555</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07320639366614592</v>
+        <v>0.07145459394280718</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.002853142141541526</v>
+        <v>-0.004147138564136504</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3673957394495736</v>
+        <v>0.3661240509986429</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07249350349223559</v>
+        <v>0.07057361008497075</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.003291373248841331</v>
+        <v>-0.002261128712498112</v>
       </c>
       <c r="P175" t="n">
-        <v>0.5914665538981088</v>
+        <v>0.5797717278301207</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.07204181845690728</v>
+        <v>0.07201000498389237</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.003124521427491263</v>
+        <v>-0.004944904010602213</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.06309084690666059</v>
+        <v>0.06361878793717853</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07333709816414168</v>
+        <v>0.07292357345642747</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.002384855002612659</v>
+        <v>-0.003349499624952308</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1617028874637257</v>
+        <v>0.1648713241889702</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07401979804021422</v>
+        <v>0.07224853387550505</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.002929030097802808</v>
+        <v>-0.004207779027617345</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3675520650941632</v>
+        <v>0.3662583718335399</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07329898686437154</v>
+        <v>0.07135776130813709</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.00314271904540465</v>
+        <v>-0.002289897596892919</v>
       </c>
       <c r="P176" t="n">
-        <v>0.592948770760732</v>
+        <v>0.5799118692132491</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.07284228310642848</v>
+        <v>0.07281011615038006</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.003188652241464932</v>
+        <v>-0.005270229787536799</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.06325733705031013</v>
+        <v>0.06371743487224073</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07414300034176961</v>
+        <v>0.07372493140649809</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.002384855002612659</v>
+        <v>-0.003349834608413149</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1618403359144775</v>
+        <v>0.1652365428718733</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0748332024142825</v>
+        <v>0.0730424738082029</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.002929030097802808</v>
+        <v>-0.004207779027617345</v>
       </c>
       <c r="M177" t="n">
-        <v>0.367555699011307</v>
+        <v>0.3663947948169454</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0741044702365075</v>
+        <v>0.07214191253130343</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.00314271904540465</v>
+        <v>-0.002289897596892919</v>
       </c>
       <c r="P177" t="n">
-        <v>0.5945317760608615</v>
+        <v>0.5799740776448046</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.07364274775594967</v>
+        <v>0.07361022731686777</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.003188652241464932</v>
+        <v>-0.005270229787536799</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.0633905392469591</v>
+        <v>0.06379289719872096</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07494890251939754</v>
+        <v>0.07452628935656873</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.002384855002612659</v>
+        <v>-0.003349834608413149</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1619321599381113</v>
+        <v>0.1656272851493309</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07564660678835079</v>
+        <v>0.07383641374090076</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.002929030097802808</v>
+        <v>-0.004207779027617345</v>
       </c>
       <c r="M178" t="n">
-        <v>0.3677696758131206</v>
+        <v>0.3664308704769471</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07490995360864344</v>
+        <v>0.07292606375446978</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.00314271904540465</v>
+        <v>-0.002289897596892919</v>
       </c>
       <c r="P178" t="n">
-        <v>0.5958720250904063</v>
+        <v>0.5803748753339026</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.07444321240547086</v>
+        <v>0.07441033848335546</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.003188652241464932</v>
+        <v>-0.005270229787536799</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.06350712816916643</v>
+        <v>0.06386238849323575</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07575480469702546</v>
+        <v>0.07532764730663936</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.002384855002612659</v>
+        <v>-0.003349499624952308</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1620845168902926</v>
+        <v>0.1659564442610168</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07646001116241907</v>
+        <v>0.07463035367359862</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.002929030097802808</v>
+        <v>-0.004207779027617345</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3678841716352378</v>
+        <v>0.3665223218442422</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0757154369807794</v>
+        <v>0.07371021497763612</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.00314271904540465</v>
+        <v>-0.002289897596892919</v>
       </c>
       <c r="P179" t="n">
-        <v>0.5972167207127878</v>
+        <v>0.5807007300326131</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07524367705499206</v>
+        <v>0.07521044964984315</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.003188652241464932</v>
+        <v>-0.005270229787536799</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.06364132274870976</v>
+        <v>0.06389947409182499</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0765607068746534</v>
+        <v>0.07612900525671</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.002504086312296247</v>
+        <v>-0.003430502396945082</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1622340708589848</v>
+        <v>0.1663310388316915</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07727341553648737</v>
+        <v>0.07542429360629647</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.002983289548908526</v>
+        <v>-0.004257133878661941</v>
       </c>
       <c r="M180" t="n">
-        <v>0.3681070696983637</v>
+        <v>0.366773371510112</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07652092035291534</v>
+        <v>0.07449436620080245</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.003003097330352022</v>
+        <v>-0.002315326312140196</v>
       </c>
       <c r="P180" t="n">
-        <v>0.5983904815818772</v>
+        <v>0.58070378393792</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.07604414170451325</v>
+        <v>0.07601056081633084</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.003238987529939549</v>
+        <v>-0.005525642548465748</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.0637664506233519</v>
+        <v>0.06395637328595799</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07736660905228133</v>
+        <v>0.07693036320678064</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.002504086312296247</v>
+        <v>-0.003430502396945082</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1622960984747037</v>
+        <v>0.1665987890457432</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07808681991055566</v>
+        <v>0.07621823353899433</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.002983289548908526</v>
+        <v>-0.004257133878661941</v>
       </c>
       <c r="M181" t="n">
-        <v>0.3683355592711782</v>
+        <v>0.3668748673058584</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0773264037250513</v>
+        <v>0.07527851742396879</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.003003097330352022</v>
+        <v>-0.002315326312140196</v>
       </c>
       <c r="P181" t="n">
-        <v>0.5994718074818954</v>
+        <v>0.5811331180941012</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.07684460635403444</v>
+        <v>0.07681067198281853</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.003238987529939549</v>
+        <v>-0.005525642548465748</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.06386443126188372</v>
+        <v>0.06402417435578255</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07817251122990926</v>
+        <v>0.07773172115685126</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.002504086312296247</v>
+        <v>-0.003429473452014985</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1624618519956574</v>
+        <v>0.1668508478231359</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07890022428462394</v>
+        <v>0.07701217347169219</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.002983289548908526</v>
+        <v>-0.004257133878661941</v>
       </c>
       <c r="M182" t="n">
-        <v>0.3684148438470436</v>
+        <v>0.3670343196740842</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07813188709718726</v>
+        <v>0.07606266864713515</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.003003097330352022</v>
+        <v>-0.002315326312140196</v>
       </c>
       <c r="P182" t="n">
-        <v>0.6006247468439553</v>
+        <v>0.5814917880133329</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07764507100355562</v>
+        <v>0.07761078314930622</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.003238987529939549</v>
+        <v>-0.005525642548465748</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.0639520927155439</v>
+        <v>0.06406766729029183</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0789784134075372</v>
+        <v>0.07853307910692189</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.002504086312296247</v>
+        <v>-0.003429816433658351</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1625829262307913</v>
+        <v>0.1672212790401942</v>
       </c>
       <c r="K183" t="n">
-        <v>0.07971362865869223</v>
+        <v>0.07780611340439005</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.002983289548908526</v>
+        <v>-0.004257133878661941</v>
       </c>
       <c r="M183" t="n">
-        <v>0.36860482456852</v>
+        <v>0.3672526130690297</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0789373704693232</v>
+        <v>0.07684681987030149</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.003003097330352022</v>
+        <v>-0.002334614766642986</v>
       </c>
       <c r="P183" t="n">
-        <v>0.6015883272420268</v>
+        <v>0.5816980019510382</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.07844553565307683</v>
+        <v>0.07841089431579391</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.003238987529939549</v>
+        <v>-0.005525642548465748</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.06403758924336651</v>
+        <v>0.06409537501246984</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07978431558516512</v>
+        <v>0.07933443705699252</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.002593130403106774</v>
+        <v>-0.003474436092927663</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1626594528722818</v>
+        <v>0.1674005873482076</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08052703303276051</v>
+        <v>0.0786000533370879</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.003008375289529111</v>
+        <v>-0.004293136829552874</v>
       </c>
       <c r="M184" t="n">
-        <v>0.3689063571947686</v>
+        <v>0.3673754237576778</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07974285384145915</v>
+        <v>0.07763097109346784</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.002880181600671538</v>
+        <v>-0.002334614766642986</v>
       </c>
       <c r="P184" t="n">
-        <v>0.6026118872351336</v>
+        <v>0.5820026061038602</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.07924600030259801</v>
+        <v>0.07921100548228162</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.003265462157024755</v>
+        <v>-0.005686754679585536</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.06411158006941259</v>
+        <v>0.06414212924265321</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08059021776279304</v>
+        <v>0.08013579500706315</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.002593130403106774</v>
+        <v>-0.003473393970524265</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1627766851300334</v>
+        <v>0.1676645311997303</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08134043740682881</v>
+        <v>0.07939399326978576</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.003008375289529111</v>
+        <v>-0.004293136829552874</v>
       </c>
       <c r="M185" t="n">
-        <v>0.3690607767314056</v>
+        <v>0.3675587485427988</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0805483372135951</v>
+        <v>0.07841512231663417</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.002880181600671538</v>
+        <v>-0.002334614766642986</v>
       </c>
       <c r="P185" t="n">
-        <v>0.6030925388011614</v>
+        <v>0.5824071405285182</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.0800464649521192</v>
+        <v>0.08001111664876931</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.003265462157024755</v>
+        <v>-0.005686754679585536</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.06419099851788417</v>
+        <v>0.06416391564021126</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08139611994042099</v>
+        <v>0.08093715295713377</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.002593130403106774</v>
+        <v>-0.003473393970524265</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1629136251168884</v>
+        <v>0.1678164401392048</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08215384178089709</v>
+        <v>0.08018793320248363</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.003008375289529111</v>
+        <v>-0.004293136829552874</v>
       </c>
       <c r="M186" t="n">
-        <v>0.3693802021435134</v>
+        <v>0.3678034790403584</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08135382058573104</v>
+        <v>0.07919927353980051</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.002880181600671538</v>
+        <v>-0.002334614766642986</v>
       </c>
       <c r="P186" t="n">
-        <v>0.6037062155799023</v>
+        <v>0.5827466395694202</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.0808469296016404</v>
+        <v>0.080811227815257</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.003265462157024755</v>
+        <v>-0.005686754679585536</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.06424017598748598</v>
+        <v>0.06417813688509796</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08220202211804892</v>
+        <v>0.08173851090720442</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.002626517773954482</v>
+        <v>-0.003473741344658731</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1630075959421309</v>
+        <v>0.1680513707151706</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08296724615496538</v>
+        <v>0.08098187313518149</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.003008375289529111</v>
+        <v>-0.004293136829552874</v>
       </c>
       <c r="M187" t="n">
-        <v>0.3696058242457249</v>
+        <v>0.3679551262740721</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08215930395786701</v>
+        <v>0.07998342476296685</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.002880181600671538</v>
+        <v>-0.002334614766642986</v>
       </c>
       <c r="P187" t="n">
-        <v>0.6043961397956605</v>
+        <v>0.5829391560213886</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.08164739425116159</v>
+        <v>0.08161133898174469</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.003265462157024755</v>
+        <v>-0.005686754679585536</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.06428481043344167</v>
+        <v>0.0641629528092503</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08300792429567684</v>
+        <v>0.08253986885727504</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.002626517773954482</v>
+        <v>-0.003475448860286931</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1631869618254835</v>
+        <v>0.1681286559396357</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08378065052903368</v>
+        <v>0.08177581306787934</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.00300413171031939</v>
+        <v>-0.004314144302868106</v>
       </c>
       <c r="M188" t="n">
-        <v>0.3697902232019455</v>
+        <v>0.3682734862604354</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08296478733000295</v>
+        <v>0.0807675759861332</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.002781645353351287</v>
+        <v>-0.002347508356800769</v>
       </c>
       <c r="P188" t="n">
-        <v>0.6049896445527663</v>
+        <v>0.5834025701388247</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08244785890068278</v>
+        <v>0.08241145014823238</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.003261121749977259</v>
+        <v>-0.005727065787870671</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.06429796641793051</v>
+        <v>0.06418229285205961</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08381382647330478</v>
+        <v>0.08334122680734568</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.002626517773954482</v>
+        <v>-0.003475101384895981</v>
       </c>
       <c r="J189" t="n">
-        <v>0.163259824282497</v>
+        <v>0.168287224442063</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08459405490310196</v>
+        <v>0.0825697530005772</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.00300413171031939</v>
+        <v>-0.004314144302868106</v>
       </c>
       <c r="M189" t="n">
-        <v>0.3699340665009532</v>
+        <v>0.3684485581244094</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08377027070213891</v>
+        <v>0.08155172720929954</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.002781645353351287</v>
+        <v>-0.002347508356800769</v>
       </c>
       <c r="P189" t="n">
-        <v>0.6054050468104829</v>
+        <v>0.5838113152417126</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.08324832355020398</v>
+        <v>0.08321156131472007</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.003261121749977259</v>
+        <v>-0.005727065787870671</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.06430773777414094</v>
+        <v>0.06419234122665234</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0846197286509327</v>
+        <v>0.08414258475741632</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.002626517773954482</v>
+        <v>-0.003475101384895981</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1633539320608473</v>
+        <v>0.1683516183724377</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08540745927717025</v>
+        <v>0.08336369293327504</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.00300413171031939</v>
+        <v>-0.004314144302868106</v>
       </c>
       <c r="M190" t="n">
-        <v>0.3702461127374805</v>
+        <v>0.3685846976405786</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08457575407427485</v>
+        <v>0.08233587843246588</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.002781645353351287</v>
+        <v>-0.002347508356800769</v>
       </c>
       <c r="P190" t="n">
-        <v>0.6057274629944893</v>
+        <v>0.5840903853268153</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08404878819972517</v>
+        <v>0.08401167248120778</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.003261121749977259</v>
+        <v>-0.005727065787870671</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.0642981295535727</v>
+        <v>0.06421065596938981</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08542563082856063</v>
+        <v>0.08494394270748694</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.002626517773954482</v>
+        <v>-0.00347475390950503</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1634692166032286</v>
+        <v>0.1683863600416269</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08622086365123853</v>
+        <v>0.0841576328659729</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.00300413171031939</v>
+        <v>-0.004314144302868106</v>
       </c>
       <c r="M191" t="n">
-        <v>0.3705711858656128</v>
+        <v>0.3689421063790225</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0853812374464108</v>
+        <v>0.08312002965563221</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.002781645353351287</v>
+        <v>-0.002347508356800769</v>
       </c>
       <c r="P191" t="n">
-        <v>0.6062991025833179</v>
+        <v>0.5846552496137265</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08484925284924635</v>
+        <v>0.08481178364769547</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.003261121749977259</v>
+        <v>-0.005727065787870671</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.06433191768540769</v>
+        <v>0.06422848816844204</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08623153300618858</v>
+        <v>0.08574530065755757</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.002625739876407521</v>
+        <v>-0.003448253065160964</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1636483304052953</v>
+        <v>0.1684779006773498</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08703426802530682</v>
+        <v>0.08495157279867076</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.002983872465663636</v>
+        <v>-0.004319867632698424</v>
       </c>
       <c r="M192" t="n">
-        <v>0.370753906659679</v>
+        <v>0.369210439021493</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08618672081854677</v>
+        <v>0.08390418087879856</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.002714020198113385</v>
+        <v>-0.002350376036173561</v>
       </c>
       <c r="P192" t="n">
-        <v>0.606777523159142</v>
+        <v>0.5853376655803276</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.08564971749876756</v>
+        <v>0.08561189481418316</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.003231655977117642</v>
+        <v>-0.005663806052552999</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06432131237843101</v>
+        <v>0.06421076812198308</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0870374351838165</v>
+        <v>0.0865466586076282</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.002625739876407521</v>
+        <v>-0.003448597924953459</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1637416692734383</v>
+        <v>0.1684575442303627</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08784767239937512</v>
+        <v>0.08574551273136861</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.002983872465663636</v>
+        <v>-0.004319867632698424</v>
       </c>
       <c r="M193" t="n">
-        <v>0.3710652798007441</v>
+        <v>0.3694463542094574</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08699220419068271</v>
+        <v>0.0846883321019649</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.002714020198113385</v>
+        <v>-0.002350376036173561</v>
       </c>
       <c r="P193" t="n">
-        <v>0.6074195891012349</v>
+        <v>0.5858018683443161</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.08645018214828874</v>
+        <v>0.08641200598067085</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.003231655977117642</v>
+        <v>-0.005663806052552999</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.06434537695825884</v>
+        <v>0.06423646434137621</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08784333736144442</v>
+        <v>0.08734801655769883</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.002625739876407521</v>
+        <v>-0.00344928764453845</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1638131428729638</v>
+        <v>0.1684126596772105</v>
       </c>
       <c r="K194" t="n">
-        <v>0.0886610767734434</v>
+        <v>0.08653945266406649</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.002983872465663636</v>
+        <v>-0.004319867632698424</v>
       </c>
       <c r="M194" t="n">
-        <v>0.371406704468778</v>
+        <v>0.3697131405127707</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08779768756281867</v>
+        <v>0.08547248332513124</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.002714020198113385</v>
+        <v>-0.002350376036173561</v>
       </c>
       <c r="P194" t="n">
-        <v>0.607625013894364</v>
+        <v>0.5862129634229492</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.08725064679780993</v>
+        <v>0.08721211714715854</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.003231655977117642</v>
+        <v>-0.005663806052552999</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.06432508967420017</v>
+        <v>0.06423541710708944</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08864923953907236</v>
+        <v>0.08814937450776947</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.002625739876407521</v>
+        <v>-0.003400506598912303</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1639481933140619</v>
+        <v>0.168475969871611</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08947448114751169</v>
+        <v>0.08733339259676434</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.002983872465663636</v>
+        <v>-0.004319867632698424</v>
       </c>
       <c r="M195" t="n">
-        <v>0.3717765997752204</v>
+        <v>0.3701661161179449</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08860317093495461</v>
+        <v>0.08625663454829759</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.002714020198113385</v>
+        <v>-0.002350376036173561</v>
       </c>
       <c r="P195" t="n">
-        <v>0.6081652931046534</v>
+        <v>0.5870712502173511</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.08805111144733113</v>
+        <v>0.08801222831364623</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.003231655977117642</v>
+        <v>-0.005663806052552999</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06433074147841475</v>
+        <v>0.06426028751865447</v>
       </c>
       <c r="G196" t="n">
-        <v>0.08945514171670028</v>
+        <v>0.0889507324578401</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.002613227565551656</v>
+        <v>-0.003400506598912303</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1640611949940864</v>
+        <v>0.1684071991639937</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09028788552157997</v>
+        <v>0.0881273325294622</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.002949801681206493</v>
+        <v>-0.004291077416395074</v>
       </c>
       <c r="M196" t="n">
-        <v>0.3722256073922506</v>
+        <v>0.3705959354343273</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08940865430709055</v>
+        <v>0.08704078577146393</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.002661910489469038</v>
+        <v>-0.002348880580230194</v>
       </c>
       <c r="P196" t="n">
-        <v>0.6086973584653974</v>
+        <v>0.5875384738849274</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.08885157609685232</v>
+        <v>0.08881233948013394</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.003180672311944475</v>
+        <v>-0.005525481371257889</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.06434479252405771</v>
+        <v>0.06424967420673194</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09026104389432821</v>
+        <v>0.08975209040791073</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.002613227565551656</v>
+        <v>-0.003400506598912303</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1642162628362759</v>
+        <v>0.1684029371550676</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09110128989564827</v>
+        <v>0.08892127246216006</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.002949801681206493</v>
+        <v>-0.004291077416395074</v>
       </c>
       <c r="M197" t="n">
-        <v>0.3727000082977956</v>
+        <v>0.3709489235946369</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09021413767922652</v>
+        <v>0.08782493699463027</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.002661910489469038</v>
+        <v>-0.002348880580230194</v>
       </c>
       <c r="P197" t="n">
-        <v>0.6089633261297419</v>
+        <v>0.5881149348178307</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.08965204074637351</v>
+        <v>0.08961245064662163</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.003180672311944475</v>
+        <v>-0.005525481371257889</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.06436726910731697</v>
+        <v>0.06425624510472056</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09106694607195616</v>
+        <v>0.09055344835798136</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.002613227565551656</v>
+        <v>-0.003399486650922228</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1643062180476727</v>
+        <v>0.1684631805544399</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09191469426971655</v>
+        <v>0.08971521239485791</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.002949801681206493</v>
+        <v>-0.004291077416395074</v>
       </c>
       <c r="M198" t="n">
-        <v>0.3730413006393986</v>
+        <v>0.3712754822874186</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09101962105136246</v>
+        <v>0.0886090882177966</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.002661910489469038</v>
+        <v>-0.002348880580230194</v>
       </c>
       <c r="P198" t="n">
-        <v>0.6094783277631459</v>
+        <v>0.589050836767259</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.09045250539589471</v>
+        <v>0.09041256181310932</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.003180672311944475</v>
+        <v>-0.005525481371257889</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06434548233978953</v>
+        <v>0.06426247072605741</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09187284824958408</v>
+        <v>0.091354806308052</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.002587281700321009</v>
+        <v>-0.003399486650922228</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1643951760332725</v>
+        <v>0.1684131936801244</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09272809864378484</v>
+        <v>0.09050915232755577</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.002949801681206493</v>
+        <v>-0.004291077416395074</v>
       </c>
       <c r="M199" t="n">
-        <v>0.3736139819390296</v>
+        <v>0.371730522018371</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09182510442349842</v>
+        <v>0.08939323944096295</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.002616994363621683</v>
+        <v>-0.002348880580230194</v>
       </c>
       <c r="P199" t="n">
-        <v>0.6098126310314215</v>
+        <v>0.5895057795835028</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.0912529700454159</v>
+        <v>0.09121267297959701</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.003180672311944475</v>
+        <v>-0.005525481371257889</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06436731303732879</v>
+        <v>0.06426837093917</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09267875042721201</v>
+        <v>0.09215616425812262</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.002587281700321009</v>
+        <v>-0.003333389955783346</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1645044843292917</v>
+        <v>0.1684495524280178</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09354150301785313</v>
+        <v>0.09130309226025363</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.002903653639497579</v>
+        <v>-0.004222721480929286</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3739978047839584</v>
+        <v>0.3722606094381284</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09263058779563436</v>
+        <v>0.09017739066412929</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.002616994363621683</v>
+        <v>-0.00234628348096617</v>
       </c>
       <c r="P200" t="n">
-        <v>0.6102239128965012</v>
+        <v>0.5904852016139764</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.09205343469493708</v>
+        <v>0.0920127841460847</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.003111338837624677</v>
+        <v>-0.00532380241489278</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.06437128567284717</v>
+        <v>0.06426518781224574</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09348465260483994</v>
+        <v>0.09295752220819326</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.002587281700321009</v>
+        <v>-0.003332390138760016</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1646340725028734</v>
+        <v>0.168397529921727</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09435490739192141</v>
+        <v>0.09209703219295148</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.002903653639497579</v>
+        <v>-0.004222721480929286</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3745577810391942</v>
+        <v>0.3727598623065629</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09343607116777031</v>
+        <v>0.09096154188729563</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.002616994363621683</v>
+        <v>-0.00234628348096617</v>
       </c>
       <c r="P201" t="n">
-        <v>0.6108842726282742</v>
+        <v>0.5910636073288178</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.09285389934445827</v>
+        <v>0.09281289531257239</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.003111338837624677</v>
+        <v>-0.00532380241489278</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06436620971208873</v>
+        <v>0.06428805294557269</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09429055478246787</v>
+        <v>0.09375888015826389</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.002587281700321009</v>
+        <v>-0.003332390138760016</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1647623974463322</v>
+        <v>0.1683881702296939</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09516831176598971</v>
+        <v>0.09289097212564934</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.002903653639497579</v>
+        <v>-0.004222721480929286</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3751352667083967</v>
+        <v>0.3732789787021564</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09424155453990628</v>
+        <v>0.09174569311046198</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.002616994363621683</v>
+        <v>-0.00234628348096617</v>
       </c>
       <c r="P202" t="n">
-        <v>0.6110189027731617</v>
+        <v>0.5918274942714418</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.09365436399397947</v>
+        <v>0.09361300647906008</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.003111338837624677</v>
+        <v>-0.00532380241489278</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06436089631431111</v>
+        <v>0.06430187548435755</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09509645696009579</v>
+        <v>0.09456023810833453</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.002587281700321009</v>
+        <v>-0.003332390138760016</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1648249080558831</v>
+        <v>0.1683559549440852</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09598171614005799</v>
+        <v>0.09368491205834721</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.002903653639497579</v>
+        <v>-0.004121217525445219</v>
       </c>
       <c r="M203" t="n">
-        <v>0.3756761232944457</v>
+        <v>0.3738688600812057</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09504703791204222</v>
+        <v>0.09252984433362832</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.002616994363621683</v>
+        <v>-0.00234628348096617</v>
       </c>
       <c r="P203" t="n">
-        <v>0.6114022777119502</v>
+        <v>0.5927756687303187</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.09445482864350066</v>
+        <v>0.09441311764554779</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.003111338837624677</v>
+        <v>-0.00532380241489278</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.06438173346725141</v>
+        <v>0.06428911507792777</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09590235913772374</v>
+        <v>0.09536159605840515</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.00255298124049575</v>
+        <v>-0.003249173406572829</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1649073786403583</v>
+        <v>0.1683882345882027</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09679512051412628</v>
+        <v>0.09447885199104507</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.002847162623086513</v>
+        <v>-0.004121217525445219</v>
       </c>
       <c r="M204" t="n">
-        <v>0.3762838432314263</v>
+        <v>0.374475755484896</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09585252128417816</v>
+        <v>0.09331399555679466</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.002577781478505228</v>
+        <v>-0.002341489051780209</v>
       </c>
       <c r="P204" t="n">
-        <v>0.6117760172691827</v>
+        <v>0.593400914703716</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.09525529329302185</v>
+        <v>0.09521322881203548</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.003026823637325168</v>
+        <v>-0.005066860111507189</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.06436723278116223</v>
+        <v>0.06428490650402509</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09670826131535167</v>
+        <v>0.09616295400847578</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.00255298124049575</v>
+        <v>-0.003249173406572829</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1650527438795565</v>
+        <v>0.1683976572478249</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09760852488819456</v>
+        <v>0.09527279192374291</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.002847162623086513</v>
+        <v>-0.004121217525445219</v>
       </c>
       <c r="M205" t="n">
-        <v>0.3767463171006061</v>
+        <v>0.3749407071364255</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09665800465631412</v>
+        <v>0.09409814677996101</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.002577781478505228</v>
+        <v>-0.002341489051780209</v>
       </c>
       <c r="P205" t="n">
-        <v>0.612226177526216</v>
+        <v>0.5942071447666611</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.09605575794254305</v>
+        <v>0.09601333997852317</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.003026823637325168</v>
+        <v>-0.005066860111507189</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.06439651016112163</v>
+        <v>0.06429805127707611</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09751416349297959</v>
+        <v>0.09696431195854642</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.00255298124049575</v>
+        <v>-0.003248848554202646</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1651534257160212</v>
+        <v>0.168340558775428</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09842192926226286</v>
+        <v>0.09606673185644077</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.002847162623086513</v>
+        <v>-0.004121217525445219</v>
       </c>
       <c r="M206" t="n">
-        <v>0.3773251086637327</v>
+        <v>0.3756295806203344</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09746348802845006</v>
+        <v>0.09488229800312735</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.002577781478505228</v>
+        <v>-0.002341489051780209</v>
       </c>
       <c r="P206" t="n">
-        <v>0.6125801821116074</v>
+        <v>0.5949396833577645</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.09685622259206424</v>
+        <v>0.09681345114501086</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.003026823637325168</v>
+        <v>-0.005066860111507189</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.0643992860854527</v>
+        <v>0.06431101057526258</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09832006567060753</v>
+        <v>0.09776566990861704</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.00255298124049575</v>
+        <v>-0.003248848554202646</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1652738297770742</v>
+        <v>0.1683261154687773</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09923533363633115</v>
+        <v>0.09686067178913862</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.002847162623086513</v>
+        <v>-0.004121217525445219</v>
       </c>
       <c r="M207" t="n">
-        <v>0.3779661924927546</v>
+        <v>0.3761733189540677</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09826897140058603</v>
+        <v>0.09566644922629369</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.002577781478505228</v>
+        <v>-0.002341489051780209</v>
       </c>
       <c r="P207" t="n">
-        <v>0.6130103430977237</v>
+        <v>0.5958503860194062</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.09765668724158542</v>
+        <v>0.09761356231149855</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.003026823637325168</v>
+        <v>-0.005066860111507189</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06440194940331315</v>
+        <v>0.06432380421508695</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09912596784823545</v>
+        <v>0.09856702785868768</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.002519027507311972</v>
+        <v>-0.003149892923725529</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1653277508272011</v>
+        <v>0.1683106570762727</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1000487380103994</v>
+        <v>0.09765461172183648</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.002782062914522912</v>
+        <v>-0.003991247452682413</v>
       </c>
       <c r="M208" t="n">
-        <v>0.3785624644820133</v>
+        <v>0.3767279204194489</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09907445477272198</v>
+        <v>0.09645060044946004</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.002542781492053582</v>
+        <v>-0.002334578898384911</v>
       </c>
       <c r="P208" t="n">
-        <v>0.613430268239649</v>
+        <v>0.5968534306012575</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.09845715189110663</v>
+        <v>0.09841367347798624</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.002930294794212871</v>
+        <v>-0.004771636737292823</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.06437815765152662</v>
+        <v>0.0643101077776292</v>
       </c>
       <c r="G209" t="n">
-        <v>0.09993187002586339</v>
+        <v>0.0993683858087583</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.002519027507311972</v>
+        <v>-0.003150207913017901</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1654442532013904</v>
+        <v>0.1683378429804327</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1008621423844677</v>
+        <v>0.09844855165453434</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.002782062914522912</v>
+        <v>-0.003991247452682413</v>
       </c>
       <c r="M209" t="n">
-        <v>0.3791650759376054</v>
+        <v>0.3774501050690797</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09987993814485792</v>
+        <v>0.09723475167262637</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.002542781492053582</v>
+        <v>-0.002334578898384911</v>
       </c>
       <c r="P209" t="n">
-        <v>0.6134943555581471</v>
+        <v>0.5976931620837442</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.09925761654062781</v>
+        <v>0.09921378464447395</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.002930294794212871</v>
+        <v>-0.004771636737292823</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.06439824819759898</v>
+        <v>0.06433141024870379</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1007377722034913</v>
+        <v>0.1001697437588289</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.002519027507311972</v>
+        <v>-0.003149577934433156</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1655586638267581</v>
+        <v>0.1682766972164609</v>
       </c>
       <c r="K210" t="n">
-        <v>0.101675546758536</v>
+        <v>0.0992424915872322</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.002782062914522912</v>
+        <v>-0.003991247452682413</v>
       </c>
       <c r="M210" t="n">
-        <v>0.3798254176021326</v>
+        <v>0.3780749677338119</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1006854215169939</v>
+        <v>0.09801890289579271</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.002542781492053582</v>
+        <v>-0.002334578898384911</v>
       </c>
       <c r="P210" t="n">
-        <v>0.6139795641967042</v>
+        <v>0.5982825882728711</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.100058081190149</v>
+        <v>0.1000138958109616</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.002930294794212871</v>
+        <v>-0.004771636737292823</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.06440072243995874</v>
+        <v>0.06431747871087247</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1015436743811192</v>
+        <v>0.1009711017088996</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.002474099830617337</v>
+        <v>-0.003041988350836828</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1656493182045232</v>
+        <v>0.1683018484799015</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1024889511326043</v>
+        <v>0.1000364315199301</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.002782062914522912</v>
+        <v>-0.003991247452682413</v>
       </c>
       <c r="M211" t="n">
-        <v>0.3804360254246563</v>
+        <v>0.3787063735101444</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1014909048891298</v>
+        <v>0.09880305411895905</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.002542781492053582</v>
+        <v>-0.002334578898384911</v>
       </c>
       <c r="P211" t="n">
-        <v>0.6142812533957641</v>
+        <v>0.5992986664329506</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.1008585458396702</v>
+        <v>0.1008140069774493</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.002930294794212871</v>
+        <v>-0.004771636737292823</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.06441197324775096</v>
+        <v>0.064321023762639</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1023495765587472</v>
+        <v>0.1017724596589702</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.002474099830617337</v>
+        <v>-0.003042292580094837</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1656729470151715</v>
+        <v>0.1682386835615113</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1033023555066726</v>
+        <v>0.1008303714526279</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.002710088796356396</v>
+        <v>-0.003835990063408276</v>
       </c>
       <c r="M212" t="n">
-        <v>0.3809951350546894</v>
+        <v>0.3792369945115899</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1022963882612658</v>
+        <v>0.0995872053421254</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.002510504062200654</v>
+        <v>-0.002326799973300889</v>
       </c>
       <c r="P212" t="n">
-        <v>0.614399075623511</v>
+        <v>0.5999759596715609</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.1016590104891914</v>
+        <v>0.101614118143937</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.002824920391454704</v>
+        <v>-0.004446796675688928</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06441444601153497</v>
+        <v>0.06433328454958716</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1031554787363751</v>
+        <v>0.1025738176090408</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.002474099830617337</v>
+        <v>-0.003042901038610856</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1657804160046552</v>
+        <v>0.1682618015566694</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1041157598807409</v>
+        <v>0.1016243113853258</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.002710088796356396</v>
+        <v>-0.003835990063408276</v>
       </c>
       <c r="M213" t="n">
-        <v>0.3816604477416133</v>
+        <v>0.3798239293721514</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1031018716334017</v>
+        <v>0.1003713565652917</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.002510504062200654</v>
+        <v>-0.002326799973300889</v>
       </c>
       <c r="P213" t="n">
-        <v>0.6146786026089204</v>
+        <v>0.6010776169181853</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1024594751387126</v>
+        <v>0.1024142293104247</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.002824920391454704</v>
+        <v>-0.004446796675688928</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.06440816481903242</v>
+        <v>0.06433671557551593</v>
       </c>
       <c r="G214" t="n">
-        <v>0.103961380914003</v>
+        <v>0.1033751755591115</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.002474099830617337</v>
+        <v>-0.003041988350836828</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1658422059843808</v>
+        <v>0.1681966204769425</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1049291642548092</v>
+        <v>0.1024182513180236</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.002710088796356396</v>
+        <v>-0.003835990063408276</v>
       </c>
       <c r="M214" t="n">
-        <v>0.382164666576983</v>
+        <v>0.3805189408447255</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1039073550055377</v>
+        <v>0.1011555077884581</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.002510504062200654</v>
+        <v>-0.002326799973300889</v>
       </c>
       <c r="P214" t="n">
-        <v>0.6151198355152502</v>
+        <v>0.6017515023339767</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1032599397882338</v>
+        <v>0.1032143404769124</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.002824920391454704</v>
+        <v>-0.004446796675688928</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.06441952552550828</v>
+        <v>0.06433133567964801</v>
       </c>
       <c r="G215" t="n">
-        <v>0.104767283091631</v>
+        <v>0.1041765335091821</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.002474099830617337</v>
+        <v>-0.003041988350836828</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1659445423286798</v>
+        <v>0.1681958891699518</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1057425686288774</v>
+        <v>0.1032121912507215</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.002710088796356396</v>
+        <v>-0.003835990063408276</v>
       </c>
       <c r="M215" t="n">
-        <v>0.3828253259970764</v>
+        <v>0.381267817979779</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1047128383776736</v>
+        <v>0.1019396590116244</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.002510504062200654</v>
+        <v>-0.002326799973300889</v>
       </c>
       <c r="P215" t="n">
-        <v>0.6152901168184771</v>
+        <v>0.6025915147634177</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.104060404437755</v>
+        <v>0.1040144516434001</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.002824920391454704</v>
+        <v>-0.004446796675688928</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.06440460021206772</v>
+        <v>0.0643347314673125</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1055731852692589</v>
+        <v>0.1049778914592527</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.002424724029207023</v>
+        <v>-0.002925560166422228</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1660009604285506</v>
+        <v>0.1681723273795062</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1065559730029457</v>
+        <v>0.1040061311834194</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.00263297455113658</v>
+        <v>-0.003663356682284388</v>
       </c>
       <c r="M216" t="n">
-        <v>0.3833747025132085</v>
+        <v>0.3818565516632069</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1055183217498096</v>
+        <v>0.1027238102347908</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.002479458846880353</v>
+        <v>-0.002317759903826982</v>
       </c>
       <c r="P216" t="n">
-        <v>0.6155352664731162</v>
+        <v>0.6035111635881705</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1048608690872762</v>
+        <v>0.1048145628098878</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.002713868512217589</v>
+        <v>-0.004103401774224931</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.0644249492339227</v>
+        <v>0.06435570804529994</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1063790874468868</v>
+        <v>0.1057792494093234</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.002424724029207023</v>
+        <v>-0.002926437922247737</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1661409697670543</v>
+        <v>0.1681041301248538</v>
       </c>
       <c r="K217" t="n">
-        <v>0.107369377377014</v>
+        <v>0.1048000711161172</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.00263297455113658</v>
+        <v>-0.003663356682284388</v>
       </c>
       <c r="M217" t="n">
-        <v>0.3840244437980214</v>
+        <v>0.382442817643462</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1063238051219455</v>
+        <v>0.1035079614579571</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.002479458846880353</v>
+        <v>-0.002317759903826982</v>
       </c>
       <c r="P217" t="n">
-        <v>0.6156820377314385</v>
+        <v>0.6042527693485807</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1056613337367974</v>
+        <v>0.1056146739763755</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.002713868512217589</v>
+        <v>-0.004103401774224931</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.06440147794890773</v>
+        <v>0.0643327954145223</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1071849896245148</v>
+        <v>0.106580607359394</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.002424724029207023</v>
+        <v>-0.002926437922247737</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1662132357105731</v>
+        <v>0.1681439835537187</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1081827817510823</v>
+        <v>0.1055940110488151</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.00263297455113658</v>
+        <v>-0.003663356682284388</v>
       </c>
       <c r="M218" t="n">
-        <v>0.3845595002859631</v>
+        <v>0.3830784444232632</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1071292884940815</v>
+        <v>0.1042921126811234</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.002479458846880353</v>
+        <v>-0.002317759903826982</v>
       </c>
       <c r="P218" t="n">
-        <v>0.6161631926236955</v>
+        <v>0.60498520100679</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1064617983863185</v>
+        <v>0.1064147851428632</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.002713868512217589</v>
+        <v>-0.004103401774224931</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06440454058112723</v>
+        <v>0.06433628752335323</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1079908918021427</v>
+        <v>0.1073819653094646</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.002424724029207023</v>
+        <v>-0.002925560166422228</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1662175900280606</v>
+        <v>0.1680737751596535</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1089961861251506</v>
+        <v>0.1063879509815129</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.00263297455113658</v>
+        <v>-0.003663356682284388</v>
       </c>
       <c r="M219" t="n">
-        <v>0.3852455099408255</v>
+        <v>0.3837087714739313</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1079347718662174</v>
+        <v>0.1050762639042898</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.002479458846880353</v>
+        <v>-0.002317759903826982</v>
       </c>
       <c r="P219" t="n">
-        <v>0.6163724798636864</v>
+        <v>0.6059635732783165</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1072622630358397</v>
+        <v>0.1072148963093509</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.002713868512217589</v>
+        <v>-0.004103401774224931</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.0644341647191109</v>
+        <v>0.06435742212004211</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1087967939797706</v>
+        <v>0.1081833232595352</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.002373984651314471</v>
+        <v>-0.002805047734759074</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1663485447764041</v>
+        <v>0.1680897875363688</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1098095904992189</v>
+        <v>0.1071818909142108</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.002552454461413084</v>
+        <v>-0.003476601078328783</v>
       </c>
       <c r="M220" t="n">
-        <v>0.385652840880776</v>
+        <v>0.3843857518357799</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1087402552383534</v>
+        <v>0.1058604151274561</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.002448155504026587</v>
+        <v>-0.002306841806656989</v>
       </c>
       <c r="P220" t="n">
-        <v>0.6165694634494272</v>
+        <v>0.606758617136725</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.1080627276853609</v>
+        <v>0.1080150074758386</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.002600307239668448</v>
+        <v>-0.00375618485564372</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06442003903923298</v>
+        <v>0.06434350746684495</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1096026961573986</v>
+        <v>0.1089846812096059</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.002373984651314471</v>
+        <v>-0.002805328267585833</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1663464709950403</v>
+        <v>0.1680393752072227</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1106229948732872</v>
+        <v>0.1079758308469086</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.002552454461413084</v>
+        <v>-0.003476601078328783</v>
       </c>
       <c r="M221" t="n">
-        <v>0.3862617070719528</v>
+        <v>0.3848941108611194</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1095457386104893</v>
+        <v>0.1066445663506225</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.002448155504026587</v>
+        <v>-0.002306841806656989</v>
       </c>
       <c r="P221" t="n">
-        <v>0.6167539767945558</v>
+        <v>0.6074539494501621</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.1088631923348821</v>
+        <v>0.1088151186423263</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.002600307239668448</v>
+        <v>-0.00375618485564372</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.06443252525268063</v>
+        <v>0.06435606104417027</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1104085983350265</v>
+        <v>0.1097860391596765</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.002373984651314471</v>
+        <v>-0.002805328267585833</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1664059402346142</v>
+        <v>0.1679661623567353</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1114363992473555</v>
+        <v>0.1087697707796065</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.002552454461413084</v>
+        <v>-0.003476601078328783</v>
       </c>
       <c r="M222" t="n">
-        <v>0.3869101484053554</v>
+        <v>0.3856602629661378</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1103512219826253</v>
+        <v>0.1074287175737888</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.002448155504026587</v>
+        <v>-0.002306841806656989</v>
       </c>
       <c r="P222" t="n">
-        <v>0.616752502812148</v>
+        <v>0.6083909764581978</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.1096636569844033</v>
+        <v>0.109615229808814</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.002600307239668448</v>
+        <v>-0.00375618485564372</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.06444527207662165</v>
+        <v>0.06435996055411503</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1112145005126544</v>
+        <v>0.1105873971097471</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.002373984651314471</v>
+        <v>-0.002805608800412591</v>
       </c>
       <c r="J223" t="n">
-        <v>0.166483606065914</v>
+        <v>0.1679355462211216</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1122498036214238</v>
+        <v>0.1095637107123044</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.002552454461413084</v>
+        <v>-0.003476601078328783</v>
       </c>
       <c r="M223" t="n">
-        <v>0.3873280728027625</v>
+        <v>0.3860938638064846</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1111567053547612</v>
+        <v>0.1082128687969551</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.002448155504026587</v>
+        <v>-0.002306841806656989</v>
       </c>
       <c r="P223" t="n">
-        <v>0.6170849264175291</v>
+        <v>0.6090533442976963</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1104641216339245</v>
+        <v>0.1104153409753016</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.002600307239668448</v>
+        <v>-0.00375618485564372</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.06444951082732746</v>
+        <v>0.06435522469326688</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1120204026902823</v>
+        <v>0.1113887550598178</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.002325983979411362</v>
+        <v>-0.002683308670144365</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1665360738097981</v>
+        <v>0.167925716402967</v>
       </c>
       <c r="K224" t="n">
-        <v>0.113063207995492</v>
+        <v>0.1103576506450022</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.002470262809735526</v>
+        <v>-0.003282629299242933</v>
       </c>
       <c r="M224" t="n">
-        <v>0.3879435480863959</v>
+        <v>0.3868364499069604</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1119621887268972</v>
+        <v>0.1089970200201215</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.002415103691573267</v>
+        <v>-0.002294130968555747</v>
       </c>
       <c r="P224" t="n">
-        <v>0.6172310295226499</v>
+        <v>0.6096966426205942</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1112645862834457</v>
+        <v>0.1112154521417893</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.0024874046569742</v>
+        <v>-0.003413794785639848</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06442767696126944</v>
+        <v>0.06438580819864587</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1128263048679103</v>
+        <v>0.1121901130098884</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.002325983979411362</v>
+        <v>-0.002683845385549935</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1666065414978429</v>
+        <v>0.1678930850414902</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1138766123695603</v>
+        <v>0.1111515905777001</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.002470262809735526</v>
+        <v>-0.003282629299242933</v>
       </c>
       <c r="M225" t="n">
-        <v>0.3884325960497003</v>
+        <v>0.3874040080492817</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1127676720990331</v>
+        <v>0.1097811712432878</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.002415103691573267</v>
+        <v>-0.002294130968555747</v>
       </c>
       <c r="P225" t="n">
-        <v>0.6172772769859178</v>
+        <v>0.6104052660812864</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.1120650509329669</v>
+        <v>0.112015563308277</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.0024874046569742</v>
+        <v>-0.003413794785639848</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.06443255815050974</v>
+        <v>0.0643726471618738</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1136322070455382</v>
+        <v>0.1129914709599591</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.002325983979411362</v>
+        <v>-0.002684113743252719</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1666515934431662</v>
+        <v>0.1679030203062599</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1146900167436286</v>
+        <v>0.1119455305103979</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.002470262809735526</v>
+        <v>-0.003282629299242933</v>
       </c>
       <c r="M226" t="n">
-        <v>0.3888472216101339</v>
+        <v>0.3879021171561972</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1135731554711691</v>
+        <v>0.1105653224664542</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.002415103691573267</v>
+        <v>-0.002294130968555747</v>
       </c>
       <c r="P226" t="n">
-        <v>0.6173969283686153</v>
+        <v>0.6112638845549097</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1128655155824881</v>
+        <v>0.1128156744747647</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.0024874046569742</v>
+        <v>-0.003413794785639848</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.06443779843135827</v>
+        <v>0.06437727161852656</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1144381092231661</v>
+        <v>0.1137928289100297</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.002325983979411362</v>
+        <v>-0.002683845385549935</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1666711129165117</v>
+        <v>0.1678248070739159</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1155034211176969</v>
+        <v>0.1127394704430958</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.002470262809735526</v>
+        <v>-0.003282629299242933</v>
       </c>
       <c r="M227" t="n">
-        <v>0.3891857095174615</v>
+        <v>0.3883291363474255</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1143786388433051</v>
+        <v>0.1113494736896205</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.0023788130674543</v>
+        <v>-0.002294130968555747</v>
       </c>
       <c r="P227" t="n">
-        <v>0.6175898529762057</v>
+        <v>0.6118403667475113</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1136659802320093</v>
+        <v>0.1136157856412524</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.0024874046569742</v>
+        <v>-0.003413794785639848</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.06444342262825212</v>
+        <v>0.0643821269829251</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1152440114007941</v>
+        <v>0.1145941868601003</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.002273222433996683</v>
+        <v>-0.002562687335757262</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1666866563609701</v>
+        <v>0.1678327193915099</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1163168254917652</v>
+        <v>0.1135334103757936</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002388133878653524</v>
+        <v>-0.003084565043913108</v>
       </c>
       <c r="M228" t="n">
-        <v>0.3897161898538957</v>
+        <v>0.3890067753128652</v>
       </c>
       <c r="N228" t="n">
-        <v>0.115184122215441</v>
+        <v>0.1121336249127869</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.0023788130674543</v>
+        <v>-0.002280854558418707</v>
       </c>
       <c r="P228" t="n">
-        <v>0.6176824102189157</v>
+        <v>0.6123911896880734</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1144664448815305</v>
+        <v>0.1144158968077401</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.002378328847301766</v>
+        <v>-0.003090276131929374</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.06447584425220317</v>
+        <v>0.06437844399650569</v>
       </c>
       <c r="G229" t="n">
-        <v>0.116049913578422</v>
+        <v>0.1153955448101709</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.002273222433996683</v>
+        <v>-0.002562687335757262</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1667848183606437</v>
+        <v>0.1677960629205965</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1171302298658335</v>
+        <v>0.1143273503084915</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002388133878653524</v>
+        <v>-0.003084565043913108</v>
       </c>
       <c r="M229" t="n">
-        <v>0.3901135376345786</v>
+        <v>0.3893949147380358</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1159896055875769</v>
+        <v>0.1129177761359532</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.0023788130674543</v>
+        <v>-0.002280854558418707</v>
       </c>
       <c r="P229" t="n">
-        <v>0.6175876470007182</v>
+        <v>0.6130873096883565</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.1152669095310517</v>
+        <v>0.1152160079742278</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.002378328847301766</v>
+        <v>-0.003090276131929374</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06448231269464343</v>
+        <v>0.06438382024399969</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1168558157560499</v>
+        <v>0.1161969027602416</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.002273222433996683</v>
+        <v>-0.002563199873224413</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1667704383203104</v>
+        <v>0.1677584031683895</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1179436342399018</v>
+        <v>0.1151212902411893</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002388133878653524</v>
+        <v>-0.003084565043913108</v>
       </c>
       <c r="M230" t="n">
-        <v>0.3904299765837784</v>
+        <v>0.3899772259765887</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1167950889597129</v>
+        <v>0.1137019273591195</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.0023788130674543</v>
+        <v>-0.002280854558418707</v>
       </c>
       <c r="P230" t="n">
-        <v>0.6176524188396836</v>
+        <v>0.6136683575129301</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1160673741805728</v>
+        <v>0.1160161191407155</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.002378328847301766</v>
+        <v>-0.003090276131929374</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.06446821519087478</v>
+        <v>0.06439827720687021</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1176617179336779</v>
+        <v>0.1169982607103122</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.002273222433996683</v>
+        <v>-0.002562943604490837</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1667951287397052</v>
+        <v>0.1676762054395999</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1187570386139701</v>
+        <v>0.1159152301738872</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002388133878653524</v>
+        <v>-0.003084565043913108</v>
       </c>
       <c r="M231" t="n">
-        <v>0.3908801316874304</v>
+        <v>0.3903745595393472</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1176005723318489</v>
+        <v>0.1144860785822859</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.0023788130674543</v>
+        <v>-0.002280854558418707</v>
       </c>
       <c r="P231" t="n">
-        <v>0.6177030574010731</v>
+        <v>0.6142189204022395</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.1168678388300941</v>
+        <v>0.1168162303072032</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.002378328847301766</v>
+        <v>-0.003090276131929374</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06448818069148134</v>
+        <v>0.06440425488652674</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1184676201113058</v>
+        <v>0.1177996186603828</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.002218799998924247</v>
+        <v>-0.002445626396358189</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1668154381097908</v>
+        <v>0.1676800760032904</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1195704429880383</v>
+        <v>0.1167091701065851</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002307801950716697</v>
+        <v>-0.002889180695697221</v>
       </c>
       <c r="M232" t="n">
-        <v>0.391192169549878</v>
+        <v>0.3908013353538576</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1184060557039848</v>
+        <v>0.1152702298054522</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.002337793289603596</v>
+        <v>-0.002266399038577353</v>
       </c>
       <c r="P232" t="n">
-        <v>0.6179129440110619</v>
+        <v>0.6148238115658999</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1176683034796152</v>
+        <v>0.1176163414736909</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.002276247893818068</v>
+        <v>-0.002797228449036291</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06448785363152643</v>
+        <v>0.06442814573598742</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1192735222889337</v>
+        <v>0.1186009766104535</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.002218799998924247</v>
+        <v>-0.002445626396358189</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1668312632155431</v>
+        <v>0.1676176500929459</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1203838473621066</v>
+        <v>0.1175031100392829</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002307801950716697</v>
+        <v>-0.002889180695697221</v>
       </c>
       <c r="M233" t="n">
-        <v>0.3914184583713701</v>
+        <v>0.3911479713582053</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1192115390761208</v>
+        <v>0.1160543810286186</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.002337793289603596</v>
+        <v>-0.002266399038577353</v>
       </c>
       <c r="P233" t="n">
-        <v>0.6177685084831086</v>
+        <v>0.6152219838609705</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1184687681291364</v>
+        <v>0.1184164526401786</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.002276247893818068</v>
+        <v>-0.002797228449036291</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.06450588402353026</v>
+        <v>0.06440842873815189</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1200794244665616</v>
+        <v>0.1194023345605241</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.002218799998924247</v>
+        <v>-0.0024453818826213</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1668425008419379</v>
+        <v>0.1675542314163213</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1211972517361749</v>
+        <v>0.1182970499719808</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002307801950716697</v>
+        <v>-0.002889180695697221</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3916115037848574</v>
+        <v>0.3915211794862837</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1200170224482567</v>
+        <v>0.1168385322517849</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.002337793289603596</v>
+        <v>-0.002266399038577353</v>
       </c>
       <c r="P234" t="n">
-        <v>0.6178552838015569</v>
+        <v>0.6154980637489023</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1192692327786576</v>
+        <v>0.1192165638066663</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.002276247893818068</v>
+        <v>-0.002797228449036291</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.06451586316338492</v>
+        <v>0.06443304172707461</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1208853266441896</v>
+        <v>0.1202036925105947</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002218799998924247</v>
+        <v>-0.002444892855147523</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1668508478231359</v>
+        <v>0.1675115719765186</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1220106561102432</v>
+        <v>0.1190909899046786</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002307801950716697</v>
+        <v>-0.002889180695697221</v>
       </c>
       <c r="M235" t="n">
-        <v>0.3918239172497048</v>
+        <v>0.3918112182800013</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1208225058203926</v>
+        <v>0.1176226834749513</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.002337793289603596</v>
+        <v>-0.002249757724139693</v>
       </c>
       <c r="P235" t="n">
-        <v>0.6179227096997367</v>
+        <v>0.6161698847048959</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.1200696974281788</v>
+        <v>0.120016674973154</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.002276247893818068</v>
+        <v>-0.002797228449036291</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.06453538128452156</v>
+        <v>0.0644316667882605</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1216912288218175</v>
+        <v>0.1210050504606654</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.002165620706874864</v>
+        <v>-0.002335593055522199</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1668724562122156</v>
+        <v>0.1674896595214506</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1228240604843115</v>
+        <v>0.1198849298373765</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002230595151454964</v>
+        <v>-0.002700702763766562</v>
       </c>
       <c r="M236" t="n">
-        <v>0.3919999812870538</v>
+        <v>0.3923096781531222</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1216279891925286</v>
+        <v>0.1184068346981176</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.002290554015955064</v>
+        <v>-0.002249757724139693</v>
       </c>
       <c r="P236" t="n">
-        <v>0.6176921444185491</v>
+        <v>0.6165432820722976</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.1208701620777</v>
+        <v>0.1208167861396417</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.00218038538539965</v>
+        <v>-0.002545273995954785</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.06452041405501144</v>
+        <v>0.06444828875472734</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1224971309994454</v>
+        <v>0.121806408410736</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.002165620706874864</v>
+        <v>-0.002335593055522199</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1668457021835533</v>
+        <v>0.1674449965484102</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1236374648583798</v>
+        <v>0.1206788697700744</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002230595151454964</v>
+        <v>-0.002700702763766562</v>
       </c>
       <c r="M237" t="n">
-        <v>0.3920839010387545</v>
+        <v>0.3925744039313416</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1224334725646646</v>
+        <v>0.119190985921284</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.002290554015955064</v>
+        <v>-0.002249757724139693</v>
       </c>
       <c r="P237" t="n">
-        <v>0.6177714926975172</v>
+        <v>0.6167029386063544</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1216706267272212</v>
+        <v>0.1216168973061293</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.00218038538539965</v>
+        <v>-0.002545273995954785</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06455898137539517</v>
+        <v>0.06443895642813741</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1233030331770734</v>
+        <v>0.1226077663608066</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.002165620706874864</v>
+        <v>-0.002335126030316136</v>
       </c>
       <c r="J238" t="n">
-        <v>0.166832773474473</v>
+        <v>0.1673775970006394</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1244508692324481</v>
+        <v>0.1214728097027722</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002230595151454964</v>
+        <v>-0.002700702763766562</v>
       </c>
       <c r="M238" t="n">
-        <v>0.3922909605662865</v>
+        <v>0.3928574377930666</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1232389559368005</v>
+        <v>0.1199751371444503</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.002290554015955064</v>
+        <v>-0.002249757724139693</v>
       </c>
       <c r="P238" t="n">
-        <v>0.6175539051363249</v>
+        <v>0.6169071258789565</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.1224710913767424</v>
+        <v>0.122417008472617</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.00218038538539965</v>
+        <v>-0.002545273995954785</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.06457184217882539</v>
+        <v>0.06444766222328768</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1241089353547013</v>
+        <v>0.1234091243108772</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.002105326447688746</v>
+        <v>-0.002335593055522199</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1668554486664655</v>
+        <v>0.1673526747029829</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1252642736065164</v>
+        <v>0.1222667496354701</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002230595151454964</v>
+        <v>-0.002700702763766562</v>
       </c>
       <c r="M239" t="n">
-        <v>0.3923096781531222</v>
+        <v>0.3929768040154297</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1240444393089365</v>
+        <v>0.1207592883676166</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.002290554015955064</v>
+        <v>-0.002249757724139693</v>
       </c>
       <c r="P239" t="n">
-        <v>0.6173002128709846</v>
+        <v>0.6173277404243479</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1232715560262636</v>
+        <v>0.1232171196391047</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.00218038538539965</v>
+        <v>-0.002545273995954785</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.06456778093991157</v>
+        <v>0.06446821519087478</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1249148375323292</v>
+        <v>0.1242104822609479</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.002105326447688746</v>
+        <v>-0.002234847252938152</v>
       </c>
       <c r="J240" t="n">
-        <v>0.166783741749136</v>
+        <v>0.1672832885932255</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1260776779805846</v>
+        <v>0.1230606895681679</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.002150779351043291</v>
+        <v>-0.002523834233946943</v>
       </c>
       <c r="M240" t="n">
-        <v>0.3924177030799297</v>
+        <v>0.393312354911235</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1248499226810724</v>
+        <v>0.121543439590783</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.002235584146410911</v>
+        <v>-0.002220858460172905</v>
       </c>
       <c r="P240" t="n">
-        <v>0.6172710684838697</v>
+        <v>0.6176163486487164</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1240720206757848</v>
+        <v>0.1240172308055924</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.002082741570741281</v>
+        <v>-0.002346589858105201</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.06457320379643826</v>
+        <v>0.06447542281660061</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1257207397099572</v>
+        <v>0.1250118402110185</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.002105326447688746</v>
+        <v>-0.002234847252938152</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1667478412155884</v>
+        <v>0.1672129150356897</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1268910823546529</v>
+        <v>0.1238546295008658</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.002150779351043291</v>
+        <v>-0.002523834233946943</v>
       </c>
       <c r="M241" t="n">
-        <v>0.3922322680847253</v>
+        <v>0.3936467774425677</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1256554060532084</v>
+        <v>0.1223275908139493</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.002235584146410911</v>
+        <v>-0.002220858460172905</v>
       </c>
       <c r="P241" t="n">
-        <v>0.617033351165277</v>
+        <v>0.6175109450396057</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.124872485325306</v>
+        <v>0.1248173419720801</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.002082741570741281</v>
+        <v>-0.002346589858105201</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06458810367877511</v>
+        <v>0.06447734992012613</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1265266418875851</v>
+        <v>0.1258131981610892</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.002105326447688746</v>
+        <v>-0.00223440032818004</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1667261563385167</v>
+        <v>0.1672284288718291</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1277044867287212</v>
+        <v>0.1246485694335636</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.002150779351043291</v>
+        <v>-0.002523834233946943</v>
       </c>
       <c r="M242" t="n">
-        <v>0.3923379583742693</v>
+        <v>0.3939254709330692</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1264608894253443</v>
+        <v>0.1231117420371156</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.002235584146410911</v>
+        <v>-0.002220858460172905</v>
       </c>
       <c r="P242" t="n">
-        <v>0.6167610335599572</v>
+        <v>0.6177685084831086</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.1256729499748271</v>
+        <v>0.1256174531385678</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.002082741570741281</v>
+        <v>-0.002346589858105201</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.06463009722360749</v>
+        <v>0.06450661036949844</v>
       </c>
       <c r="G243" t="n">
-        <v>0.127332544065213</v>
+        <v>0.1266145561111598</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.002105326447688746</v>
+        <v>-0.002235070715317208</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1666971077689111</v>
+        <v>0.1671560626955857</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1285178911027895</v>
+        <v>0.1254425093662615</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.002150779351043291</v>
+        <v>-0.002523834233946943</v>
       </c>
       <c r="M243" t="n">
-        <v>0.392084445336739</v>
+        <v>0.3942569682407813</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1272663727974803</v>
+        <v>0.123895893260282</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.002235584146410911</v>
+        <v>-0.002220858460172905</v>
       </c>
       <c r="P243" t="n">
-        <v>0.6164546282700873</v>
+        <v>0.6177597903616481</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.1264734146243484</v>
+        <v>0.1264175643050555</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.002082741570741281</v>
+        <v>-0.002346589858105201</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.06461986843654188</v>
+        <v>0.06451038636835038</v>
       </c>
       <c r="G244" t="n">
-        <v>0.128138446242841</v>
+        <v>0.1274159140612304</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.002039513404408806</v>
+        <v>-0.002138008118708684</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1666174754092677</v>
+        <v>0.1671044194779658</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1293312954768578</v>
+        <v>0.1262364492989594</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.002066142215689411</v>
+        <v>-0.002365288912733899</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3921227105474372</v>
+        <v>0.3943689270589301</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1280718561696162</v>
+        <v>0.1246800444834483</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.002171629002023164</v>
+        <v>-0.002173824895262605</v>
       </c>
       <c r="P244" t="n">
-        <v>0.6161146478978445</v>
+        <v>0.6176724342181732</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.1272738792738695</v>
+        <v>0.1272176754715432</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.001982964356158844</v>
+        <v>-0.00220907116923825</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.06466315591129847</v>
+        <v>0.06452385730278952</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1289443484204689</v>
+        <v>0.1282172720113011</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.002039513404408806</v>
+        <v>-0.002138435720332426</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1665740097145268</v>
+        <v>0.1670517812655265</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1301446998509261</v>
+        <v>0.1270303892316572</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.002066142215689411</v>
+        <v>-0.002365288912733899</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3919652000460807</v>
+        <v>0.3947510326594269</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1288773395417522</v>
+        <v>0.1254641957066147</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.002171629002023164</v>
+        <v>-0.002173824895262605</v>
       </c>
       <c r="P245" t="n">
-        <v>0.6154819344980015</v>
+        <v>0.6178379731599579</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.1280743439233907</v>
+        <v>0.1280177866380309</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.001982964356158844</v>
+        <v>-0.00220907116923825</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.06465417895340124</v>
+        <v>0.06453820280156147</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1297502505980968</v>
+        <v>0.1290186299613717</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.002039513404408806</v>
+        <v>-0.002138008118708684</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1664585414932445</v>
+        <v>0.167019846249108</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1309581042249944</v>
+        <v>0.1278243291643551</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.002066142215689411</v>
+        <v>-0.002365288912733899</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3917749262634296</v>
+        <v>0.3949675062648353</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1296828229138881</v>
+        <v>0.126248346929781</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.002171629002023164</v>
+        <v>-0.002173824895262605</v>
       </c>
       <c r="P246" t="n">
-        <v>0.6151629797190039</v>
+        <v>0.6175559008811116</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.1288748085729119</v>
+        <v>0.1288178978045186</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.001982964356158844</v>
+        <v>-0.00220907116923825</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.06468107954623728</v>
+        <v>0.06454459693416252</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1305561527757247</v>
+        <v>0.1298199879114423</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.002039513404408806</v>
+        <v>-0.002138435720332426</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1663577928842537</v>
+        <v>0.1669218298561815</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1317715085990627</v>
+        <v>0.1286182690970529</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.002066142215689411</v>
+        <v>-0.002365288912733899</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3915522600324836</v>
+        <v>0.3952905096096039</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1304883062860241</v>
+        <v>0.1270324981529474</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.002099005535683778</v>
+        <v>-0.002173824895262605</v>
       </c>
       <c r="P247" t="n">
-        <v>0.6148983823086476</v>
+        <v>0.6170888448923222</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.1296752732224331</v>
+        <v>0.1296180089710063</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.001982964356158844</v>
+        <v>-0.00220907116923825</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.06471740729231137</v>
+        <v>0.06456943674587547</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1313620549533527</v>
+        <v>0.1306213458615129</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.001972992394962223</v>
+        <v>-0.002040616586480185</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1662934728174428</v>
+        <v>0.1669095887382854</v>
       </c>
       <c r="K248" t="n">
-        <v>0.132584912973131</v>
+        <v>0.1294122090297508</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.001976906912145528</v>
+        <v>-0.002229008973939534</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3912434532528101</v>
+        <v>0.3955017890716348</v>
       </c>
       <c r="N248" t="n">
-        <v>0.13129378965816</v>
+        <v>0.1278166493761137</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.002099005535683778</v>
+        <v>-0.002108913505008486</v>
       </c>
       <c r="P248" t="n">
-        <v>0.6142563763534117</v>
+        <v>0.6168725555361</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.1304757378719543</v>
+        <v>0.130418120137494</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.001881097584523003</v>
+        <v>-0.002087803143737419</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.06471022316878117</v>
+        <v>0.06458628481830336</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1321679571309806</v>
+        <v>0.1314227038115836</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.001972992394962223</v>
+        <v>-0.002040004523916754</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1662440088586591</v>
+        <v>0.1668238948816438</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1333983173471992</v>
+        <v>0.1302061489624486</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.001976906912145528</v>
+        <v>-0.002229008973939534</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3909030529471151</v>
+        <v>0.3958192787469658</v>
       </c>
       <c r="N249" t="n">
-        <v>0.132099273030296</v>
+        <v>0.12860080059928</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.002099005535683778</v>
+        <v>-0.002108913505008486</v>
       </c>
       <c r="P249" t="n">
-        <v>0.6138426852462673</v>
+        <v>0.6163023086931749</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.1312762025214755</v>
+        <v>0.1312182313039817</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.001881097584523003</v>
+        <v>-0.002087803143737419</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.06474772954065341</v>
+        <v>0.06461273750518544</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1329738593086086</v>
+        <v>0.1322240617616542</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.001972992394962223</v>
+        <v>-0.002040616586480185</v>
       </c>
       <c r="J250" t="n">
-        <v>0.166101419731117</v>
+        <v>0.166754058872338</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1342117217212675</v>
+        <v>0.1310000888951465</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.001976906912145528</v>
+        <v>-0.002229008973939534</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3905314393305064</v>
+        <v>0.3959699100050733</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1329047564024319</v>
+        <v>0.1293849518224464</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.002099005535683778</v>
+        <v>-0.002108913505008486</v>
       </c>
       <c r="P250" t="n">
-        <v>0.6133983946564641</v>
+        <v>0.6159002143246042</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.1320766671709967</v>
+        <v>0.1320183424704694</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.001881097584523003</v>
+        <v>-0.002087803143737419</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.06476816104125502</v>
+        <v>0.06463115486881738</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1337797614862365</v>
+        <v>0.1330254197117248</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.001972992394962223</v>
+        <v>-0.002040616586480185</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1659955271373939</v>
+        <v>0.1665699039740564</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1350251260953358</v>
+        <v>0.1317940288278444</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.001976906912145528</v>
+        <v>-0.002229008973939534</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3902370398777637</v>
+        <v>0.3962263783397398</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1337102397745679</v>
+        <v>0.1301691030456127</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.002099005535683778</v>
+        <v>-0.002108913505008486</v>
       </c>
       <c r="P251" t="n">
-        <v>0.6127514750477121</v>
+        <v>0.615235381303058</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.1328771318205179</v>
+        <v>0.132818453636957</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.001881097584523003</v>
+        <v>-0.002087803143737419</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.0647979795860074</v>
+        <v>0.06465032575278415</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1345856636638644</v>
+        <v>0.1338267776617955</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.001898895855058239</v>
+        <v>-0.001941475558893101</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1658616038458869</v>
+        <v>0.1664889405114067</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1358385304694041</v>
+        <v>0.1325879687605422</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.001883296607163849</v>
+        <v>-0.002103298230045501</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3899660213083105</v>
+        <v>0.3964793176618333</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1345157231467038</v>
+        <v>0.130953254268779</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.002018332865388922</v>
+        <v>-0.002027762677233259</v>
       </c>
       <c r="P252" t="n">
-        <v>0.6121614066957908</v>
+        <v>0.6142239886345628</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.1336775964700391</v>
+        <v>0.1336185648034448</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.001777185098704419</v>
+        <v>-0.001969901751685874</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06480185814058503</v>
+        <v>0.06467022996850996</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1353915658414923</v>
+        <v>0.1346281356118661</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.001898895855058239</v>
+        <v>-0.001941087341424816</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1658076689588114</v>
+        <v>0.1663171337738964</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1366519348434724</v>
+        <v>0.1333819086932401</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.001883296607163849</v>
+        <v>-0.002103298230045501</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3895028429907735</v>
+        <v>0.3968925497806197</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1353212065188398</v>
+        <v>0.1317374054919454</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.002018332865388922</v>
+        <v>-0.002027762677233259</v>
       </c>
       <c r="P253" t="n">
-        <v>0.6114562339532809</v>
+        <v>0.6133870853372149</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.1344780611195603</v>
+        <v>0.1344186759699324</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.001777185098704419</v>
+        <v>-0.001969901751685874</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.0648239298476718</v>
+        <v>0.06469084732741912</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1361974680191202</v>
+        <v>0.1354294935619367</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.001898895855058239</v>
+        <v>-0.001941475558893101</v>
       </c>
       <c r="J254" t="n">
-        <v>0.165618036090234</v>
+        <v>0.1660771434980894</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1374653392175407</v>
+        <v>0.134175848625938</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.001883296607163849</v>
+        <v>-0.002103298230045501</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3890638568399737</v>
+        <v>0.3971378652114504</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1361266898909757</v>
+        <v>0.1325215567151117</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.002018332865388922</v>
+        <v>-0.002027762677233259</v>
       </c>
       <c r="P254" t="n">
-        <v>0.6108088253587594</v>
+        <v>0.612639874431002</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.1352785257690814</v>
+        <v>0.1352187871364201</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.001777185098704419</v>
+        <v>-0.001969901751685874</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.0648553617558477</v>
+        <v>0.06471215764093587</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1370033701967482</v>
+        <v>0.1362308515120073</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.001898895855058239</v>
+        <v>-0.001941475558893101</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1655300962449133</v>
+        <v>0.1658995136664094</v>
       </c>
       <c r="K255" t="n">
-        <v>0.138278743591609</v>
+        <v>0.1349697885586358</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.001883296607163849</v>
+        <v>-0.002103298230045501</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3886493020062335</v>
+        <v>0.3972148300659094</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1369321732631117</v>
+        <v>0.1333057079382781</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.002018332865388922</v>
+        <v>-0.002027762677233259</v>
       </c>
       <c r="P255" t="n">
-        <v>0.6103055125891642</v>
+        <v>0.6116393453893195</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.1360789904186027</v>
+        <v>0.1360188983029078</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.001777185098704419</v>
+        <v>-0.001969901751685874</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.06488731229506776</v>
+        <v>0.06473414072048447</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1378092723743761</v>
+        <v>0.137032209462078</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.001823778671857991</v>
+        <v>-0.001840915472326796</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1653499161720288</v>
+        <v>0.1656123732144392</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1390921479656773</v>
+        <v>0.1357637284913337</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.001785534467496578</v>
+        <v>-0.001980832418313374</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3879903779708922</v>
+        <v>0.397615773732688</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1377376566352476</v>
+        <v>0.1340898591614444</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.001930230109134763</v>
+        <v>-0.001933391355886522</v>
       </c>
       <c r="P256" t="n">
-        <v>0.6096026141982478</v>
+        <v>0.6104743569120807</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.1368794550681238</v>
+        <v>0.1368190094693955</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.001671270741573753</v>
+        <v>-0.001858979585860732</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06488441156509271</v>
+        <v>0.06476560157628589</v>
       </c>
       <c r="G257" t="n">
-        <v>0.138615174552004</v>
+        <v>0.1378335674121486</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.001823778671857991</v>
+        <v>-0.001841467802201482</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1652284250725524</v>
+        <v>0.1653676680777852</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1399055523397456</v>
+        <v>0.1365576684240315</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.001785534467496578</v>
+        <v>-0.001980832418313374</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3875718445174136</v>
+        <v>0.3977931665585674</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1385431400073836</v>
+        <v>0.1348740103846108</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.001930230109134763</v>
+        <v>-0.001933391355886522</v>
       </c>
       <c r="P257" t="n">
-        <v>0.6088728045532589</v>
+        <v>0.6094052627554276</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.137679919717645</v>
+        <v>0.1376191206358832</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.001671270741573753</v>
+        <v>-0.001858979585860732</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06491735676473921</v>
+        <v>0.06478004442337428</v>
       </c>
       <c r="G258" t="n">
-        <v>0.139421076729632</v>
+        <v>0.1386349253622192</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.001823778671857991</v>
+        <v>-0.001841283692243253</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1650795618973045</v>
+        <v>0.1651015323688827</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1407189567138138</v>
+        <v>0.1373516083567294</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.001785534467496578</v>
+        <v>-0.001980832418313374</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3869099990338379</v>
+        <v>0.3979657045749276</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1393486233795195</v>
+        <v>0.1356581616077771</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.001930230109134763</v>
+        <v>-0.001933391355886522</v>
       </c>
       <c r="P258" t="n">
-        <v>0.6078592127541979</v>
+        <v>0.608090323029052</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.1384803843671662</v>
+        <v>0.1384192318023709</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.001671270741573753</v>
+        <v>-0.001858979585860732</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.06494194283684457</v>
+        <v>0.06478626484325505</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1402269789072599</v>
+        <v>0.1394362833122899</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.001823778671857991</v>
+        <v>-0.001740272771203319</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1649034725364681</v>
+        <v>0.1647719073754267</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1415323610878821</v>
+        <v>0.1381455482894272</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.001785534467496578</v>
+        <v>-0.001860990401231201</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3864886375059322</v>
+        <v>0.3981879948750948</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1401541067516555</v>
+        <v>0.1364423128309435</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.001930230109134763</v>
+        <v>-0.001933391355886522</v>
       </c>
       <c r="P259" t="n">
-        <v>0.607334501909771</v>
+        <v>0.6069609026690982</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.1392808490166874</v>
+        <v>0.1392193429688586</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.001671270741573753</v>
+        <v>-0.001858979585860732</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.0649669983743487</v>
+        <v>0.0648283969274826</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1410328810848878</v>
+        <v>0.1402376412623605</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.001741677173038418</v>
+        <v>-0.001740620860566495</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1648076886680519</v>
+        <v>0.1644656505367879</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1423457654619504</v>
+        <v>0.1389394882221251</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.001683843659895923</v>
+        <v>-0.001860990401231201</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3857714609579121</v>
+        <v>0.3983502099447584</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1409595901237914</v>
+        <v>0.1372264640541098</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.00183531638491747</v>
+        <v>-0.001826349590231734</v>
       </c>
       <c r="P260" t="n">
-        <v>0.6062701273867371</v>
+        <v>0.6055047491642979</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.1400813136662086</v>
+        <v>0.1400194541353463</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.001563398356001669</v>
+        <v>-0.001754927586057219</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.06499251224138329</v>
+        <v>0.06484460614426112</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1418387832625158</v>
+        <v>0.1410389992124312</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.001741677173038418</v>
+        <v>-0.001740620860566495</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1646418949975085</v>
+        <v>0.1640764191357641</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1431591698360187</v>
+        <v>0.1397334281548229</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.001683843659895923</v>
+        <v>-0.001860990401231201</v>
       </c>
       <c r="M261" t="n">
-        <v>0.385134365334906</v>
+        <v>0.398726381460686</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1417650734959274</v>
+        <v>0.1380106152772761</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.00183531638491747</v>
+        <v>-0.001826349590231734</v>
       </c>
       <c r="P261" t="n">
-        <v>0.6056947054761161</v>
+        <v>0.6039815217072797</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.1408817783157298</v>
+        <v>0.140819565301834</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.001563398356001669</v>
+        <v>-0.001754927586057219</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.06502732555308907</v>
+        <v>0.06487019930059468</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1426446854401437</v>
+        <v>0.1418403571625018</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.001741677173038418</v>
+        <v>-0.001740794905248084</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1644277847190069</v>
+        <v>0.1637336605344641</v>
       </c>
       <c r="K262" t="n">
-        <v>0.143972574210087</v>
+        <v>0.1405273680875208</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.001683843659895923</v>
+        <v>-0.001860990401231201</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3844169980790022</v>
+        <v>0.3988226047428711</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1425705568680633</v>
+        <v>0.1387947665004425</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.00183531638491747</v>
+        <v>-0.001826349590231734</v>
       </c>
       <c r="P262" t="n">
-        <v>0.6047525618839013</v>
+        <v>0.6025639472491481</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.141682242965251</v>
+        <v>0.1416196764683217</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.001563398356001669</v>
+        <v>-0.001754927586057219</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.06504487042057061</v>
+        <v>0.06491400392191828</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1434505876177716</v>
+        <v>0.1426417151125724</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.001652347544804506</v>
+        <v>-0.001740794905248084</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1642726906384302</v>
+        <v>0.1633099408823198</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1447859785841553</v>
+        <v>0.1413213080202186</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.001683843659895923</v>
+        <v>-0.001860990401231201</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3837800710825857</v>
+        <v>0.399132481656667</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1433760402401993</v>
+        <v>0.1395789177236088</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.00183531638491747</v>
+        <v>-0.001826349590231734</v>
       </c>
       <c r="P263" t="n">
-        <v>0.6037013800420948</v>
+        <v>0.6009980427824594</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.1424827076147722</v>
+        <v>0.1424197876348094</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.001563398356001669</v>
+        <v>-0.001754927586057219</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.06508940760683657</v>
+        <v>0.06494064500457063</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1442564897953996</v>
+        <v>0.143443073062643</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001652347544804506</v>
+        <v>-0.001638798297354249</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1640481118705566</v>
+        <v>0.1629555641922234</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1455993829582236</v>
+        <v>0.1421152479529165</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001578447351114089</v>
+        <v>-0.001744862894935654</v>
       </c>
       <c r="M264" t="n">
-        <v>0.383063613970967</v>
+        <v>0.3992166620941818</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1441815236123352</v>
+        <v>0.1403630689467752</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.001734210810733208</v>
+        <v>-0.001708591156114603</v>
       </c>
       <c r="P264" t="n">
-        <v>0.6028831038863907</v>
+        <v>0.5992015606106005</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1432831722642934</v>
+        <v>0.1432198988012971</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.001453611784858827</v>
+        <v>-0.00166037063730131</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06509892828746</v>
+        <v>0.06496777720517517</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1450623919730275</v>
+        <v>0.1442444310127137</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001652347544804506</v>
+        <v>-0.001638962193573606</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1639254224212195</v>
+        <v>0.1625434293063422</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1464127873322918</v>
+        <v>0.1429091878856144</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001578447351114089</v>
+        <v>-0.001744862894935654</v>
       </c>
       <c r="M265" t="n">
-        <v>0.3822682124030515</v>
+        <v>0.3993494060570451</v>
       </c>
       <c r="N265" t="n">
-        <v>0.1449870069844712</v>
+        <v>0.1411472201699415</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.001734210810733208</v>
+        <v>-0.001708591156114603</v>
       </c>
       <c r="P265" t="n">
-        <v>0.6021270345079686</v>
+        <v>0.5976015239238035</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1440836369138146</v>
+        <v>0.1440200099677847</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.001453611784858827</v>
+        <v>-0.00166037063730131</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.06513542982447743</v>
+        <v>0.0649688358169043</v>
       </c>
       <c r="G266" t="n">
-        <v>0.1458682941506554</v>
+        <v>0.1450457889627843</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001652347544804506</v>
+        <v>-0.001638798297354249</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1636907479620403</v>
+        <v>0.1620746809079516</v>
       </c>
       <c r="K266" t="n">
-        <v>0.1472261917063601</v>
+        <v>0.1437031278183122</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001578447351114089</v>
+        <v>-0.001744862894935654</v>
       </c>
       <c r="M266" t="n">
-        <v>0.381500778177694</v>
+        <v>0.399640475695501</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1457924903566071</v>
+        <v>0.1419313713931079</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.001734210810733208</v>
+        <v>-0.001708591156114603</v>
       </c>
       <c r="P266" t="n">
-        <v>0.6011780906742895</v>
+        <v>0.5959448527347581</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.1448841015633358</v>
+        <v>0.1448201211342725</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.001453611784858827</v>
+        <v>-0.00166037063730131</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.06516346261845929</v>
+        <v>0.06500573224405672</v>
       </c>
       <c r="G267" t="n">
-        <v>0.1466741963282834</v>
+        <v>0.1458471469128549</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001652347544804506</v>
+        <v>-0.001639289986012321</v>
       </c>
       <c r="J267" t="n">
-        <v>0.1634725768811636</v>
+        <v>0.1616351428762213</v>
       </c>
       <c r="K267" t="n">
-        <v>0.1480395960804284</v>
+        <v>0.1444970677510101</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001578447351114089</v>
+        <v>-0.001744862894935654</v>
       </c>
       <c r="M267" t="n">
-        <v>0.3807614518004494</v>
+        <v>0.3998149368765532</v>
       </c>
       <c r="N267" t="n">
-        <v>0.1465979737287431</v>
+        <v>0.1427155226162742</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001627532504578147</v>
+        <v>-0.001708591156114603</v>
       </c>
       <c r="P267" t="n">
-        <v>0.6001223578728935</v>
+        <v>0.5940649288403232</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.145684566212857</v>
+        <v>0.1456202323007601</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.001453611784858827</v>
+        <v>-0.00166037063730131</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.06519187582893125</v>
+        <v>0.06503421095920837</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1474800985059113</v>
+        <v>0.1466485048629256</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.001565775508315904</v>
+        <v>-0.00153651928872987</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1633136112968546</v>
+        <v>0.1612465695013939</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1488530004544967</v>
+        <v>0.145291007683708</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.00146956870790328</v>
+        <v>-0.00163081794760028</v>
       </c>
       <c r="M268" t="n">
-        <v>0.3799973644315481</v>
+        <v>0.4000374500246427</v>
       </c>
       <c r="N268" t="n">
-        <v>0.147403457100879</v>
+        <v>0.1434996738394405</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.001627532504578147</v>
+        <v>-0.001581341783074297</v>
       </c>
       <c r="P268" t="n">
-        <v>0.5992153599121989</v>
+        <v>0.5923019433206119</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.1464850308623781</v>
+        <v>0.1464203434672478</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.00134195487101589</v>
+        <v>-0.001577460309975873</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.06522952990126389</v>
+        <v>0.06506309994787994</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1482860006835392</v>
+        <v>0.1474498628129962</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001565775508315904</v>
+        <v>-0.001536672940658743</v>
       </c>
       <c r="J269" t="n">
-        <v>0.1631285337712829</v>
+        <v>0.1607408483996068</v>
       </c>
       <c r="K269" t="n">
-        <v>0.149666404828565</v>
+        <v>0.1460849476164058</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.00146956870790328</v>
+        <v>-0.00163081794760028</v>
       </c>
       <c r="M269" t="n">
-        <v>0.3792088795239791</v>
+        <v>0.400087814927607</v>
       </c>
       <c r="N269" t="n">
-        <v>0.148208940473015</v>
+        <v>0.1442838250626069</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.001627532504578147</v>
+        <v>-0.001581341783074297</v>
       </c>
       <c r="P269" t="n">
-        <v>0.5981177948889824</v>
+        <v>0.5902368239748284</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.1472854955118993</v>
+        <v>0.1472204546337355</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.00134195487101589</v>
+        <v>-0.001577460309975873</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.06524979895141787</v>
+        <v>0.06510123866509551</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1490919028611671</v>
+        <v>0.1482512207630668</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001565775508315904</v>
+        <v>-0.001536672940658743</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1628962185662055</v>
+        <v>0.1602457386391819</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1504798092026333</v>
+        <v>0.1468788875491037</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.00146956870790328</v>
+        <v>-0.00163081794760028</v>
       </c>
       <c r="M270" t="n">
-        <v>0.3783435368901037</v>
+        <v>0.400240798898083</v>
       </c>
       <c r="N270" t="n">
-        <v>0.149014423845151</v>
+        <v>0.1450679762857732</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.001627532504578147</v>
+        <v>-0.001581341783074297</v>
       </c>
       <c r="P270" t="n">
-        <v>0.5970001890005118</v>
+        <v>0.5882927059498404</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.1480859601614205</v>
+        <v>0.1480205658002232</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.00134195487101589</v>
+        <v>-0.001577460309975873</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.06526153170028211</v>
+        <v>0.065139753212512</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1498978050387951</v>
+        <v>0.1490525787131375</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001565775508315904</v>
+        <v>-0.001536365636800997</v>
       </c>
       <c r="J271" t="n">
-        <v>0.1626594267654009</v>
+        <v>0.1597619986031178</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1512932135767016</v>
+        <v>0.1476728274818015</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.00146956870790328</v>
+        <v>-0.00163081794760028</v>
       </c>
       <c r="M271" t="n">
-        <v>0.3773492319535298</v>
+        <v>0.4003862032731709</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1498199072172869</v>
+        <v>0.1458521275089396</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.001627532504578147</v>
+        <v>-0.001581341783074297</v>
       </c>
       <c r="P271" t="n">
-        <v>0.5960322502993336</v>
+        <v>0.5865542728067834</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1488864248109417</v>
+        <v>0.1488206769667109</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.00134195487101589</v>
+        <v>-0.001577460309975873</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.06531799052272791</v>
+        <v>0.06516089229579095</v>
       </c>
       <c r="G272" t="n">
-        <v>0.150703707216423</v>
+        <v>0.1498539366632081</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001472726655173972</v>
+        <v>-0.001433606329578793</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1624819928072094</v>
+        <v>0.1592903806717114</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1521066179507699</v>
+        <v>0.1484667674144994</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001357430897015704</v>
+        <v>-0.001519909488647262</v>
       </c>
       <c r="M272" t="n">
-        <v>0.3764374575949102</v>
+        <v>0.4005788672643653</v>
       </c>
       <c r="N272" t="n">
-        <v>0.1506253905894228</v>
+        <v>0.1466362787321059</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.001515900584448455</v>
+        <v>-0.001446219779372549</v>
       </c>
       <c r="P272" t="n">
-        <v>0.5948759036893062</v>
+        <v>0.584437858141153</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1496868894604629</v>
+        <v>0.1496207881331986</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.00122847145734352</v>
+        <v>-0.001507537812867826</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.06534814177544425</v>
+        <v>0.06519122354579297</v>
       </c>
       <c r="G273" t="n">
-        <v>0.1515096093940509</v>
+        <v>0.1506552946132787</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001472726655173972</v>
+        <v>-0.001433606329578793</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1621940452102607</v>
+        <v>0.1587689951578307</v>
       </c>
       <c r="K273" t="n">
-        <v>0.1529200223248381</v>
+        <v>0.1492607073471972</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001357430897015704</v>
+        <v>-0.001519909488647262</v>
       </c>
       <c r="M273" t="n">
-        <v>0.3755029369952303</v>
+        <v>0.4007084858992637</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1514308739615588</v>
+        <v>0.1474204299552722</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.001515900584448455</v>
+        <v>-0.001446219779372549</v>
       </c>
       <c r="P273" t="n">
-        <v>0.5939542030559596</v>
+        <v>0.5823642648093607</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1504873541099841</v>
+        <v>0.1504208992996863</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.00122847145734352</v>
+        <v>-0.001507537812867826</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.0653519471929751</v>
+        <v>0.06523073587038886</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1523155115716789</v>
+        <v>0.1514566525633494</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.001472726655173972</v>
+        <v>-0.001433749675877121</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1620292108615742</v>
+        <v>0.1583031830737144</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1537334266989064</v>
+        <v>0.1500546472798951</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001357430897015704</v>
+        <v>-0.001519909488647262</v>
       </c>
       <c r="M274" t="n">
-        <v>0.3746509501215203</v>
+        <v>0.4008849620875951</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1522363573336947</v>
+        <v>0.1482045811784386</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.001515900584448455</v>
+        <v>-0.001446219779372549</v>
       </c>
       <c r="P274" t="n">
-        <v>0.5928453302248111</v>
+        <v>0.5802520655609341</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.1512878187595053</v>
+        <v>0.151221010466174</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.00122847145734352</v>
+        <v>-0.001507537812867826</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.06540048445747824</v>
+        <v>0.06526166876782348</v>
       </c>
       <c r="G275" t="n">
-        <v>0.1531214137493068</v>
+        <v>0.15225801051342</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001472726655173972</v>
+        <v>-0.001433749675877121</v>
       </c>
       <c r="J275" t="n">
-        <v>0.1617965972826893</v>
+        <v>0.1577687202674888</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1545468310729747</v>
+        <v>0.1508485872125929</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001357430897015704</v>
+        <v>-0.001519909488647262</v>
       </c>
       <c r="M275" t="n">
-        <v>0.3735147833940691</v>
+        <v>0.4009979389720532</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1530418407058307</v>
+        <v>0.1489887324016049</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.001515900584448455</v>
+        <v>-0.001446219779372549</v>
       </c>
       <c r="P275" t="n">
-        <v>0.5916346179324863</v>
+        <v>0.578020669777964</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1520882834090265</v>
+        <v>0.1520211216326617</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.00122847145734352</v>
+        <v>-0.001507537812867826</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.06541375473168493</v>
+        <v>0.06529287068667192</v>
       </c>
       <c r="G276" t="n">
-        <v>0.1539273159269347</v>
+        <v>0.1530593684634906</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.001378189025948069</v>
+        <v>-0.001329789584618214</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1615388185485519</v>
+        <v>0.1572913179234311</v>
       </c>
       <c r="K276" t="n">
-        <v>0.155360235447043</v>
+        <v>0.1516425271452908</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001242257085203566</v>
+        <v>-0.001412217743251103</v>
       </c>
       <c r="M276" t="n">
-        <v>0.3726188619988388</v>
+        <v>0.4009369710609856</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1538473240779666</v>
+        <v>0.1497728836247713</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.001399934168340299</v>
+        <v>-0.001305369817103355</v>
       </c>
       <c r="P276" t="n">
-        <v>0.5905750439200286</v>
+        <v>0.5760032789215818</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.1528887480585477</v>
+        <v>0.1528212327991494</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001113205386712378</v>
+        <v>-0.001452608503019008</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.06545398006153498</v>
+        <v>0.06530655931711871</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1547332181045627</v>
+        <v>0.1538607264135613</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.001378189025948069</v>
+        <v>-0.001330055569133589</v>
       </c>
       <c r="J277" t="n">
-        <v>0.1612771757856422</v>
+        <v>0.1567680407411892</v>
       </c>
       <c r="K277" t="n">
-        <v>0.1561736398211113</v>
+        <v>0.1524364670779887</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001242257085203566</v>
+        <v>-0.001412217743251103</v>
       </c>
       <c r="M277" t="n">
-        <v>0.3715448073628602</v>
+        <v>0.4011426292529561</v>
       </c>
       <c r="N277" t="n">
-        <v>0.1546528074501026</v>
+        <v>0.1505570348479376</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.001399934168340299</v>
+        <v>-0.001305369817103355</v>
       </c>
       <c r="P277" t="n">
-        <v>0.5893307309701198</v>
+        <v>0.573623584448088</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.1536892127080689</v>
+        <v>0.1536213439656371</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001113205386712378</v>
+        <v>-0.001452608503019008</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.06548558174273533</v>
+        <v>0.06532934814548451</v>
       </c>
       <c r="G278" t="n">
-        <v>0.1555391202821906</v>
+        <v>0.1546620843636319</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.001378189025948069</v>
+        <v>-0.001330188561391277</v>
       </c>
       <c r="J278" t="n">
-        <v>0.1610117713985942</v>
+        <v>0.1562001001411131</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1569870441951796</v>
+        <v>0.1532304070106865</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001242257085203566</v>
+        <v>-0.001412217743251103</v>
       </c>
       <c r="M278" t="n">
-        <v>0.3706062173639818</v>
+        <v>0.4012290163383511</v>
       </c>
       <c r="N278" t="n">
-        <v>0.1554582908222385</v>
+        <v>0.1513411860711039</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.001399934168340299</v>
+        <v>-0.001305369817103355</v>
       </c>
       <c r="P278" t="n">
-        <v>0.5880705066717781</v>
+        <v>0.571379300452208</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1544896773575901</v>
+        <v>0.1544214551321248</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001113205386712378</v>
+        <v>-0.001452608503019008</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.06551744130783647</v>
+        <v>0.06537011383563152</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1563450224598185</v>
+        <v>0.1554634423137025</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.001378189025948069</v>
+        <v>-0.001329789584618214</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1608270216974348</v>
+        <v>0.155712113879612</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1578004485692479</v>
+        <v>0.1540243469433844</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.001242257085203566</v>
+        <v>-0.001412217743251103</v>
       </c>
       <c r="M279" t="n">
-        <v>0.3694908487208359</v>
+        <v>0.4013612426391576</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1562637741943745</v>
+        <v>0.1521253372942703</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.001399934168340299</v>
+        <v>-0.001305369817103355</v>
       </c>
       <c r="P279" t="n">
-        <v>0.5867948883164442</v>
+        <v>0.5691893812866812</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1552901420071112</v>
+        <v>0.1552215662986124</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001113205386712378</v>
+        <v>-0.001452608503019008</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.06554064226252916</v>
+        <v>0.06541107414228528</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1571509246374465</v>
+        <v>0.1562648002637731</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.001278676690060405</v>
+        <v>-0.001225372459194456</v>
       </c>
       <c r="J280" t="n">
-        <v>0.1605753537917067</v>
+        <v>0.1551607455697712</v>
       </c>
       <c r="K280" t="n">
-        <v>0.1586138529433162</v>
+        <v>0.1548182868760822</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.001124270439219071</v>
+        <v>-0.001307259802487858</v>
       </c>
       <c r="M280" t="n">
-        <v>0.3683555417909856</v>
+        <v>0.4014288515251138</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1570692575665105</v>
+        <v>0.1529094885174366</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.001280252374249847</v>
+        <v>-0.001159546792974946</v>
       </c>
       <c r="P280" t="n">
-        <v>0.585587960143289</v>
+        <v>0.566973667999479</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1560906066566324</v>
+        <v>0.1560216774651002</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.0009962005019931266</v>
+        <v>-0.001414511700407524</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.06559079813890138</v>
+        <v>0.06542552739390943</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1579568268150744</v>
+        <v>0.1570661582138438</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.001278676690060405</v>
+        <v>-0.001225004920964344</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1602781231807824</v>
+        <v>0.1546292141220828</v>
       </c>
       <c r="K281" t="n">
-        <v>0.1594272573173845</v>
+        <v>0.1556122268087801</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.001124270439219071</v>
+        <v>-0.001307259802487858</v>
       </c>
       <c r="M281" t="n">
-        <v>0.3672006733414814</v>
+        <v>0.4013764718791107</v>
       </c>
       <c r="N281" t="n">
-        <v>0.1578747409386464</v>
+        <v>0.153693639740603</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.001280252374249847</v>
+        <v>-0.001159546792974946</v>
       </c>
       <c r="P281" t="n">
-        <v>0.5844498725373262</v>
+        <v>0.5645714668779337</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1568910713061537</v>
+        <v>0.1568217886315878</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.0009962005019931266</v>
+        <v>-0.001414511700407524</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.06563227964640882</v>
+        <v>0.06545790972308826</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1587627289927023</v>
+        <v>0.1578675161639144</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.001278676690060405</v>
+        <v>-0.001225249946451085</v>
       </c>
       <c r="J282" t="n">
-        <v>0.160019594081357</v>
+        <v>0.1540978500451515</v>
       </c>
       <c r="K282" t="n">
-        <v>0.1602406616914528</v>
+        <v>0.1564061667414779</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.001124270439219071</v>
+        <v>-0.001307259802487858</v>
       </c>
       <c r="M282" t="n">
-        <v>0.3661298459602623</v>
+        <v>0.401369289042203</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1586802243107824</v>
+        <v>0.1544777909637693</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.001280252374249847</v>
+        <v>-0.001159546792974946</v>
       </c>
       <c r="P282" t="n">
-        <v>0.5833807672225407</v>
+        <v>0.562311247344653</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1576915359556748</v>
+        <v>0.1576218997980755</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.0009962005019931266</v>
+        <v>-0.001414511700407524</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.06564723568988279</v>
+        <v>0.06549932003690422</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1595686311703302</v>
+        <v>0.158668874113985</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.00120266856613631</v>
+        <v>-0.001146501856312572</v>
       </c>
       <c r="J283" t="n">
-        <v>0.1597577610853565</v>
+        <v>0.1535471962259276</v>
       </c>
       <c r="K283" t="n">
-        <v>0.161054066065521</v>
+        <v>0.1572001066741758</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.001034068781054465</v>
+        <v>-0.001230295942041302</v>
       </c>
       <c r="M283" t="n">
-        <v>0.3649882546866018</v>
+        <v>0.4014622534562809</v>
       </c>
       <c r="N283" t="n">
-        <v>0.1594857076829183</v>
+        <v>0.1552619421869357</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.001188425250050696</v>
+        <v>-0.00104802106110062</v>
       </c>
       <c r="P283" t="n">
-        <v>0.5819647953767009</v>
+        <v>0.5597889162812092</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.158492000605196</v>
+        <v>0.1584220109645632</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.0009073321159352491</v>
+        <v>-0.001397812306827335</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.06568021763646323</v>
+        <v>0.06554084433927719</v>
       </c>
       <c r="G284" t="n">
-        <v>0.1603745333479582</v>
+        <v>0.1594702320640557</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.00120266856613631</v>
+        <v>-0.001146501856312572</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1594927254341356</v>
+        <v>0.1530595163211056</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1618674704395893</v>
+        <v>0.1579940466068737</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.001034068781054465</v>
+        <v>-0.001230295942041302</v>
       </c>
       <c r="M284" t="n">
-        <v>0.3638793783187575</v>
+        <v>0.4014345756494432</v>
       </c>
       <c r="N284" t="n">
-        <v>0.1602911910550542</v>
+        <v>0.156046093410102</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.001188425250050696</v>
+        <v>-0.00104802106110062</v>
       </c>
       <c r="P284" t="n">
-        <v>0.5807854682139194</v>
+        <v>0.5575740077093497</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1592924652547172</v>
+        <v>0.1592221221310509</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.0009073321159352491</v>
+        <v>-0.001397812306827335</v>
       </c>
     </row>
   </sheetData>

--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1069.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1069.xlsx
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0007512735218178952</v>
+        <v>0.000699715535026471</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0007434477559656255</v>
+        <v>0.0007842965337659346</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,37 +7591,37 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03365234414948513</v>
+        <v>0.03334161564966572</v>
       </c>
       <c r="G87" t="n">
-        <v>0.001602715900141263</v>
+        <v>0.001568937141965341</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.06134415267726807</v>
+        <v>0.06208193811240377</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001587879865395715</v>
+        <v>0.00161075247743412</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1670330638294432</v>
+        <v>0.1961548390765611</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001568302446332683</v>
+        <v>0.002001600244182106</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0.279752361619419</v>
+        <v>0.2675977061173831</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001600222332975386</v>
+        <v>0.001580428469250413</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03543726688837481</v>
+        <v>0.0347923679506318</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002404073850211895</v>
+        <v>0.002353405712948012</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.002157493964133225</v>
+        <v>-0.002739808081933194</v>
       </c>
       <c r="J88" t="n">
         <v>0.08342542391156797</v>
@@ -7658,25 +7658,25 @@
         <v>0.002604942656296522</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.002257090612393404</v>
+        <v>-0.001658622491577556</v>
       </c>
       <c r="M88" t="n">
-        <v>0.1961548390765611</v>
+        <v>0.2020203956519168</v>
       </c>
       <c r="N88" t="n">
-        <v>0.002149086577963945</v>
+        <v>0.002454974702627703</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.004873727560288656</v>
+        <v>-0.002680979583884655</v>
       </c>
       <c r="P88" t="n">
         <v>0.3088842542415543</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002009343924603743</v>
+        <v>0.002119747436944609</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.002885574528865949</v>
+        <v>-0.001217444943631271</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03706484955919814</v>
+        <v>0.03610812467683577</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003205431800282526</v>
+        <v>0.003137874283930682</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.002157493964133225</v>
+        <v>-0.00273926017510749</v>
       </c>
       <c r="J89" t="n">
-        <v>0.08635029211581045</v>
+        <v>0.08662622074017352</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003175759730791431</v>
+        <v>0.003221504954868241</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.002257090612393404</v>
+        <v>-0.001658622491577556</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2093082690440415</v>
+        <v>0.2119261238145974</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003136604892665367</v>
+        <v>0.003273299603503603</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.004873727560288656</v>
+        <v>-0.002680979583884655</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3337886176688828</v>
+        <v>0.3291791138398685</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.003200444665950772</v>
+        <v>0.003160856938500826</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.002885574528865949</v>
+        <v>-0.001217444943631271</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.03855389965264025</v>
+        <v>0.03731193843288653</v>
       </c>
       <c r="G90" t="n">
-        <v>0.004006789750353158</v>
+        <v>0.003922342854913352</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.002157709713529638</v>
+        <v>-0.002740082035346046</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09020231033629238</v>
+        <v>0.09053863163272936</v>
       </c>
       <c r="K90" t="n">
-        <v>0.003969699663489288</v>
+        <v>0.0040268811935853</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.002257090612393404</v>
+        <v>-0.001658622491577556</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2189323752019084</v>
+        <v>0.2211457329954759</v>
       </c>
       <c r="N90" t="n">
-        <v>0.003920756115831709</v>
+        <v>0.004091624504379505</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.004873727560288656</v>
+        <v>-0.002680979583884655</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3490623190342573</v>
+        <v>0.3430811619912538</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.004000555832438466</v>
+        <v>0.003951071173126032</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.002885574528865949</v>
+        <v>-0.001217444943631271</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.03989277243833619</v>
+        <v>0.03842218974912194</v>
       </c>
       <c r="G91" t="n">
-        <v>0.00480814770042379</v>
+        <v>0.004706811425896023</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.002157278214736812</v>
+        <v>-0.002740082035346046</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09372033529168587</v>
+        <v>0.09415985185672433</v>
       </c>
       <c r="K91" t="n">
-        <v>0.004763639596187146</v>
+        <v>0.00483225743230236</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.002257090612393404</v>
+        <v>-0.001658622491577556</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2277128170808427</v>
+        <v>0.2295380510417082</v>
       </c>
       <c r="N91" t="n">
-        <v>0.00470490733899805</v>
+        <v>0.004909949405255405</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.004873727560288656</v>
+        <v>-0.002680979583884655</v>
       </c>
       <c r="P91" t="n">
-        <v>0.3630978645478847</v>
+        <v>0.3560026759407314</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004800666998926158</v>
+        <v>0.004741285407751239</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.002885574528865949</v>
+        <v>-0.001217444943631271</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04113944326373598</v>
+        <v>0.03942030561128605</v>
       </c>
       <c r="G92" t="n">
-        <v>0.00560950565049442</v>
+        <v>0.005491279996878694</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.002889295960830347</v>
+        <v>-0.002606164241573581</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09698953369793155</v>
+        <v>0.09751880010589827</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005557579528885003</v>
+        <v>0.005637633671019421</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.002251513757832807</v>
+        <v>-0.001667648421138832</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2357622938420855</v>
+        <v>0.2371775558613367</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005489058562164392</v>
+        <v>0.005728274306131306</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.004565521719550076</v>
+        <v>-0.003154498634052008</v>
       </c>
       <c r="P92" t="n">
-        <v>0.3760124865766379</v>
+        <v>0.36788266536926</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005600778165413852</v>
+        <v>0.005531499642376446</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.0028030042495079</v>
+        <v>-0.001463235752067516</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.04225704116340462</v>
+        <v>0.04033082564592791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006410863600565052</v>
+        <v>0.006275748567861364</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.002889873820022513</v>
+        <v>-0.002606164241573581</v>
       </c>
       <c r="J93" t="n">
-        <v>0.09998156728409317</v>
+        <v>0.1006155105328016</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006351519461582861</v>
+        <v>0.006443009909736481</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.002251513757832807</v>
+        <v>-0.001667648421138832</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2430823275734269</v>
+        <v>0.2441423675635903</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006273209785330734</v>
+        <v>0.006546599207007207</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.004565521719550076</v>
+        <v>-0.003154498634052008</v>
       </c>
       <c r="P93" t="n">
-        <v>0.3878650327871529</v>
+        <v>0.3789646158525667</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.006400889331901544</v>
+        <v>0.006321713877001651</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.0028030042495079</v>
+        <v>-0.001463235752067516</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04327229854254754</v>
+        <v>0.04115998722160831</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007212221550635684</v>
+        <v>0.007060217138844034</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.002889873820022513</v>
+        <v>-0.002606685526550393</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1026950438503749</v>
+        <v>0.1034180514050418</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007145459394280719</v>
+        <v>0.00724838614845354</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.002251513757832807</v>
+        <v>-0.001667648421138832</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2498716524630996</v>
+        <v>0.250593645152775</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007057361008497074</v>
+        <v>0.007364924107883108</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.004565521719550076</v>
+        <v>-0.003154498634052008</v>
       </c>
       <c r="P94" t="n">
-        <v>0.3987143508460655</v>
+        <v>0.3889290467346227</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007201000498389238</v>
+        <v>0.007111928111626858</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.0028030042495079</v>
+        <v>-0.001463235752067516</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04416579500018916</v>
+        <v>0.04188781684769227</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008013579500706317</v>
+        <v>0.007844685709826705</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.002889007031234264</v>
+        <v>-0.0026069461690388</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1052363674153572</v>
+        <v>0.1060005902233069</v>
       </c>
       <c r="K95" t="n">
-        <v>0.007939399326978576</v>
+        <v>0.0080537623871706</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.002251513757832807</v>
+        <v>-0.001667648421138832</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2558926473604057</v>
+        <v>0.2562931337592233</v>
       </c>
       <c r="N95" t="n">
-        <v>0.007841512231663418</v>
+        <v>0.008183249008759009</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.004565521719550076</v>
+        <v>-0.003154498634052008</v>
       </c>
       <c r="P95" t="n">
-        <v>0.4086851503488541</v>
+        <v>0.3978866144036156</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.008001111664876931</v>
+        <v>0.007902142346252064</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.0028030042495079</v>
+        <v>-0.001463235752067516</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.04498523585770997</v>
+        <v>0.04256590125905887</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008814937450776947</v>
+        <v>0.008629154280809376</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.003431502163087848</v>
+        <v>-0.002401802652396704</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1075129383259295</v>
+        <v>0.1084098224535342</v>
       </c>
       <c r="K96" t="n">
-        <v>0.008733339259676433</v>
+        <v>0.00885913862588766</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.002240402338663413</v>
+        <v>-0.001672271936171018</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2613848709183923</v>
+        <v>0.2615631168882956</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008625663454829758</v>
+        <v>0.00900157390963491</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.003996325727410999</v>
+        <v>-0.00350384462339711</v>
       </c>
       <c r="P96" t="n">
-        <v>0.4177722209142638</v>
+        <v>0.4061496712670586</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.008801222831364624</v>
+        <v>0.00869235658087727</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.002655762255341529</v>
+        <v>-0.001913558551764278</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.0456971777172597</v>
+        <v>0.04314763396485595</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009616295400847579</v>
+        <v>0.009413622851792047</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.003431502163087848</v>
+        <v>-0.002401082255680329</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1096332904932393</v>
+        <v>0.1105495367726908</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009527279192374291</v>
+        <v>0.00966451486460472</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.002240402338663413</v>
+        <v>-0.001672271936171018</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2663909755783302</v>
+        <v>0.2663656946582127</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009409814677996099</v>
+        <v>0.00981989881051081</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.003996325727410999</v>
+        <v>-0.00350384462339711</v>
       </c>
       <c r="P97" t="n">
-        <v>0.4257638296382732</v>
+        <v>0.4137780255321933</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009601333997852316</v>
+        <v>0.009482570815502479</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.002655762255341529</v>
+        <v>-0.001913558551764278</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04634331705237742</v>
+        <v>0.04368533492111014</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01041765335091821</v>
+        <v>0.01019809142277472</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.003432188463520466</v>
+        <v>-0.002401082255680329</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1114847672709019</v>
+        <v>0.1125451909616472</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01032121912507215</v>
+        <v>0.01046989110332178</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.002240402338663413</v>
+        <v>-0.001672271936171018</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2710374802176516</v>
+        <v>0.2704904768494828</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01019396590116244</v>
+        <v>0.01063822371138671</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.003996325727410999</v>
+        <v>-0.00350384462339711</v>
       </c>
       <c r="P98" t="n">
-        <v>0.4332562948984157</v>
+        <v>0.4203612865934369</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01040144516434001</v>
+        <v>0.01027278505012768</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.002655762255341529</v>
+        <v>-0.001913558551764278</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04693845990356098</v>
+        <v>0.04417189639000241</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01121901130098884</v>
+        <v>0.01098255999375739</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.003431159012871539</v>
+        <v>-0.002401562520157912</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1132426787438844</v>
+        <v>0.1143305095384445</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01111515905777001</v>
+        <v>0.01127526734203884</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.002240402338663413</v>
+        <v>-0.001672271936171018</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2751138576866279</v>
+        <v>0.2743966272229263</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01097811712432878</v>
+        <v>0.01145654861226261</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.003996325727410999</v>
+        <v>-0.003746535884072766</v>
       </c>
       <c r="P99" t="n">
-        <v>0.4400411844175779</v>
+        <v>0.4264859541717902</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.0112015563308277</v>
+        <v>0.01106299928475289</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.002655762255341529</v>
+        <v>-0.001913558551764278</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0474407822480301</v>
+        <v>0.04457254204224442</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01202036925105947</v>
+        <v>0.01176702856474006</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.00380688076839336</v>
+        <v>-0.002160809532462349</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1148089420543986</v>
+        <v>0.1159850214344558</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01190909899046786</v>
+        <v>0.0120806435807559</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.002226020829244167</v>
+        <v>-0.001674588958355021</v>
       </c>
       <c r="M100" t="n">
-        <v>0.278785872174083</v>
+        <v>0.2778737800385234</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01176226834749513</v>
+        <v>0.01227487351313851</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.003310916498961333</v>
+        <v>-0.003746535884072766</v>
       </c>
       <c r="P100" t="n">
-        <v>0.4461771449349838</v>
+        <v>0.4320077685996139</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.0120016674973154</v>
+        <v>0.0118532135193781</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.002477731516683809</v>
+        <v>-0.002462613645278174</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0478998979196439</v>
+        <v>0.04496110378006855</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0128217272011301</v>
+        <v>0.01255149713572273</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.003807642220692269</v>
+        <v>-0.002160809532462349</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1162306352155685</v>
+        <v>0.1174568434960954</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01270303892316572</v>
+        <v>0.01288601981947296</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.002226020829244167</v>
+        <v>-0.001674588958355021</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2819647556962407</v>
+        <v>0.2808323334509963</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01254641957066147</v>
+        <v>0.01309319841401441</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.003310916498961333</v>
+        <v>-0.003746535884072766</v>
       </c>
       <c r="P101" t="n">
-        <v>0.4514422417717199</v>
+        <v>0.4369815637982107</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01280177866380309</v>
+        <v>0.0126434277540033</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.002477731516683809</v>
+        <v>-0.002462613645278174</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04830190181532078</v>
+        <v>0.0452890502349515</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01362308515120074</v>
+        <v>0.0133359657067054</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.003807261494542814</v>
+        <v>-0.002160377456970955</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1175225360570453</v>
+        <v>0.1188437034658913</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01349697885586358</v>
+        <v>0.01369139605819002</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.002226020829244167</v>
+        <v>-0.001674588958355021</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2849496518717593</v>
+        <v>0.2837433180379504</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01333057079382781</v>
+        <v>0.01391152331489031</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.003310916498961333</v>
+        <v>-0.003746535884072766</v>
       </c>
       <c r="P102" t="n">
-        <v>0.4564544018560137</v>
+        <v>0.4416004799542472</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.01360188983029078</v>
+        <v>0.01343364198862851</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.002477731516683809</v>
+        <v>-0.002462613645278174</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04866126392208471</v>
+        <v>0.04559660022298456</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01442444310127137</v>
+        <v>0.01412043427768807</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.00380688076839336</v>
+        <v>-0.002160377456970955</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1187162906638955</v>
+        <v>0.1200928912850236</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01429091878856144</v>
+        <v>0.01449677229690708</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.002226020829244167</v>
+        <v>-0.001674588958355021</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2877403121247891</v>
+        <v>0.2862597532000229</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01411472201699415</v>
+        <v>0.01472984821576622</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.003310916498961333</v>
+        <v>-0.003746535884072766</v>
       </c>
       <c r="P103" t="n">
-        <v>0.4608517192679735</v>
+        <v>0.4456435469908512</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01440200099677848</v>
+        <v>0.01422385622325372</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.002477731516683809</v>
+        <v>-0.002462613645278174</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04897086547398073</v>
+        <v>0.0458690800306111</v>
       </c>
       <c r="G104" t="n">
-        <v>0.015225801051342</v>
+        <v>0.01490490284867074</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.004045389748013286</v>
+        <v>-0.001923390592936282</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1197421202802867</v>
+        <v>0.1211668169263451</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01508485872125929</v>
+        <v>0.01530214853562414</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.002212192237785603</v>
+        <v>-0.001676363118145511</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2901149406851479</v>
+        <v>0.2884640160398348</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01489887324016049</v>
+        <v>0.01554817311664212</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.002648550831258185</v>
+        <v>-0.003899937821659053</v>
       </c>
       <c r="P104" t="n">
-        <v>0.4651194650509527</v>
+        <v>0.4493030198509713</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01520211216326617</v>
+        <v>0.01501407045787892</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.002301950213720005</v>
+        <v>-0.003001426655850757</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04927429052184333</v>
+        <v>0.04612629481991658</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01602715900141263</v>
+        <v>0.01568937141965341</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.004045389748013286</v>
+        <v>-0.001923582951231405</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1207843379786241</v>
+        <v>0.1222161565048487</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01587879865395715</v>
+        <v>0.0161075247743412</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.002212192237785603</v>
+        <v>-0.001676363118145511</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2924212197555938</v>
+        <v>0.2905278206831795</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01568302446332684</v>
+        <v>0.01636649801751802</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.002648550831258185</v>
+        <v>-0.003899937821659053</v>
       </c>
       <c r="P105" t="n">
-        <v>0.4686023567238539</v>
+        <v>0.4527039997724985</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01600222332975386</v>
+        <v>0.01580428469250413</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.002301950213720005</v>
+        <v>-0.003001426655850757</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04954265231605331</v>
+        <v>0.04633935380582707</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01682851695148326</v>
+        <v>0.01647383999063608</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.004045389748013286</v>
+        <v>-0.001923582951231405</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1216877728190475</v>
+        <v>0.1232043452950771</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01667273858665501</v>
+        <v>0.01691290101305826</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.002212192237785603</v>
+        <v>-0.001676363118145511</v>
       </c>
       <c r="M106" t="n">
-        <v>0.2946130630644762</v>
+        <v>0.2924926496190553</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01646717568649318</v>
+        <v>0.01718482291839392</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.002648550831258185</v>
+        <v>-0.003899937821659053</v>
       </c>
       <c r="P106" t="n">
-        <v>0.4720027148913275</v>
+        <v>0.4556200005984339</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01680233449624155</v>
+        <v>0.01659449892712934</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.002301950213720005</v>
+        <v>-0.003001426655850757</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04980515691122187</v>
+        <v>0.04658402375334329</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01762987490155389</v>
+        <v>0.01725830856161875</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.004045389748013286</v>
+        <v>-0.001923390592936282</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1225523795068283</v>
+        <v>0.1240587681525204</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01746667851935287</v>
+        <v>0.01771827725177532</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.002212192237785603</v>
+        <v>-0.001676363118145511</v>
       </c>
       <c r="M107" t="n">
-        <v>0.2965978999700877</v>
+        <v>0.2943554514856533</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01725132690965952</v>
+        <v>0.01800314781926982</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.002648550831258185</v>
+        <v>-0.003899937821659053</v>
       </c>
       <c r="P107" t="n">
-        <v>0.4752374121355295</v>
+        <v>0.4585991680119149</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01760244566272925</v>
+        <v>0.01738471316175454</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.002301950213720005</v>
+        <v>-0.003001426655850757</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05007661512962421</v>
+        <v>0.04678934545685966</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01843123285162452</v>
+        <v>0.01804277713260142</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.004171291754180189</v>
+        <v>-0.001728672293670773</v>
       </c>
       <c r="J108" t="n">
-        <v>0.123393196705324</v>
+        <v>0.1249324746917985</v>
       </c>
       <c r="K108" t="n">
-        <v>0.01826061845205073</v>
+        <v>0.01852365349049238</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.002199414463073203</v>
+        <v>-0.001678686655128387</v>
       </c>
       <c r="M108" t="n">
-        <v>0.2984602075829463</v>
+        <v>0.2961570213227687</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01803547813282586</v>
+        <v>0.01882147272014572</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.002148878716296594</v>
+        <v>-0.003981043282120316</v>
       </c>
       <c r="P108" t="n">
-        <v>0.4782205410687957</v>
+        <v>0.4610596411594358</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.01840255682921694</v>
+        <v>0.01817492739637975</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.002160677745846049</v>
+        <v>-0.003425943942890931</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05033502700735901</v>
+        <v>0.04701031199756765</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01923259080169516</v>
+        <v>0.01882724570358409</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.004170874666713518</v>
+        <v>-0.001728326628345104</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1241729946866856</v>
+        <v>0.1256824907562188</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01905455838474858</v>
+        <v>0.01932902972920944</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.002199414463073203</v>
+        <v>-0.001678686655128387</v>
       </c>
       <c r="M109" t="n">
-        <v>0.300330316387252</v>
+        <v>0.2979381541701963</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0188196293559922</v>
+        <v>0.01963979762102162</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.002148878716296594</v>
+        <v>-0.003981043282120316</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4811562651656849</v>
+        <v>0.4636233036911043</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01920266799570463</v>
+        <v>0.01896514163100496</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.002160677745846049</v>
+        <v>-0.003425943942890931</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05058761226785249</v>
+        <v>0.04725302076430378</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02003394875176579</v>
+        <v>0.01961171427456676</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.004171291754180189</v>
+        <v>-0.001728326628345104</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1249235706251183</v>
+        <v>0.1265159292765255</v>
       </c>
       <c r="K110" t="n">
-        <v>0.01984849831744644</v>
+        <v>0.0201344059679265</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.002199414463073203</v>
+        <v>-0.001678686655128387</v>
       </c>
       <c r="M110" t="n">
-        <v>0.3021591899247347</v>
+        <v>0.2998745804547904</v>
       </c>
       <c r="N110" t="n">
-        <v>0.01960378057915854</v>
+        <v>0.02045812252189752</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.002148878716296594</v>
+        <v>-0.003981043282120316</v>
       </c>
       <c r="P110" t="n">
-        <v>0.4838841071457788</v>
+        <v>0.4661324522852675</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.02000277916219233</v>
+        <v>0.01975535586563016</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.002160677745846049</v>
+        <v>-0.003425943942890931</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05088620211503596</v>
+        <v>0.04748098962787431</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02083530670183642</v>
+        <v>0.02039618284554943</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.004171708841646861</v>
+        <v>-0.001728672293670773</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1257649041124285</v>
+        <v>0.1272711059823955</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0206424382501443</v>
+        <v>0.02093978220664356</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.002199414463073203</v>
+        <v>-0.001678686655128387</v>
       </c>
       <c r="M111" t="n">
-        <v>0.3040778984830718</v>
+        <v>0.301737783291309</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02038793180232489</v>
+        <v>0.02127644742277342</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.001954694548206173</v>
+        <v>-0.003981043282120316</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4867559078467302</v>
+        <v>0.4688575350009009</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02080289032868002</v>
+        <v>0.02054557010025537</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.002160677745846049</v>
+        <v>-0.003425943942890931</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05118624949217335</v>
+        <v>0.0477355032833767</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02163666465190705</v>
+        <v>0.02118065141653211</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.004210996284933961</v>
+        <v>-0.001612731770606314</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1265187821248264</v>
+        <v>0.1280324715343718</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02143637818284215</v>
+        <v>0.02174515844536062</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.002192829115895353</v>
+        <v>-0.001683490043634296</v>
       </c>
       <c r="M112" t="n">
-        <v>0.3061278479953782</v>
+        <v>0.303566881172304</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02117208302549122</v>
+        <v>0.02209477232364932</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.001954694548206173</v>
+        <v>-0.004005603202761257</v>
       </c>
       <c r="P112" t="n">
-        <v>0.4896103555877984</v>
+        <v>0.4712786712134103</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02160300149516771</v>
+        <v>0.02133578433488057</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.002088878564540696</v>
+        <v>-0.003628149757740982</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05153235378897311</v>
+        <v>0.04802259738587181</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02243802260197768</v>
+        <v>0.02196511998751478</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.004210996284933961</v>
+        <v>-0.001612248047819689</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1274113490812097</v>
+        <v>0.1288499573161981</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02223031811554001</v>
+        <v>0.02255053468407768</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.002192829115895353</v>
+        <v>-0.001683490043634296</v>
       </c>
       <c r="M113" t="n">
-        <v>0.3083045084806839</v>
+        <v>0.3056742164589318</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02195623424865757</v>
+        <v>0.02291309722452523</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.001954694548206173</v>
+        <v>-0.004005603202761257</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4926539428752791</v>
+        <v>0.4740983397204551</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02240311266165541</v>
+        <v>0.02212599856950578</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.002088878564540696</v>
+        <v>-0.003628149757740982</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05189601651220795</v>
+        <v>0.04834832168839281</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02323938055204831</v>
+        <v>0.02274958855849745</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.004210996284933961</v>
+        <v>-0.001612409288748564</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1282450226419952</v>
+        <v>0.1296483900206816</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02302425804823787</v>
+        <v>0.02335591092279474</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.002192829115895353</v>
+        <v>-0.001683490043634296</v>
       </c>
       <c r="M114" t="n">
-        <v>0.3104434007616501</v>
+        <v>0.3079885966128589</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02274038547182391</v>
+        <v>0.02373142212540113</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.001954694548206173</v>
+        <v>-0.004005603202761257</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4955736398851976</v>
+        <v>0.4768487906930275</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.0232032238281431</v>
+        <v>0.02291621280413099</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.002088878564540696</v>
+        <v>-0.003628149757740982</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.05223662658056245</v>
+        <v>0.04870430013789923</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02404073850211895</v>
+        <v>0.02353405712948012</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.004210575269508552</v>
+        <v>-0.001612248047819689</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1292435699947175</v>
+        <v>0.1305312747160294</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02381819798093573</v>
+        <v>0.0241612871615118</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.002192829115895353</v>
+        <v>-0.001683490043634296</v>
       </c>
       <c r="M115" t="n">
-        <v>0.3125976752300667</v>
+        <v>0.3100687400294661</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02352453669499025</v>
+        <v>0.02454974702627703</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.001954694548206173</v>
+        <v>-0.004005603202761257</v>
       </c>
       <c r="P115" t="n">
-        <v>0.4987962566641843</v>
+        <v>0.4797167297577853</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02400333499463079</v>
+        <v>0.02370642703875619</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.002088878564540696</v>
+        <v>-0.003628149757740982</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0525750261793352</v>
+        <v>0.04907105526334286</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02484209645218957</v>
+        <v>0.02431852570046279</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.004152750222069661</v>
+        <v>-0.001598040411802474</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1301672603331099</v>
+        <v>0.1314633101231941</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02461213791363358</v>
+        <v>0.02496666340022886</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.00220774195048124</v>
+        <v>-0.001695078819182586</v>
       </c>
       <c r="M116" t="n">
-        <v>0.314674026743519</v>
+        <v>0.3121806178791646</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02430868791815659</v>
+        <v>0.02536807192715293</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.001957144662358074</v>
+        <v>-0.003964591751710562</v>
       </c>
       <c r="P116" t="n">
-        <v>0.5021933050783309</v>
+        <v>0.4822062597643867</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02480344616111849</v>
+        <v>0.0244966412733814</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.002097151263920861</v>
+        <v>-0.003605118532099171</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05291154148888876</v>
+        <v>0.04944812623331138</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02564345440226021</v>
+        <v>0.02510299427144546</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.004153996171731247</v>
+        <v>-0.001598040411802474</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1310458796825295</v>
+        <v>0.1323552644329966</v>
       </c>
       <c r="K117" t="n">
-        <v>0.02540607784633145</v>
+        <v>0.02577203963894592</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.00220774195048124</v>
+        <v>-0.001695078819182586</v>
       </c>
       <c r="M117" t="n">
-        <v>0.3168108410568805</v>
+        <v>0.3142342414999796</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02509283914132293</v>
+        <v>0.02618639682802883</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.001957144662358074</v>
+        <v>-0.003964591751710562</v>
       </c>
       <c r="P117" t="n">
-        <v>0.5051623272384356</v>
+        <v>0.4850516678277108</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02560355732760618</v>
+        <v>0.02528685550800661</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.002097151263920861</v>
+        <v>-0.003605118532099171</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05325416802308147</v>
+        <v>0.04982086645979575</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02644481235233084</v>
+        <v>0.02588746284242813</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.004153580855177385</v>
+        <v>-0.001598200215843655</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1319891780618286</v>
+        <v>0.1331706842901652</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0262000177790293</v>
+        <v>0.02657741587766298</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.00220774195048124</v>
+        <v>-0.001695078819182586</v>
       </c>
       <c r="M118" t="n">
-        <v>0.3188208174272359</v>
+        <v>0.3163244663581185</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02587699036448927</v>
+        <v>0.02700472172890473</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.001957144662358074</v>
+        <v>-0.003964591751710562</v>
       </c>
       <c r="P118" t="n">
-        <v>0.5083799460282092</v>
+        <v>0.4875227154763873</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02640366849409387</v>
+        <v>0.02607706974263182</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.002097151263920861</v>
+        <v>-0.003605118532099171</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05357248870202352</v>
+        <v>0.05018170310351075</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02724617030240147</v>
+        <v>0.0266719314134108</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.004153165538623523</v>
+        <v>-0.001598360019884835</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1328347683644058</v>
+        <v>0.1340012659010282</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02699395771172716</v>
+        <v>0.02738279211638004</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.00220774195048124</v>
+        <v>-0.001695078819182586</v>
       </c>
       <c r="M119" t="n">
-        <v>0.3208429687524632</v>
+        <v>0.3182667696384572</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02666114158765562</v>
+        <v>0.02782304662978063</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.001957144662358074</v>
+        <v>-0.003964591751710562</v>
       </c>
       <c r="P119" t="n">
-        <v>0.5111635562914657</v>
+        <v>0.4899888877229095</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.02720377966058156</v>
+        <v>0.02686728397725702</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.002097151263920861</v>
+        <v>-0.003504610696059943</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05388200768797757</v>
+        <v>0.05052292084810796</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0280475282524721</v>
+        <v>0.02745639998439347</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.003986459400591874</v>
+        <v>-0.001612219723172249</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1336559207529515</v>
+        <v>0.1348479571469258</v>
       </c>
       <c r="K120" t="n">
-        <v>0.02778789764442502</v>
+        <v>0.0281881683550971</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.002299811595810544</v>
+        <v>-0.001729450807694761</v>
       </c>
       <c r="M120" t="n">
-        <v>0.3228296022645838</v>
+        <v>0.32010859683373</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02744529281082196</v>
+        <v>0.02864137153065653</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.001965004263853472</v>
+        <v>-0.00384235340734532</v>
       </c>
       <c r="P120" t="n">
-        <v>0.5142717508169924</v>
+        <v>0.4923050213053419</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02800389082706926</v>
+        <v>0.02765749821188223</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.002144767117349646</v>
+        <v>-0.003504610696059943</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.05417517657774977</v>
+        <v>0.05089617518328526</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02884888620254274</v>
+        <v>0.02824086855537614</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.003986459400591874</v>
+        <v>-0.00161270343746063</v>
       </c>
       <c r="J121" t="n">
-        <v>0.134471926653574</v>
+        <v>0.1356188809054617</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02858183757712288</v>
+        <v>0.02899354459381416</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.002299811595810544</v>
+        <v>-0.001729450807694761</v>
       </c>
       <c r="M121" t="n">
-        <v>0.3248746575524057</v>
+        <v>0.3220397752801109</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0282294440339883</v>
+        <v>0.02945969643153243</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.001965004263853472</v>
+        <v>-0.00384235340734532</v>
       </c>
       <c r="P121" t="n">
-        <v>0.5172475366361756</v>
+        <v>0.4947708276292848</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02880400199355695</v>
+        <v>0.02844771244650743</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.002144767117349646</v>
+        <v>-0.003504610696059943</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05447551865349268</v>
+        <v>0.05124199934048272</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02965024415261337</v>
+        <v>0.02902533712635881</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.003986459400591874</v>
+        <v>-0.00161270343746063</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1352653414551963</v>
+        <v>0.1363696931198279</v>
       </c>
       <c r="K122" t="n">
-        <v>0.02937577750982073</v>
+        <v>0.02979892083253122</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.002299811595810544</v>
+        <v>-0.001729450807694761</v>
       </c>
       <c r="M122" t="n">
-        <v>0.3267875888935362</v>
+        <v>0.3236845426180308</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02901359525715464</v>
+        <v>0.03027802133240833</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.001965004263853472</v>
+        <v>-0.00384235340734532</v>
       </c>
       <c r="P122" t="n">
-        <v>0.5199349042170991</v>
+        <v>0.4967934127063528</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.02960411316004464</v>
+        <v>0.02923792668113264</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.002144767117349646</v>
+        <v>-0.003504610696059943</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.054744298437171</v>
+        <v>0.05157489280497699</v>
       </c>
       <c r="G123" t="n">
-        <v>0.030451602102684</v>
+        <v>0.02980980569734148</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.003987256772209155</v>
+        <v>-0.001612380961268376</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1360183984951935</v>
+        <v>0.137138273085895</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03016971744251859</v>
+        <v>0.03060429707124828</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.002299811595810544</v>
+        <v>-0.001729450807694761</v>
       </c>
       <c r="M123" t="n">
-        <v>0.3285662324071619</v>
+        <v>0.325422238733881</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02979774648032099</v>
+        <v>0.03109634623328423</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.001965004263853472</v>
+        <v>-0.00384235340734532</v>
       </c>
       <c r="P123" t="n">
-        <v>0.5226392832131953</v>
+        <v>0.498971262944732</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.03040422432653234</v>
+        <v>0.03002814091575785</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.002144767117349646</v>
+        <v>-0.003504610696059943</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.05502860380071015</v>
+        <v>0.05191717332270319</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03125296005275463</v>
+        <v>0.03059427426832415</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.003745499357163824</v>
+        <v>-0.001638985709858255</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1367877459118186</v>
+        <v>0.1378691593831566</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03096365737521645</v>
+        <v>0.03140967330996534</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.002458008288828891</v>
+        <v>-0.001786513191419076</v>
       </c>
       <c r="M124" t="n">
-        <v>0.3304006311517121</v>
+        <v>0.3272083120294869</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03058189770348733</v>
+        <v>0.03191467113416013</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.001977072139434585</v>
+        <v>-0.003663440844150029</v>
       </c>
       <c r="P124" t="n">
-        <v>0.525437934138723</v>
+        <v>0.501233780703809</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.03120433549302003</v>
+        <v>0.03081835515038305</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.002225524261907058</v>
+        <v>-0.003347752859927812</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05531314049962509</v>
+        <v>0.05223854228556865</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03205431800282527</v>
+        <v>0.03137874283930682</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.003745499357163824</v>
+        <v>-0.00163914960842924</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1375184096420076</v>
+        <v>0.1385625822101328</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0317575973079143</v>
+        <v>0.0322150495486824</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.002458008288828891</v>
+        <v>-0.001786513191419076</v>
       </c>
       <c r="M125" t="n">
-        <v>0.3322908692116491</v>
+        <v>0.3287580660457587</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03136604892665367</v>
+        <v>0.03273299603503604</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.001977072139434585</v>
+        <v>-0.003663440844150029</v>
       </c>
       <c r="P125" t="n">
-        <v>0.5281757161892215</v>
+        <v>0.5031328279820744</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03200444665950773</v>
+        <v>0.03160856938500826</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.002225524261907058</v>
+        <v>-0.003347752859927812</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05557448533790728</v>
+        <v>0.05255381208691531</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03285567595289589</v>
+        <v>0.03216321141028949</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.003746623119347192</v>
+        <v>-0.001638821811287269</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1382486534066168</v>
+        <v>0.1392377085020834</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03255153724061216</v>
+        <v>0.03302042578739946</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.002458008288828891</v>
+        <v>-0.001786513191419076</v>
       </c>
       <c r="M126" t="n">
-        <v>0.3339950082386207</v>
+        <v>0.3304554785263268</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03215020014982001</v>
+        <v>0.03355132093591193</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.001977072139434585</v>
+        <v>-0.003663440844150029</v>
       </c>
       <c r="P126" t="n">
-        <v>0.5306172664860166</v>
+        <v>0.5052726966112027</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03280455782599542</v>
+        <v>0.03239878361963346</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.002225524261907058</v>
+        <v>-0.003347752859927812</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.05582856438376697</v>
+        <v>0.05287805580808112</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03365703390296652</v>
+        <v>0.03294767998127216</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.003746248531952736</v>
+        <v>-0.001638821811287269</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1389228452941138</v>
+        <v>0.1399519729522737</v>
       </c>
       <c r="K127" t="n">
-        <v>0.03334547717331002</v>
+        <v>0.03382580202611653</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.002661358048310537</v>
+        <v>-0.0018634406056765</v>
       </c>
       <c r="M127" t="n">
-        <v>0.3356075989387792</v>
+        <v>0.3320630627886566</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03293435137298635</v>
+        <v>0.03436964583678783</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.001977072139434585</v>
+        <v>-0.003663440844150029</v>
       </c>
       <c r="P127" t="n">
-        <v>0.5333857331906685</v>
+        <v>0.5070525937494834</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03360466899248311</v>
+        <v>0.03318899785425868</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.002225524261907058</v>
+        <v>-0.003150991361240906</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.0560755971772965</v>
+        <v>0.0531959208960435</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03445839185303715</v>
+        <v>0.03373214855225484</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.003463180627811975</v>
+        <v>-0.001676401419442754</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1395982912912201</v>
+        <v>0.1406301865326671</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03413941710600788</v>
+        <v>0.03463117826483358</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.002661358048310537</v>
+        <v>-0.0018634406056765</v>
       </c>
       <c r="M128" t="n">
-        <v>0.3372733347012941</v>
+        <v>0.3334368931914002</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03371850259615269</v>
+        <v>0.03518797073766373</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.001992338682787469</v>
+        <v>-0.00344880234243268</v>
       </c>
       <c r="P128" t="n">
-        <v>0.5356980248306681</v>
+        <v>0.5090040953099769</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.0344047801589708</v>
+        <v>0.03397921208888388</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.002334677353908507</v>
+        <v>-0.003150991361240906</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05631580325858829</v>
+        <v>0.05347640646061311</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03525974980310779</v>
+        <v>0.0345166171232375</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.003462488130185938</v>
+        <v>-0.001676401419442754</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1402760311530332</v>
+        <v>0.14123434900219</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03493335703870573</v>
+        <v>0.03543655450355064</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.002661358048310537</v>
+        <v>-0.0018634406056765</v>
       </c>
       <c r="M129" t="n">
-        <v>0.339041092944856</v>
+        <v>0.3349162581480025</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03450265381931903</v>
+        <v>0.03600629563853964</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.001992338682787469</v>
+        <v>-0.00344880234243268</v>
       </c>
       <c r="P129" t="n">
-        <v>0.5381010127634016</v>
+        <v>0.5108271005361585</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.0352048913254585</v>
+        <v>0.03476942632350908</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.002334677353908507</v>
+        <v>-0.003150991361240906</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.05652539093829381</v>
+        <v>0.05378077863127792</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03606110775317842</v>
+        <v>0.03530108569422017</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.003463180627811975</v>
+        <v>-0.00167623377930081</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1408998248155118</v>
+        <v>0.1418794577734083</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03572729697140359</v>
+        <v>0.0362419307422677</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.002661358048310537</v>
+        <v>-0.0018634406056765</v>
       </c>
       <c r="M130" t="n">
-        <v>0.3404698084457301</v>
+        <v>0.3364554489177667</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03528680504248537</v>
+        <v>0.03682462053941554</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.001992338682787469</v>
+        <v>-0.00344880234243268</v>
       </c>
       <c r="P130" t="n">
-        <v>0.5403578718512001</v>
+        <v>0.5126761396997961</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.03600500249194619</v>
+        <v>0.03555964055813429</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.002334677353908507</v>
+        <v>-0.003150991361240906</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.05677661344482827</v>
+        <v>0.05407815784491381</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03686246570324905</v>
+        <v>0.03608555426520284</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.003462834378998956</v>
+        <v>-0.001676569059584698</v>
       </c>
       <c r="J131" t="n">
-        <v>0.141546739176528</v>
+        <v>0.1425087798508181</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03652123690410145</v>
+        <v>0.03704730698098477</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.002661358048310537</v>
+        <v>-0.0018634406056765</v>
       </c>
       <c r="M131" t="n">
-        <v>0.3420477186997627</v>
+        <v>0.3378130026145044</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03607095626565172</v>
+        <v>0.03764294544029144</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.001992338682787469</v>
+        <v>-0.003223765746520189</v>
       </c>
       <c r="P131" t="n">
-        <v>0.5428631384595949</v>
+        <v>0.5142485577910855</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.03680511365843388</v>
+        <v>0.0363498547927595</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.002334677353908507</v>
+        <v>-0.003150991361240906</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05697351095107153</v>
+        <v>0.05436833830524471</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03766382365331968</v>
+        <v>0.03687002283618551</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.003173787606672118</v>
+        <v>-0.001722344621368856</v>
       </c>
       <c r="J132" t="n">
-        <v>0.142121913184476</v>
+        <v>0.1430841470710112</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03731517683679931</v>
+        <v>0.03785268321970183</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.002889328353127817</v>
+        <v>-0.001958180601295014</v>
       </c>
       <c r="M132" t="n">
-        <v>0.3435782159227866</v>
+        <v>0.3391849378146466</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03685510748881806</v>
+        <v>0.03846127034116734</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.002010993421033365</v>
+        <v>-0.003223765746520189</v>
       </c>
       <c r="P132" t="n">
-        <v>0.5449029231267595</v>
+        <v>0.5160815902231382</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03760522482492158</v>
+        <v>0.0371400690273847</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.002466564947950959</v>
+        <v>-0.002927931471519818</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05719661113364166</v>
+        <v>0.05462767462111573</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03846518160339032</v>
+        <v>0.03765449140716819</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.00317473983817727</v>
+        <v>-0.001722172386906719</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1427412844910649</v>
+        <v>0.143663750007155</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03810911676949717</v>
+        <v>0.03865805945841888</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.002889328353127817</v>
+        <v>-0.001958180601295014</v>
       </c>
       <c r="M133" t="n">
-        <v>0.3449117808627111</v>
+        <v>0.3404751614744784</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0376392587119844</v>
+        <v>0.03927959524204324</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.002010993421033365</v>
+        <v>-0.003223765746520189</v>
       </c>
       <c r="P133" t="n">
-        <v>0.5471104597498001</v>
+        <v>0.5177959639542108</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.03840533599140927</v>
+        <v>0.03793028326200992</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.002466564947950959</v>
+        <v>-0.002927931471519818</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05739784389321154</v>
+        <v>0.05489491979097548</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03926653955346095</v>
+        <v>0.03843895997815085</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.003174105017173835</v>
+        <v>-0.001722344621368856</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1433095621475544</v>
+        <v>0.1442093701810814</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03890305670219502</v>
+        <v>0.03946343569713594</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.002889328353127817</v>
+        <v>-0.001958180601295014</v>
       </c>
       <c r="M134" t="n">
-        <v>0.3463439442100294</v>
+        <v>0.3418324309166662</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03842340993515075</v>
+        <v>0.04009792014291914</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.002010993421033365</v>
+        <v>-0.003223765746520189</v>
       </c>
       <c r="P134" t="n">
-        <v>0.5490070538573111</v>
+        <v>0.5192398849721082</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.03920544715789696</v>
+        <v>0.03872049749663511</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.002466564947950959</v>
+        <v>-0.002927931471519818</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05762597303452086</v>
+        <v>0.05517003048112584</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04006789750353158</v>
+        <v>0.03922342854913353</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.00317473983817727</v>
+        <v>-0.001722172386906719</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1439241864523773</v>
+        <v>0.1447991959156611</v>
       </c>
       <c r="K135" t="n">
-        <v>0.03969699663489288</v>
+        <v>0.04026881193585301</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.002889328353127817</v>
+        <v>-0.002067400559479736</v>
       </c>
       <c r="M135" t="n">
-        <v>0.3476260807589923</v>
+        <v>0.3430618778166458</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03920756115831708</v>
+        <v>0.04091624504379504</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.002030421885489346</v>
+        <v>-0.003223765746520189</v>
       </c>
       <c r="P135" t="n">
-        <v>0.5512306192174484</v>
+        <v>0.5209540556714148</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.04000555832438465</v>
+        <v>0.03951071173126033</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.002466564947950959</v>
+        <v>-0.002927931471519818</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0578245392527356</v>
+        <v>0.05539771708564949</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04086925545360221</v>
+        <v>0.0400078971201162</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.002913176126753549</v>
+        <v>-0.001775359932958593</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1444892713182587</v>
+        <v>0.1452974560685021</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04049093656759074</v>
+        <v>0.04107418817457006</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.003121698820821277</v>
+        <v>-0.002067400559479736</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3490557642348955</v>
+        <v>0.3443126518021846</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03999171238148343</v>
+        <v>0.04173456994467094</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.002030421885489346</v>
+        <v>-0.003009230900258843</v>
       </c>
       <c r="P136" t="n">
-        <v>0.5531405447838162</v>
+        <v>0.5222477925782526</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.04080566949087235</v>
+        <v>0.04030092596588553</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.002616415897366014</v>
+        <v>-0.002696849050785646</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05800173392530908</v>
+        <v>0.05564864385928726</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04167061340367284</v>
+        <v>0.04079236569109887</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.002913176126753549</v>
+        <v>-0.001775715040455935</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1450053146820716</v>
+        <v>0.1458018740827869</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0412848765002886</v>
+        <v>0.04187956441328713</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.003121698820821277</v>
+        <v>-0.002067400559479736</v>
       </c>
       <c r="M137" t="n">
-        <v>0.3501833019478975</v>
+        <v>0.345636286874323</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04077586360464977</v>
+        <v>0.04255289484554684</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.002030421885489346</v>
+        <v>-0.003009230900258843</v>
       </c>
       <c r="P137" t="n">
-        <v>0.5549754207894146</v>
+        <v>0.5238952123737586</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.04160578065736004</v>
+        <v>0.04109114020051074</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.002616415897366014</v>
+        <v>-0.002696849050785646</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05819851061696511</v>
+        <v>0.05589908004927302</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04247197135374347</v>
+        <v>0.04157683426208154</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.002912593549785895</v>
+        <v>-0.001775537486707264</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1455901685554125</v>
+        <v>0.1463326937890959</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04207881643298645</v>
+        <v>0.04268494065200418</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.003121698820821277</v>
+        <v>-0.002067400559479736</v>
       </c>
       <c r="M138" t="n">
-        <v>0.3513568187151422</v>
+        <v>0.3467370308946324</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04156001482781611</v>
+        <v>0.04337121974642275</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.002030421885489346</v>
+        <v>-0.003009230900258843</v>
       </c>
       <c r="P138" t="n">
-        <v>0.5566534540987967</v>
+        <v>0.5252033415882643</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04240589182384773</v>
+        <v>0.04188135443513594</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.002616415897366014</v>
+        <v>-0.002696849050785646</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05836613021230731</v>
+        <v>0.05612500325986965</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0432733293038141</v>
+        <v>0.04236130283306421</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.002913467415237376</v>
+        <v>-0.001775715040455935</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1461080443648449</v>
+        <v>0.1468119350312265</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04287275636568431</v>
+        <v>0.04349031689072125</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.003121698820821277</v>
+        <v>-0.002067400559479736</v>
       </c>
       <c r="M139" t="n">
-        <v>0.3525760020919056</v>
+        <v>0.347963632161742</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04234416605098245</v>
+        <v>0.04418954464729865</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.002030421885489346</v>
+        <v>-0.003009230900258843</v>
       </c>
       <c r="P139" t="n">
-        <v>0.5584154806952427</v>
+        <v>0.5266390281175169</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.04320600299033543</v>
+        <v>0.04267156866976115</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.002616415897366014</v>
+        <v>-0.002696849050785646</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05854567823528836</v>
+        <v>0.05631809131307282</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04407468725388473</v>
+        <v>0.04314577140404688</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.002714651782509307</v>
+        <v>-0.0018340317600462</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1466182890178467</v>
+        <v>0.1472989470148561</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04366669629838217</v>
+        <v>0.0442956931294383</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.003336666814207179</v>
+        <v>-0.00218808385464971</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3535887042575212</v>
+        <v>0.3491690079580647</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04312831727414879</v>
+        <v>0.04500786954817455</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.002051629576076892</v>
+        <v>-0.002830897766635413</v>
       </c>
       <c r="P140" t="n">
-        <v>0.5597754359574616</v>
+        <v>0.5282835039563064</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.04400611415682312</v>
+        <v>0.04346178290438635</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.002778958557153534</v>
+        <v>-0.002471589313441665</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.058745705273179</v>
+        <v>0.05653398002472111</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04487604520395536</v>
+        <v>0.04393023997502955</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.002714651782509307</v>
+        <v>-0.001834215163222205</v>
       </c>
       <c r="J141" t="n">
-        <v>0.147161173876707</v>
+        <v>0.1478141047332073</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04446063623108003</v>
+        <v>0.04510106936815537</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.003336666814207179</v>
+        <v>-0.00218808385464971</v>
       </c>
       <c r="M141" t="n">
-        <v>0.354544332659542</v>
+        <v>0.3503547522244976</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04391246849731514</v>
+        <v>0.04582619444905045</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.002051629576076892</v>
+        <v>-0.002830897766635413</v>
       </c>
       <c r="P141" t="n">
-        <v>0.5614605741451894</v>
+        <v>0.5296728663003553</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.04480622532331081</v>
+        <v>0.04425199713901157</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.002778958557153534</v>
+        <v>-0.002471589313441665</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05890890177397913</v>
+        <v>0.05674061776101236</v>
       </c>
       <c r="G142" t="n">
-        <v>0.045677403154026</v>
+        <v>0.04471470854601222</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.002715194712865809</v>
+        <v>-0.001833848356870196</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1477180803020949</v>
+        <v>0.1482986586907072</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04525457616377788</v>
+        <v>0.04590644560687242</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.003336666814207179</v>
+        <v>-0.00218808385464971</v>
       </c>
       <c r="M142" t="n">
-        <v>0.3554418881064476</v>
+        <v>0.3513720479275825</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04469661972048147</v>
+        <v>0.04664451934992635</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.002051629576076892</v>
+        <v>-0.002830897766635413</v>
       </c>
       <c r="P142" t="n">
-        <v>0.5629843024540812</v>
+        <v>0.5310426881242293</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.0456063364897985</v>
+        <v>0.04504221137363677</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.002778958557153534</v>
+        <v>-0.002471589313441665</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05906831159377715</v>
+        <v>0.0569297554786891</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04647876110409663</v>
+        <v>0.04549917711699489</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.002714380317331056</v>
+        <v>-0.001834215163222205</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1481909020001305</v>
+        <v>0.1487529157258041</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04604851609647574</v>
+        <v>0.04671182184558949</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.003515285764583948</v>
+        <v>-0.002317392668803939</v>
       </c>
       <c r="M143" t="n">
-        <v>0.3563816481428862</v>
+        <v>0.352472736036983</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04548077094364782</v>
+        <v>0.04746284425080225</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.002051629576076892</v>
+        <v>-0.002830897766635413</v>
       </c>
       <c r="P143" t="n">
-        <v>0.5641007734664856</v>
+        <v>0.532239079576642</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.0464064476562862</v>
+        <v>0.04583242560826197</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.002778958557153534</v>
+        <v>-0.002471589313441665</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05924070262569026</v>
+        <v>0.05710113280203745</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04728011905416726</v>
+        <v>0.04628364568797756</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.00261387554958333</v>
+        <v>-0.001895667621153134</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1487388229517911</v>
+        <v>0.1491771890760669</v>
       </c>
       <c r="K144" t="n">
-        <v>0.04684245602917361</v>
+        <v>0.04751719808430654</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.003515285764583948</v>
+        <v>-0.002317392668803939</v>
       </c>
       <c r="M144" t="n">
-        <v>0.35716022759127</v>
+        <v>0.3536590773440748</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04626492216681416</v>
+        <v>0.04828116915167815</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.002072587725073914</v>
+        <v>-0.0027096235463786</v>
       </c>
       <c r="P144" t="n">
-        <v>0.5654596613105123</v>
+        <v>0.5335772266246437</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.04720655882277389</v>
+        <v>0.04662263984288718</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.002950327980203392</v>
+        <v>-0.002269328689051689</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05938494322939765</v>
+        <v>0.05728680509019259</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04808147700423789</v>
+        <v>0.04706811425896024</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.002613091543719628</v>
+        <v>-0.001895667621153134</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1492238454283752</v>
+        <v>0.1495717979287427</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04763639596187146</v>
+        <v>0.04832257432302361</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.003515285764583948</v>
+        <v>-0.002317392668803939</v>
       </c>
       <c r="M145" t="n">
-        <v>0.3580809184929508</v>
+        <v>0.3546305368879528</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0470490733899805</v>
+        <v>0.04909949405255405</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.002072587725073914</v>
+        <v>-0.0027096235463786</v>
       </c>
       <c r="P145" t="n">
-        <v>0.5667346766535298</v>
+        <v>0.5350604901210927</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04800666998926158</v>
+        <v>0.04741285407751239</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.002950327980203392</v>
+        <v>-0.002269328689051689</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05955924851972712</v>
+        <v>0.05742196790613814</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04888283495430852</v>
+        <v>0.0478525828299429</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.00261387554958333</v>
+        <v>-0.001895667621153134</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1497062647398475</v>
+        <v>0.1499970720934541</v>
       </c>
       <c r="K146" t="n">
-        <v>0.04843033589456931</v>
+        <v>0.04912795056174066</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.003515285764583948</v>
+        <v>-0.002317392668803939</v>
       </c>
       <c r="M146" t="n">
-        <v>0.3587366221935935</v>
+        <v>0.3557919879164672</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04783322461314685</v>
+        <v>0.04991781895342996</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.002072587725073914</v>
+        <v>-0.0027096235463786</v>
       </c>
       <c r="P146" t="n">
-        <v>0.5676793300720432</v>
+        <v>0.5361418633649345</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.04880678115574928</v>
+        <v>0.0482030683121376</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.002950327980203392</v>
+        <v>-0.002269328689051689</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.059706895137039</v>
+        <v>0.05758727097134193</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04968419290437915</v>
+        <v>0.04863705140092558</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.00261387554958333</v>
+        <v>-0.001896046754677364</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1502069392846865</v>
+        <v>0.1504737596149366</v>
       </c>
       <c r="K147" t="n">
-        <v>0.04922427582726717</v>
+        <v>0.04993332680045773</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.003515285764583948</v>
+        <v>-0.002317392668803939</v>
       </c>
       <c r="M147" t="n">
-        <v>0.3593292253040438</v>
+        <v>0.3566902302147034</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04861737583631318</v>
+        <v>0.05073614385430585</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.002072587725073914</v>
+        <v>-0.0027096235463786</v>
       </c>
       <c r="P147" t="n">
-        <v>0.5687828101726728</v>
+        <v>0.5375307120605833</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.04960689232223697</v>
+        <v>0.0489932825467628</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.002950327980203392</v>
+        <v>-0.002269328689051689</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05988002103610039</v>
+        <v>0.05771271959204209</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05048555085444979</v>
+        <v>0.04942151997190825</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.002619017464251809</v>
+        <v>-0.001967012749907849</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1507469270651246</v>
+        <v>0.1508219195851388</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05001821575996503</v>
+        <v>0.05073870303917478</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.00363724342325207</v>
+        <v>-0.002452729727943731</v>
       </c>
       <c r="M148" t="n">
-        <v>0.360010703078614</v>
+        <v>0.357883857082423</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04940152705947953</v>
+        <v>0.05155446875518175</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.002092682654925964</v>
+        <v>-0.002669653323694798</v>
       </c>
       <c r="P148" t="n">
-        <v>0.5696350159950204</v>
+        <v>0.5389156304883512</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.05040700348872466</v>
+        <v>0.04978349678138801</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.003123499283159785</v>
+        <v>-0.002105175008732673</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06003686336666719</v>
+        <v>0.05785099922097992</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05128690880452041</v>
+        <v>0.05020598854289091</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.002619541267744659</v>
+        <v>-0.00196740615245783</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1511873417439382</v>
+        <v>0.1512827644619815</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05081215569266289</v>
+        <v>0.05154407927789185</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.00363724342325207</v>
+        <v>-0.002452729727943731</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3604232253576273</v>
+        <v>0.3589194954055279</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05018567828264587</v>
+        <v>0.05237279365605765</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.002092682654925964</v>
+        <v>-0.002669653323694798</v>
       </c>
       <c r="P149" t="n">
-        <v>0.5705625031173718</v>
+        <v>0.5401411471258739</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05120711465521235</v>
+        <v>0.05057371101601321</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.003123499283159785</v>
+        <v>-0.002105175008732673</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06019385332679594</v>
+        <v>0.05801043788829094</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05208826675459105</v>
+        <v>0.05099045711387359</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.002619279365998234</v>
+        <v>-0.001967209451182839</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1517153430727954</v>
+        <v>0.1516154952767788</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05160609562536075</v>
+        <v>0.05234945551660891</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.00363724342325207</v>
+        <v>-0.002452729727943731</v>
       </c>
       <c r="M150" t="n">
-        <v>0.3609228081944722</v>
+        <v>0.3598096557032976</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05096982950581221</v>
+        <v>0.05319111855693356</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.002092682654925964</v>
+        <v>-0.002669653323694798</v>
       </c>
       <c r="P150" t="n">
-        <v>0.5714003526368611</v>
+        <v>0.5414464704503341</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.05200722582170005</v>
+        <v>0.05136392525063842</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.003123499283159785</v>
+        <v>-0.002105175008732673</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06034239612324745</v>
+        <v>0.05811776423405784</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05288962470466169</v>
+        <v>0.05177492568485625</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.002619017464251809</v>
+        <v>-0.002086728209357352</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1522510701798646</v>
+        <v>0.1520218818796223</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0524000355580586</v>
+        <v>0.05315483175532596</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.00363724342325207</v>
+        <v>-0.002452729727943731</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3613043172962587</v>
+        <v>0.360913256076744</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05175398072897855</v>
+        <v>0.05400944345780945</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.002092682654925964</v>
+        <v>-0.002669653323694798</v>
       </c>
       <c r="P151" t="n">
-        <v>0.5719830051573734</v>
+        <v>0.542755274240189</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.05280733698818774</v>
+        <v>0.05215413948526363</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.003123499283159785</v>
+        <v>-0.002105175008732673</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06048223378141412</v>
+        <v>0.05826275533669098</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05369098265473232</v>
+        <v>0.05255939425583893</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.002672726738931492</v>
+        <v>-0.002086728209357352</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1527733183260521</v>
+        <v>0.1524421148390552</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05319397549075646</v>
+        <v>0.05396020799404302</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.003731201413559923</v>
+        <v>-0.002594051806223878</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3615369733225284</v>
+        <v>0.3620250584222621</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05253813195214489</v>
+        <v>0.05482776835868536</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.002112078934089815</v>
+        <v>-0.002671817579306795</v>
       </c>
       <c r="P152" t="n">
-        <v>0.572720231660617</v>
+        <v>0.5441495229601722</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.05360744815467543</v>
+        <v>0.05294435371988884</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.003299037203021881</v>
+        <v>-0.001995424241850632</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06065518402069574</v>
+        <v>0.05838017199241799</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05449234060480294</v>
+        <v>0.0533438628268216</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.002672726738931492</v>
+        <v>-0.002087145596737961</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1533013274169959</v>
+        <v>0.1528162789232063</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05398791542345432</v>
+        <v>0.05476558423276009</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.003731201413559923</v>
+        <v>-0.002594051806223878</v>
       </c>
       <c r="M153" t="n">
-        <v>0.3619049699900324</v>
+        <v>0.3629894388206213</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05332228317531124</v>
+        <v>0.05564609325956126</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.002112078934089815</v>
+        <v>-0.002671817579306795</v>
       </c>
       <c r="P153" t="n">
-        <v>0.573225810430676</v>
+        <v>0.5453140136733348</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.05440755932116313</v>
+        <v>0.05373456795451405</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.003299037203021881</v>
+        <v>-0.001995424241850632</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06081063907183624</v>
+        <v>0.05850278178784055</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05529369855487357</v>
+        <v>0.05412833139780426</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.002672726738931492</v>
+        <v>-0.002087145596737961</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1538545472024708</v>
+        <v>0.153145394165454</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05478185535615218</v>
+        <v>0.05557096047147715</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.003731201413559923</v>
+        <v>-0.002594051806223878</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3622046692703245</v>
+        <v>0.3640607766834033</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05410643439847757</v>
+        <v>0.05646441816043715</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.002112078934089815</v>
+        <v>-0.002671817579306795</v>
       </c>
       <c r="P154" t="n">
-        <v>0.5734557857512713</v>
+        <v>0.5466484701192148</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05520767048765082</v>
+        <v>0.05452478218913924</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.003299037203021881</v>
+        <v>-0.001995424241850632</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06094829474608671</v>
+        <v>0.05863891117118394</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0560950565049442</v>
+        <v>0.05491279996878693</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.002672994011605385</v>
+        <v>-0.002086728209357352</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1543709019184736</v>
+        <v>0.1534902379284105</v>
       </c>
       <c r="K155" t="n">
-        <v>0.05557579528885004</v>
+        <v>0.05637633671019421</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.003731201413559923</v>
+        <v>-0.002804365515096825</v>
       </c>
       <c r="M155" t="n">
-        <v>0.3625393153181463</v>
+        <v>0.3652380009554315</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05489058562164392</v>
+        <v>0.05728274306131306</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.002112078934089815</v>
+        <v>-0.002671817579306795</v>
       </c>
       <c r="P155" t="n">
-        <v>0.5739059347902606</v>
+        <v>0.5482360584049512</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05600778165413851</v>
+        <v>0.05531499642376445</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.003299037203021881</v>
+        <v>-0.001995424241850632</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06112707796197166</v>
+        <v>0.0587393612341759</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05689641445501483</v>
+        <v>0.05569726853976961</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.002759855398015655</v>
+        <v>-0.002251895252567391</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1548696260486565</v>
+        <v>0.1538915565903781</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0563697352215479</v>
+        <v>0.05718171294891127</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.003824460925081558</v>
+        <v>-0.002804365515096825</v>
       </c>
       <c r="M156" t="n">
-        <v>0.3627047226485959</v>
+        <v>0.3663651647415967</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05567473684481026</v>
+        <v>0.05810106796218896</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.002136619712842042</v>
+        <v>-0.002676729258667258</v>
       </c>
       <c r="P156" t="n">
-        <v>0.5744956700840308</v>
+        <v>0.5494410110302352</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.0568078928206262</v>
+        <v>0.05610521065838966</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.003537700264397045</v>
+        <v>-0.001952787158406123</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06127071702811633</v>
+        <v>0.05885348489573014</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05769777240508547</v>
+        <v>0.05648173711075227</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.002760131355959663</v>
+        <v>-0.002251895252567391</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1554523406549413</v>
+        <v>0.1542678422526037</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05716367515424575</v>
+        <v>0.05798708918762832</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.003824460925081558</v>
+        <v>-0.002804365515096825</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3630093010159781</v>
+        <v>0.3673884979835901</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0564588880679766</v>
+        <v>0.05891939286306486</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.002136619712842042</v>
+        <v>-0.002676729258667258</v>
       </c>
       <c r="P157" t="n">
-        <v>0.574814273372754</v>
+        <v>0.550892330388108</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.0576080039871139</v>
+        <v>0.05689542489301486</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.003537700264397045</v>
+        <v>-0.001952787158406123</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06142127739038282</v>
+        <v>0.05895668695957181</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0584991303551561</v>
+        <v>0.05726620568173495</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.002759579440071648</v>
+        <v>-0.002251670063042134</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1559539851231061</v>
+        <v>0.1545779323561307</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0579576150869436</v>
+        <v>0.05879246542634538</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.003824460925081558</v>
+        <v>-0.002804365515096825</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3633514611113132</v>
+        <v>0.3685130062653771</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05724303929114294</v>
+        <v>0.05973771776394076</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.002136619712842042</v>
+        <v>-0.002676729258667258</v>
       </c>
       <c r="P158" t="n">
-        <v>0.5751103965617671</v>
+        <v>0.5520979358965911</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05840811515360159</v>
+        <v>0.05768563912764008</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.003537700264397045</v>
+        <v>-0.001952787158406123</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06156158010065711</v>
+        <v>0.05907378512221514</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05930048830522674</v>
+        <v>0.05805067425271761</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.002760131355959663</v>
+        <v>-0.002251670063042134</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1565175388431579</v>
+        <v>0.1549238372115379</v>
       </c>
       <c r="K159" t="n">
-        <v>0.05875155501964146</v>
+        <v>0.05959784166506245</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.003824460925081558</v>
+        <v>-0.002804365515096825</v>
       </c>
       <c r="M159" t="n">
-        <v>0.3635267133190717</v>
+        <v>0.3694778788883312</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05802719051430928</v>
+        <v>0.06055604266481666</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.002136619712842042</v>
+        <v>-0.002676729258667258</v>
       </c>
       <c r="P159" t="n">
-        <v>0.5756331596583409</v>
+        <v>0.5534574354309374</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05920822632008928</v>
+        <v>0.05847585336226528</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.003537700264397045</v>
+        <v>-0.001952787158406123</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06171693387677199</v>
+        <v>0.05918838411303592</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06010184625529737</v>
+        <v>0.05883514282370029</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.002869850050159125</v>
+        <v>-0.002448409720661044</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1570804406985312</v>
+        <v>0.1553056255633992</v>
       </c>
       <c r="K160" t="n">
-        <v>0.05954549495233932</v>
+        <v>0.0604032179037795</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.003913091050481853</v>
+        <v>-0.003095551218742958</v>
       </c>
       <c r="M160" t="n">
-        <v>0.363792538811375</v>
+        <v>0.3704886599484529</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05881134173747563</v>
+        <v>0.06137436756569257</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.002165836299132837</v>
+        <v>-0.002683725270209248</v>
       </c>
       <c r="P160" t="n">
-        <v>0.5758061991224713</v>
+        <v>0.5550511982668117</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.06000833748657698</v>
+        <v>0.05926606759689049</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.003850253038661669</v>
+        <v>-0.001933212716843234</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06185307235551243</v>
+        <v>0.05929228139261124</v>
       </c>
       <c r="G161" t="n">
-        <v>0.060903204205368</v>
+        <v>0.05961961139468296</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.002870424077571898</v>
+        <v>-0.00244816492864738</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1576417587392889</v>
+        <v>0.1555794398975497</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06033943488503718</v>
+        <v>0.06120859414249657</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.003913091050481853</v>
+        <v>-0.003095551218742958</v>
       </c>
       <c r="M161" t="n">
-        <v>0.363995731680672</v>
+        <v>0.3717004352674701</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05959549296064198</v>
+        <v>0.06219269246656847</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.002165836299132837</v>
+        <v>-0.002683725270209248</v>
       </c>
       <c r="P161" t="n">
-        <v>0.5763741562413462</v>
+        <v>0.5563957582188375</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.06080844865306467</v>
+        <v>0.0600562818315157</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.003850253038661669</v>
+        <v>-0.001933212716843234</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06201244820258801</v>
+        <v>0.0593855228001945</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06170456215543862</v>
+        <v>0.06040407996566563</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.002870424077571898</v>
+        <v>-0.002447675344620054</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1581797468309591</v>
+        <v>0.1559299801869627</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06113337481773504</v>
+        <v>0.06201397038121363</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.003913091050481853</v>
+        <v>-0.003095551218742958</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3640856590339174</v>
+        <v>0.3726946354478644</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06037964418380831</v>
+        <v>0.06301101736744437</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.002165836299132837</v>
+        <v>-0.002683725270209248</v>
       </c>
       <c r="P162" t="n">
-        <v>0.5765950836075984</v>
+        <v>0.5577312410025779</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06160855981955236</v>
+        <v>0.06084649606614091</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.003850253038661669</v>
+        <v>-0.001933212716843234</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06215215740912586</v>
+        <v>0.0594930522166835</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06250592010550926</v>
+        <v>0.0611885485366483</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.002870137063865512</v>
+        <v>-0.00244816492864738</v>
       </c>
       <c r="J163" t="n">
-        <v>0.158714179225191</v>
+        <v>0.1562543747465535</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06192731475043289</v>
+        <v>0.06281934661993069</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.003913091050481853</v>
+        <v>-0.003095551218742958</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3643201820931934</v>
+        <v>0.3737825013216483</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06116379540697466</v>
+        <v>0.06382934226832027</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.002165836299132837</v>
+        <v>-0.002683725270209248</v>
       </c>
       <c r="P163" t="n">
-        <v>0.5769661502719474</v>
+        <v>0.5589758215036312</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06240867098604006</v>
+        <v>0.0616367103007661</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.003850253038661669</v>
+        <v>-0.001933212716843234</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0622804828144254</v>
+        <v>0.05957346262562395</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06330727805557988</v>
+        <v>0.06197301710763097</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.002994736664411566</v>
+        <v>-0.002661969544078287</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1592441242001617</v>
+        <v>0.1565523875012459</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06272125468313075</v>
+        <v>0.06362472285864776</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.003998548867712265</v>
+        <v>-0.003435424296048884</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3644430781761934</v>
+        <v>0.3747005859667074</v>
       </c>
       <c r="N164" t="n">
-        <v>0.061947946630141</v>
+        <v>0.06464766716919616</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.002196995707511793</v>
+        <v>-0.002691065722910137</v>
       </c>
       <c r="P164" t="n">
-        <v>0.5769927285584638</v>
+        <v>0.5602902116613261</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06320878215252775</v>
+        <v>0.06242692453539131</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.004208506774886702</v>
+        <v>-0.001916408168765821</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06241435523265657</v>
+        <v>0.05968497148079278</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06410863600565053</v>
+        <v>0.06275748567861364</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.002995036138078007</v>
+        <v>-0.002662768214808584</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1597686500340478</v>
+        <v>0.1569272287642146</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06351519461582861</v>
+        <v>0.0644300990973648</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.003998548867712265</v>
+        <v>-0.003435424296048884</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3647123863372479</v>
+        <v>0.3757091180545757</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06273209785330734</v>
+        <v>0.06546599207007207</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.002196995707511793</v>
+        <v>-0.002691065722910137</v>
       </c>
       <c r="P165" t="n">
-        <v>0.5775032862874862</v>
+        <v>0.5615115678185176</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.06400889331901545</v>
+        <v>0.06321713877001651</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.004208506774886702</v>
+        <v>-0.001916408168765821</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.06252779170344001</v>
+        <v>0.05978613166178913</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06490999395572115</v>
+        <v>0.06354195424959631</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.002994437190745125</v>
+        <v>-0.002662235767655053</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1602447760498165</v>
+        <v>0.1571926563404763</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06430913454852646</v>
+        <v>0.06523547533608187</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.003998548867712265</v>
+        <v>-0.003435424296048884</v>
       </c>
       <c r="M166" t="n">
-        <v>0.3648717043071569</v>
+        <v>0.3767016482812922</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06351624907647369</v>
+        <v>0.06628431697094797</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.002196995707511793</v>
+        <v>-0.002691065722910137</v>
       </c>
       <c r="P166" t="n">
-        <v>0.5775893863738581</v>
+        <v>0.5629636880306753</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.06480900448550314</v>
+        <v>0.06400735300464172</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.004208506774886702</v>
+        <v>-0.001916408168765821</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.06268082228161734</v>
+        <v>0.05987699172467313</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06571135190579179</v>
+        <v>0.06432642282057899</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.002994736664411566</v>
+        <v>-0.002662768214808584</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1607977173912744</v>
+        <v>0.1575348189389372</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06510307448122432</v>
+        <v>0.06604085157479893</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.003998548867712265</v>
+        <v>-0.003435424296048884</v>
       </c>
       <c r="M167" t="n">
-        <v>0.3648702808718239</v>
+        <v>0.3777292305423394</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06430040029964001</v>
+        <v>0.06710264187182387</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.002196995707511793</v>
+        <v>-0.002699966477753687</v>
       </c>
       <c r="P167" t="n">
-        <v>0.5777488042886105</v>
+        <v>0.5640769352679281</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.06560911565199083</v>
+        <v>0.06479756723926693</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.004208506774886702</v>
+        <v>-0.001916408168765821</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.06278713233585771</v>
+        <v>0.05995760142989767</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06651270985586241</v>
+        <v>0.06511089139156165</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.003123142144201688</v>
+        <v>-0.002879448145973446</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1612792696565842</v>
+        <v>0.1578084833969907</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06589701441392219</v>
+        <v>0.06684622781351598</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.004076441901751131</v>
+        <v>-0.003792192248477075</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3651208753923314</v>
+        <v>0.3785789849632272</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06508455152280636</v>
+        <v>0.06792096677269976</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.002229084897930083</v>
+        <v>-0.002699966477753687</v>
       </c>
       <c r="P168" t="n">
-        <v>0.5779830637521305</v>
+        <v>0.5653380547728457</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.06640922681847852</v>
+        <v>0.06558778147389215</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.004581895766628309</v>
+        <v>-0.001901078025716453</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.06289817445336958</v>
+        <v>0.06002801166530301</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06731406780593305</v>
+        <v>0.06589535996254432</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.00312282989243762</v>
+        <v>-0.00287973606199644</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1617515772068442</v>
+        <v>0.1580548630577659</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06669095434662005</v>
+        <v>0.06765160405223306</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.004076441901751131</v>
+        <v>-0.003792192248477075</v>
       </c>
       <c r="M169" t="n">
-        <v>0.3653154157856552</v>
+        <v>0.3796190468954904</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0658687027459727</v>
+        <v>0.06873929167357566</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.002229084897930083</v>
+        <v>-0.002699966477753687</v>
       </c>
       <c r="P169" t="n">
-        <v>0.5782936834442166</v>
+        <v>0.5667468675959302</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.06720933798496621</v>
+        <v>0.06637799570851735</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.004581895766628309</v>
+        <v>-0.001901078025716453</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.06301377477218205</v>
+        <v>0.06012172467369635</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06811542575600367</v>
+        <v>0.066679828533527</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.00312282989243762</v>
+        <v>-0.002879160229950451</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1622349348364353</v>
+        <v>0.1583987509150975</v>
       </c>
       <c r="K170" t="n">
-        <v>0.06748489427931791</v>
+        <v>0.06845698029095011</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.004076441901751131</v>
+        <v>-0.003792192248477075</v>
       </c>
       <c r="M170" t="n">
-        <v>0.3654546944753571</v>
+        <v>0.3805835710556145</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06665285396913904</v>
+        <v>0.06955761657445157</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.002229084897930083</v>
+        <v>-0.002699966477753687</v>
       </c>
       <c r="P170" t="n">
-        <v>0.578599326804959</v>
+        <v>0.5678942694213541</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.0680094491514539</v>
+        <v>0.06716820994314256</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.004581895766628309</v>
+        <v>-0.001901078025716453</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.06315108458848341</v>
+        <v>0.06019703906568144</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06891678370607431</v>
+        <v>0.06746429710450967</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.003122517640673553</v>
+        <v>-0.002879448145973446</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1627072851954573</v>
+        <v>0.1586109292998023</v>
       </c>
       <c r="K171" t="n">
-        <v>0.06827883421201576</v>
+        <v>0.06926235652966717</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.004147138564136504</v>
+        <v>-0.00413421193373459</v>
       </c>
       <c r="M171" t="n">
-        <v>0.3654364087132134</v>
+        <v>0.3814174266483784</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06743700519230539</v>
+        <v>0.07037594147532747</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.002229084897930083</v>
+        <v>-0.002699966477753687</v>
       </c>
       <c r="P171" t="n">
-        <v>0.5789014410125501</v>
+        <v>0.5690239311990837</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.06880956031794161</v>
+        <v>0.06795842417776776</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.004581895766628309</v>
+        <v>-0.001888805658039884</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.06324926788883556</v>
+        <v>0.06028749872086794</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06971814165614494</v>
+        <v>0.06824876567549233</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.003243767056024291</v>
+        <v>-0.003086959675016513</v>
       </c>
       <c r="J172" t="n">
-        <v>0.163189013518069</v>
+        <v>0.1588787808267212</v>
       </c>
       <c r="K172" t="n">
-        <v>0.06907277414471362</v>
+        <v>0.07006773276838422</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.004147138564136504</v>
+        <v>-0.00413421193373459</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3656222099211813</v>
+        <v>0.3822780429942688</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06822115641547173</v>
+        <v>0.07119426637620338</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.002261128712498112</v>
+        <v>-0.002708958861687186</v>
       </c>
       <c r="P172" t="n">
-        <v>0.5790356832669434</v>
+        <v>0.5703809879201858</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.0696096714844293</v>
+        <v>0.06874863841239295</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.004944904010602213</v>
+        <v>-0.001888805658039884</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.0633427256607465</v>
+        <v>0.06037645502099689</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07051949960621558</v>
+        <v>0.06903323424647501</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.003244415809435495</v>
+        <v>-0.003087268340117505</v>
       </c>
       <c r="J173" t="n">
-        <v>0.163593876435934</v>
+        <v>0.1591605756728633</v>
       </c>
       <c r="K173" t="n">
-        <v>0.06986671407741146</v>
+        <v>0.07087310900710128</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.004147138564136504</v>
+        <v>-0.00413421193373459</v>
       </c>
       <c r="M173" t="n">
-        <v>0.3657036424002625</v>
+        <v>0.3831106584235476</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06900530763863806</v>
+        <v>0.07201259127707928</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.002261128712498112</v>
+        <v>-0.002708958861687186</v>
       </c>
       <c r="P173" t="n">
-        <v>0.5790862889748924</v>
+        <v>0.5715548708535584</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.07040978265091699</v>
+        <v>0.06953885264701816</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.004944904010602213</v>
+        <v>-0.001888805658039884</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.06343124839041989</v>
+        <v>0.06044719428468916</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07132085755628621</v>
+        <v>0.06981770281745768</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.003244091432729893</v>
+        <v>-0.00308634234481453</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1640703821916779</v>
+        <v>0.1593934269088183</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07066065401010932</v>
+        <v>0.07167848524581835</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.004147138564136504</v>
+        <v>-0.00413421193373459</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3658878180464611</v>
+        <v>0.3839135590140326</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0697894588618044</v>
+        <v>0.07283091617795517</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.002261128712498112</v>
+        <v>-0.002708958861687186</v>
       </c>
       <c r="P174" t="n">
-        <v>0.5794693346303182</v>
+        <v>0.5725439403761652</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.07120989381740468</v>
+        <v>0.07032906688164338</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.004944904010602213</v>
+        <v>-0.001888805658039884</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.063532033862568</v>
+        <v>0.06051655224945142</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07212221550635683</v>
+        <v>0.07060217138844034</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.003243767056024291</v>
+        <v>-0.003086651009915522</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1644894300138555</v>
+        <v>0.1596399439505795</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07145459394280718</v>
+        <v>0.07248386148453541</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.004147138564136504</v>
+        <v>-0.00413421193373459</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3661240509986429</v>
+        <v>0.3847384940003108</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07057361008497075</v>
+        <v>0.07364924107883108</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.002261128712498112</v>
+        <v>-0.002708958861687186</v>
       </c>
       <c r="P175" t="n">
-        <v>0.5797717278301207</v>
+        <v>0.5737584196258295</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.07201000498389237</v>
+        <v>0.07111928111626858</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.004944904010602213</v>
+        <v>-0.001888805658039884</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.06361878793717853</v>
+        <v>0.06060142740772553</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07292357345642747</v>
+        <v>0.07138663995942301</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.003349499624952308</v>
+        <v>-0.003270871926066893</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1648713241889702</v>
+        <v>0.1599210519962691</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07224853387550505</v>
+        <v>0.07328923772325246</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.004207779027617345</v>
+        <v>-0.004428170911443573</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3662583718335399</v>
+        <v>0.3854233599898941</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07135776130813709</v>
+        <v>0.07446756597970698</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.002289897596892919</v>
+        <v>-0.002718194453524664</v>
       </c>
       <c r="P176" t="n">
-        <v>0.5799118692132491</v>
+        <v>0.5749509494327316</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.07281011615038006</v>
+        <v>0.07190949535089379</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.005270229787536799</v>
+        <v>-0.001879449662734349</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.06371743487224073</v>
+        <v>0.0606851061397367</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07372493140649809</v>
+        <v>0.07217110853040569</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.003349834608413149</v>
+        <v>-0.003271526165876087</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1652365428718733</v>
+        <v>0.1601737117576109</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0730424738082029</v>
+        <v>0.07409461396196954</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.004207779027617345</v>
+        <v>-0.004428170911443573</v>
       </c>
       <c r="M177" t="n">
-        <v>0.3663947948169454</v>
+        <v>0.3861268325309064</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07214191253130343</v>
+        <v>0.07528589088058288</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.002289897596892919</v>
+        <v>-0.002718194453524664</v>
       </c>
       <c r="P177" t="n">
-        <v>0.5799740776448046</v>
+        <v>0.5757902383004651</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.07361022731686777</v>
+        <v>0.072699709585519</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.005270229787536799</v>
+        <v>-0.001879449662734349</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.06379289719872096</v>
+        <v>0.06075081413254263</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07452628935656873</v>
+        <v>0.07295557710138836</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.003349834608413149</v>
+        <v>-0.003270871926066893</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1656272851493309</v>
+        <v>0.1603556415623681</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07383641374090076</v>
+        <v>0.07489999020068659</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.004207779027617345</v>
+        <v>-0.004428170911443573</v>
       </c>
       <c r="M178" t="n">
-        <v>0.3664308704769471</v>
+        <v>0.3867937345443974</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07292606375446978</v>
+        <v>0.07610421578145878</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.002289897596892919</v>
+        <v>-0.002718194453524664</v>
       </c>
       <c r="P178" t="n">
-        <v>0.5803748753339026</v>
+        <v>0.5771010037560562</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.07441033848335546</v>
+        <v>0.0734899238201442</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.005270229787536799</v>
+        <v>-0.001879449662734349</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.06386238849323575</v>
+        <v>0.06084074819280015</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07532764730663936</v>
+        <v>0.07374004567237102</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.003349499624952308</v>
+        <v>-0.003271526165876087</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1659564442610168</v>
+        <v>0.1605717916450086</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07463035367359862</v>
+        <v>0.07570536643940366</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.004207779027617345</v>
+        <v>-0.004428170911443573</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3665223218442422</v>
+        <v>0.38736861524666</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07371021497763612</v>
+        <v>0.07692254068233467</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.002289897596892919</v>
+        <v>-0.002718194453524664</v>
       </c>
       <c r="P179" t="n">
-        <v>0.5807007300326131</v>
+        <v>0.5779734299492904</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07521044964984315</v>
+        <v>0.07428013805476941</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.005270229787536799</v>
+        <v>-0.001879449662734349</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.06389947409182499</v>
+        <v>0.06088753050097706</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07612900525671</v>
+        <v>0.0745245142433537</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.003430502396945082</v>
+        <v>-0.00341962591190038</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1663310388316915</v>
+        <v>0.1608010748975525</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07542429360629647</v>
+        <v>0.07651074267812071</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.004257133878661941</v>
+        <v>-0.004641796817538737</v>
       </c>
       <c r="M180" t="n">
-        <v>0.366773371510112</v>
+        <v>0.3879571755825284</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07449436620080245</v>
+        <v>0.07774086558321058</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.002315326312140196</v>
+        <v>-0.002724836134585607</v>
       </c>
       <c r="P180" t="n">
-        <v>0.58070378393792</v>
+        <v>0.578902431565582</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.07601056081633084</v>
+        <v>0.07507035228939463</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.005525642548465748</v>
+        <v>-0.001872504738386101</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.06395637328595799</v>
+        <v>0.06097560193537982</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07693036320678064</v>
+        <v>0.07530898281433637</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.003430502396945082</v>
+        <v>-0.00341962591190038</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1665987890457432</v>
+        <v>0.1609801185503449</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07621823353899433</v>
+        <v>0.07731611891683776</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.004257133878661941</v>
+        <v>-0.004641796817538737</v>
       </c>
       <c r="M181" t="n">
-        <v>0.3668748673058584</v>
+        <v>0.3886117286007007</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07527851742396879</v>
+        <v>0.07855919048408648</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.002315326312140196</v>
+        <v>-0.002724836134585607</v>
       </c>
       <c r="P181" t="n">
-        <v>0.5811331180941012</v>
+        <v>0.5799703816465202</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.07681067198281853</v>
+        <v>0.07586056652401983</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.005525642548465748</v>
+        <v>-0.001872504738386101</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.06402417435578255</v>
+        <v>0.06103751255778135</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07773172115685126</v>
+        <v>0.07609345138531905</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.003429473452014985</v>
+        <v>-0.003418942123475685</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1668508478231359</v>
+        <v>0.1611509006300865</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07701217347169219</v>
+        <v>0.07812149515555483</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.004257133878661941</v>
+        <v>-0.004641796817538737</v>
       </c>
       <c r="M182" t="n">
-        <v>0.3670343196740842</v>
+        <v>0.3891152596253197</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07606266864713515</v>
+        <v>0.07937751538496239</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.002315326312140196</v>
+        <v>-0.002724836134585607</v>
       </c>
       <c r="P182" t="n">
-        <v>0.5814917880133329</v>
+        <v>0.5808445563940461</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07761078314930622</v>
+        <v>0.07665078075864502</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.005525642548465748</v>
+        <v>-0.001872504738386101</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.06406766729029183</v>
+        <v>0.06110712073171269</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07853307910692189</v>
+        <v>0.07687791995630171</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.003429816433658351</v>
+        <v>-0.003418600229263338</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1672212790401942</v>
+        <v>0.1613555559718514</v>
       </c>
       <c r="K183" t="n">
-        <v>0.07780611340439005</v>
+        <v>0.07892687139427189</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.004257133878661941</v>
+        <v>-0.004641796817538737</v>
       </c>
       <c r="M183" t="n">
-        <v>0.3672526130690297</v>
+        <v>0.3894657528473753</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07684681987030149</v>
+        <v>0.08019584028583829</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.002334614766642986</v>
+        <v>-0.002724836134585607</v>
       </c>
       <c r="P183" t="n">
-        <v>0.5816980019510382</v>
+        <v>0.5819393828215239</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.07841089431579391</v>
+        <v>0.07744099499327023</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.005525642548465748</v>
+        <v>-0.001872504738386101</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.06409537501246984</v>
+        <v>0.06117605634333409</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07933443705699252</v>
+        <v>0.07766238852728438</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.003474436092927663</v>
+        <v>-0.003517712677185418</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1674005873482076</v>
+        <v>0.1615305941997047</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0786000533370879</v>
+        <v>0.07973224763298896</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.004293136829552874</v>
+        <v>-0.004742858797468763</v>
       </c>
       <c r="M184" t="n">
-        <v>0.3673754237576778</v>
+        <v>0.389877198185382</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07763097109346784</v>
+        <v>0.08101416518671418</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.002334614766642986</v>
+        <v>-0.002730394647724788</v>
       </c>
       <c r="P184" t="n">
-        <v>0.5820026061038602</v>
+        <v>0.5826718148318976</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.07921100548228162</v>
+        <v>0.07823120922789543</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.005686754679585536</v>
+        <v>-0.001868594540239203</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.06414212924265321</v>
+        <v>0.06126134608460353</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08013579500706315</v>
+        <v>0.07844685709826706</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.003473393970524265</v>
+        <v>-0.003517712677185418</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1676645311997303</v>
+        <v>0.1616969937448439</v>
       </c>
       <c r="K185" t="n">
-        <v>0.07939399326978576</v>
+        <v>0.08053762387170602</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.004293136829552874</v>
+        <v>-0.004742858797468763</v>
       </c>
       <c r="M185" t="n">
-        <v>0.3675587485427988</v>
+        <v>0.3902941044049457</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07841512231663417</v>
+        <v>0.08183249008759008</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.002334614766642986</v>
+        <v>-0.002730394647724788</v>
       </c>
       <c r="P185" t="n">
-        <v>0.5824071405285182</v>
+        <v>0.5836233931422325</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.08001111664876931</v>
+        <v>0.07902142346252065</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.005686754679585536</v>
+        <v>-0.001868594540239203</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.06416391564021126</v>
+        <v>0.06132069952639879</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08093715295713377</v>
+        <v>0.07923132566924973</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.003473393970524265</v>
+        <v>-0.003518064413279526</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1678164401392048</v>
+        <v>0.1618334405881682</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08018793320248363</v>
+        <v>0.08134300011042307</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.004293136829552874</v>
+        <v>-0.004742858797468763</v>
       </c>
       <c r="M186" t="n">
-        <v>0.3678034790403584</v>
+        <v>0.3905526857311403</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07919927353980051</v>
+        <v>0.08265081498846598</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.002334614766642986</v>
+        <v>-0.002730394647724788</v>
       </c>
       <c r="P186" t="n">
-        <v>0.5827466395694202</v>
+        <v>0.5846270622056268</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.080811227815257</v>
+        <v>0.07981163769714586</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.005686754679585536</v>
+        <v>-0.001868594540239203</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.06417813688509796</v>
+        <v>0.0613965745844748</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08173851090720442</v>
+        <v>0.08001579424023239</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.003473741344658731</v>
+        <v>-0.003517712677185418</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1680513707151706</v>
+        <v>0.1620276950686665</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08098187313518149</v>
+        <v>0.08214837634914013</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.004293136829552874</v>
+        <v>-0.004742858797468763</v>
       </c>
       <c r="M187" t="n">
-        <v>0.3679551262740721</v>
+        <v>0.3907592191072348</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07998342476296685</v>
+        <v>0.08346913988934189</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.002334614766642986</v>
+        <v>-0.002733116927789958</v>
       </c>
       <c r="P187" t="n">
-        <v>0.5829391560213886</v>
+        <v>0.5851809595462987</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.08161133898174469</v>
+        <v>0.08060185193177107</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.005686754679585536</v>
+        <v>-0.001868594540239203</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.0641629528092503</v>
+        <v>0.06143811820812807</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08253986885727504</v>
+        <v>0.08080026281121507</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.003475448860286931</v>
+        <v>-0.003551535651882422</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1681286559396357</v>
+        <v>0.1621551009270823</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08177581306787934</v>
+        <v>0.08295375258785719</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.004314144302868106</v>
+        <v>-0.004723293458279361</v>
       </c>
       <c r="M188" t="n">
-        <v>0.3682734862604354</v>
+        <v>0.391128414806666</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0807675759861332</v>
+        <v>0.08428746479021779</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.002347508356800769</v>
+        <v>-0.002733116927789958</v>
       </c>
       <c r="P188" t="n">
-        <v>0.5834025701388247</v>
+        <v>0.5860510620909215</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08241145014823238</v>
+        <v>0.08139206616639627</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.005727065787870671</v>
+        <v>-0.001869913697878739</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.06418229285205961</v>
+        <v>0.06150484991537331</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08334122680734568</v>
+        <v>0.08158473138219774</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.003475101384895981</v>
+        <v>-0.003550470404236387</v>
       </c>
       <c r="J189" t="n">
-        <v>0.168287224442063</v>
+        <v>0.1623005213505</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0825697530005772</v>
+        <v>0.08375912882657426</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.004314144302868106</v>
+        <v>-0.004723293458279361</v>
       </c>
       <c r="M189" t="n">
-        <v>0.3684485581244094</v>
+        <v>0.3911717029620377</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08155172720929954</v>
+        <v>0.08510578969109368</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.002347508356800769</v>
+        <v>-0.002733116927789958</v>
       </c>
       <c r="P189" t="n">
-        <v>0.5838113152417126</v>
+        <v>0.5867575138688748</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.08321156131472007</v>
+        <v>0.08218228040102148</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.005727065787870671</v>
+        <v>-0.001869913697878739</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.06419234122665234</v>
+        <v>0.0615973965431658</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08414258475741632</v>
+        <v>0.08236919995318041</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.003475101384895981</v>
+        <v>-0.003550470404236387</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1683516183724377</v>
+        <v>0.162464075748778</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08336369293327504</v>
+        <v>0.08456450506529131</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.004314144302868106</v>
+        <v>-0.004723293458279361</v>
       </c>
       <c r="M190" t="n">
-        <v>0.3685846976405786</v>
+        <v>0.391374316491701</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08233587843246588</v>
+        <v>0.08592411459196959</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.002347508356800769</v>
+        <v>-0.002733116927789958</v>
       </c>
       <c r="P190" t="n">
-        <v>0.5840903853268153</v>
+        <v>0.5878019513498709</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08401167248120778</v>
+        <v>0.08297249463564668</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.005727065787870671</v>
+        <v>-0.001869913697878739</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.06421065596938981</v>
+        <v>0.06166497392313236</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08494394270748694</v>
+        <v>0.08315366852416307</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.00347475390950503</v>
+        <v>-0.003551180569333743</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1683863600416269</v>
+        <v>0.1626033652593354</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0841576328659729</v>
+        <v>0.08536988130400837</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.004314144302868106</v>
+        <v>-0.004723293458279361</v>
       </c>
       <c r="M191" t="n">
-        <v>0.3689421063790225</v>
+        <v>0.3913642519776129</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08312002965563221</v>
+        <v>0.08674243949284549</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.002347508356800769</v>
+        <v>-0.002733116927789958</v>
       </c>
       <c r="P191" t="n">
-        <v>0.5846552496137265</v>
+        <v>0.5883462745946677</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08481178364769547</v>
+        <v>0.08376270887027189</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.005727065787870671</v>
+        <v>-0.001869913697878739</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.06422848816844204</v>
+        <v>0.06172450629714774</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08574530065755757</v>
+        <v>0.08393813709514575</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.003448253065160964</v>
+        <v>-0.003539362480656414</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1684779006773498</v>
+        <v>0.1627184238756508</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08495157279867076</v>
+        <v>0.08617525754272544</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.004319867632698424</v>
+        <v>-0.004631065849923127</v>
       </c>
       <c r="M192" t="n">
-        <v>0.369210439021493</v>
+        <v>0.3914543894918342</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08390418087879856</v>
+        <v>0.0875607643937214</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.002350376036173561</v>
+        <v>-0.002731975980648976</v>
       </c>
       <c r="P192" t="n">
-        <v>0.5853376655803276</v>
+        <v>0.5892276534996188</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.08561189481418316</v>
+        <v>0.08455292310489709</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.005663806052552999</v>
+        <v>-0.001879639321370552</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06421076812198308</v>
+        <v>0.061784443003029</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0865466586076282</v>
+        <v>0.08472260566612842</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.003448597924953459</v>
+        <v>-0.003538300884231502</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1684575442303627</v>
+        <v>0.1628731429086185</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08574551273136861</v>
+        <v>0.0869806337814425</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.004319867632698424</v>
+        <v>-0.004631065849923127</v>
       </c>
       <c r="M193" t="n">
-        <v>0.3694463542094574</v>
+        <v>0.3914883730290742</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0846883321019649</v>
+        <v>0.0883790892945973</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.002350376036173561</v>
+        <v>-0.002731975980648976</v>
       </c>
       <c r="P193" t="n">
-        <v>0.5858018683443161</v>
+        <v>0.5901104108719667</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.08641200598067085</v>
+        <v>0.0853431373395223</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.005663806052552999</v>
+        <v>-0.001879639321370552</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.06423646434137621</v>
+        <v>0.06184472496053268</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08734801655769883</v>
+        <v>0.08550707423711108</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.00344928764453845</v>
+        <v>-0.003539008615181443</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1684126596772105</v>
+        <v>0.1630037826148072</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08653945266406649</v>
+        <v>0.08778601002015955</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.004319867632698424</v>
+        <v>-0.004631065849923127</v>
       </c>
       <c r="M194" t="n">
-        <v>0.3697131405127707</v>
+        <v>0.3914121299583658</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08547248332513124</v>
+        <v>0.08919741419547318</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.002350376036173561</v>
+        <v>-0.002731975980648976</v>
       </c>
       <c r="P194" t="n">
-        <v>0.5862129634229492</v>
+        <v>0.590993923039174</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.08721211714715854</v>
+        <v>0.0861333515741475</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.005663806052552999</v>
+        <v>-0.001879639321370552</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.06423541710708944</v>
+        <v>0.06193946367907334</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08814937450776947</v>
+        <v>0.08629154280809376</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.003400506598912303</v>
+        <v>-0.003539008615181443</v>
       </c>
       <c r="J195" t="n">
-        <v>0.168475969871611</v>
+        <v>0.1631316906203357</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08733339259676434</v>
+        <v>0.08859138625887661</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.004319867632698424</v>
+        <v>-0.004631065849923127</v>
       </c>
       <c r="M195" t="n">
-        <v>0.3701661161179449</v>
+        <v>0.3914422978810348</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08625663454829759</v>
+        <v>0.09001573909634909</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.002350376036173561</v>
+        <v>-0.002731975980648976</v>
       </c>
       <c r="P195" t="n">
-        <v>0.5870712502173511</v>
+        <v>0.591540916047716</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.08801222831364623</v>
+        <v>0.08692356580877271</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.005663806052552999</v>
+        <v>-0.001879639321370552</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06426028751865447</v>
+        <v>0.06200028673693403</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0889507324578401</v>
+        <v>0.08707601137907643</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.003400506598912303</v>
+        <v>-0.003507376006705279</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1684071991639937</v>
+        <v>0.1632356191470207</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0881273325294622</v>
+        <v>0.08939676249759367</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.004291077416395074</v>
+        <v>-0.004479146689808703</v>
       </c>
       <c r="M196" t="n">
-        <v>0.3705959354343273</v>
+        <v>0.3914165324768996</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08704078577146393</v>
+        <v>0.09083406399722499</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.002348880580230194</v>
+        <v>-0.002722525080519746</v>
       </c>
       <c r="P196" t="n">
-        <v>0.5875384738849274</v>
+        <v>0.5925922310709272</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.08881233948013394</v>
+        <v>0.08771378004339792</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.005525481371257889</v>
+        <v>-0.00189879300864826</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.06424967420673194</v>
+        <v>0.06206127802003134</v>
       </c>
       <c r="G197" t="n">
-        <v>0.08975209040791073</v>
+        <v>0.08786047995005911</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.003400506598912303</v>
+        <v>-0.003506674601644443</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1684029371550676</v>
+        <v>0.163358278836454</v>
       </c>
       <c r="K197" t="n">
-        <v>0.08892127246216006</v>
+        <v>0.09020213873631074</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.004291077416395074</v>
+        <v>-0.004479146689808703</v>
       </c>
       <c r="M197" t="n">
-        <v>0.3709489235946369</v>
+        <v>0.3916056531877411</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08782493699463027</v>
+        <v>0.0916523888981009</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.002348880580230194</v>
+        <v>-0.002722525080519746</v>
       </c>
       <c r="P197" t="n">
-        <v>0.5881149348178307</v>
+        <v>0.5931368151587371</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.08961245064662163</v>
+        <v>0.08850399427802313</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.005525481371257889</v>
+        <v>-0.00189879300864826</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.06425624510472056</v>
+        <v>0.06213950551463571</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09055344835798136</v>
+        <v>0.08864494852104177</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.003399486650922228</v>
+        <v>-0.003507025304174861</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1684631805544399</v>
+        <v>0.1635211301137167</v>
       </c>
       <c r="K198" t="n">
-        <v>0.08971521239485791</v>
+        <v>0.09100751497502779</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.004291077416395074</v>
+        <v>-0.004479146689808703</v>
       </c>
       <c r="M198" t="n">
-        <v>0.3712754822874186</v>
+        <v>0.3916307036444725</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0886090882177966</v>
+        <v>0.0924707137989768</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.002348880580230194</v>
+        <v>-0.002722525080519746</v>
       </c>
       <c r="P198" t="n">
-        <v>0.589050836767259</v>
+        <v>0.5941010291573195</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.09041256181310932</v>
+        <v>0.08929420851264834</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.005525481371257889</v>
+        <v>-0.00189879300864826</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06426247072605741</v>
+        <v>0.06221781113034879</v>
       </c>
       <c r="G199" t="n">
-        <v>0.091354806308052</v>
+        <v>0.08942941709202444</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.003399486650922228</v>
+        <v>-0.003507726709235696</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1684131936801244</v>
+        <v>0.1635748020781368</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09050915232755577</v>
+        <v>0.09181289121374485</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.004291077416395074</v>
+        <v>-0.004479146689808703</v>
       </c>
       <c r="M199" t="n">
-        <v>0.371730522018371</v>
+        <v>0.3916000492444199</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08939323944096295</v>
+        <v>0.09328903869985269</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.002348880580230194</v>
+        <v>-0.002722525080519746</v>
       </c>
       <c r="P199" t="n">
-        <v>0.5895057795835028</v>
+        <v>0.594978554993189</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.09121267297959701</v>
+        <v>0.09008442274727355</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.005525481371257889</v>
+        <v>-0.00189879300864826</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06426837093917</v>
+        <v>0.06226182613183172</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09215616425812262</v>
+        <v>0.09021388566300712</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.003333389955783346</v>
+        <v>-0.003459344802258212</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1684495524280178</v>
+        <v>0.1637115364150326</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09130309226025363</v>
+        <v>0.09261826745246192</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.004222721480929286</v>
+        <v>-0.004279079232945248</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3722606094381284</v>
+        <v>0.3915679189551163</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09017739066412929</v>
+        <v>0.09410736360072861</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.00234628348096617</v>
+        <v>-0.002706205606037581</v>
       </c>
       <c r="P200" t="n">
-        <v>0.5904852016139764</v>
+        <v>0.5956839700400801</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.0920127841460847</v>
+        <v>0.09087463698189874</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.00532380241489278</v>
+        <v>-0.001924685918603101</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.06426518781224574</v>
+        <v>0.06235725204074313</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09295752220819326</v>
+        <v>0.09099835423398979</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.003332390138760016</v>
+        <v>-0.003459344802258212</v>
       </c>
       <c r="J201" t="n">
-        <v>0.168397529921727</v>
+        <v>0.1638246343651641</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09209703219295148</v>
+        <v>0.09342364369117898</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.004222721480929286</v>
+        <v>-0.004279079232945248</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3727598623065629</v>
+        <v>0.3915885508322994</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09096154188729563</v>
+        <v>0.0949256885016045</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.00234628348096617</v>
+        <v>-0.002706205606037581</v>
       </c>
       <c r="P201" t="n">
-        <v>0.5910636073288178</v>
+        <v>0.5963008161091872</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.09281289531257239</v>
+        <v>0.09166485121652394</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.00532380241489278</v>
+        <v>-0.001924685918603101</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06428805294557269</v>
+        <v>0.06242683288820554</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09375888015826389</v>
+        <v>0.09178282280497245</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.003332390138760016</v>
+        <v>-0.003458653071643883</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1683881702296939</v>
+        <v>0.1639569248739867</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09289097212564934</v>
+        <v>0.09422901992989603</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.004222721480929286</v>
+        <v>-0.004279079232945248</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3732789787021564</v>
+        <v>0.3915537082667725</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09174569311046198</v>
+        <v>0.0957440134024804</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.00234628348096617</v>
+        <v>-0.002706205606037581</v>
       </c>
       <c r="P202" t="n">
-        <v>0.5918274942714418</v>
+        <v>0.5972518195381982</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.09361300647906008</v>
+        <v>0.09245506545114916</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.00532380241489278</v>
+        <v>-0.001924685918603101</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06430187548435755</v>
+        <v>0.06247044710911683</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09456023810833453</v>
+        <v>0.09256729137595512</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.003332390138760016</v>
+        <v>-0.003458307206336719</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1683559549440852</v>
+        <v>0.1640871119188695</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09368491205834721</v>
+        <v>0.09503439616861309</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.004121217525445219</v>
+        <v>-0.004279079232945248</v>
       </c>
       <c r="M203" t="n">
-        <v>0.3738688600812057</v>
+        <v>0.3917342775769033</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09252984433362832</v>
+        <v>0.0965623383033563</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.00234628348096617</v>
+        <v>-0.002706205606037581</v>
       </c>
       <c r="P203" t="n">
-        <v>0.5927756687303187</v>
+        <v>0.5981133194515934</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.09441311764554779</v>
+        <v>0.09324527968577437</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.00532380241489278</v>
+        <v>-0.001924685918603101</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.06428911507792777</v>
+        <v>0.06254821005554365</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09536159605840515</v>
+        <v>0.0933517599469378</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.003249173406572829</v>
+        <v>-0.003394494358882462</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1683882345882027</v>
+        <v>0.1641938555585982</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09447885199104507</v>
+        <v>0.09583977240733015</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.004121217525445219</v>
+        <v>-0.00403996035404993</v>
       </c>
       <c r="M204" t="n">
-        <v>0.374475755484896</v>
+        <v>0.3917512081736377</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09331399555679466</v>
+        <v>0.09738066320423219</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.002341489051780209</v>
+        <v>-0.00268368869068417</v>
       </c>
       <c r="P204" t="n">
-        <v>0.593400914703716</v>
+        <v>0.5987147143738576</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.09521322881203548</v>
+        <v>0.09403549392039957</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.005066860111507189</v>
+        <v>-0.001956716540112743</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.06428490650402509</v>
+        <v>0.06263430932905749</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09616295400847578</v>
+        <v>0.09413622851792047</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.003249173406572829</v>
+        <v>-0.003394154943388123</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1683976572478249</v>
+        <v>0.1642557739828175</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09527279192374291</v>
+        <v>0.09664514864604722</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.004121217525445219</v>
+        <v>-0.00403996035404993</v>
       </c>
       <c r="M205" t="n">
-        <v>0.3749407071364255</v>
+        <v>0.3917128953276739</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09409814677996101</v>
+        <v>0.0981989881051081</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.002341489051780209</v>
+        <v>-0.00268368869068417</v>
       </c>
       <c r="P205" t="n">
-        <v>0.5942071447666611</v>
+        <v>0.5995643778627171</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.09601333997852317</v>
+        <v>0.09482570815502478</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.005066860111507189</v>
+        <v>-0.001956716540112743</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.06429805127707611</v>
+        <v>0.06269423056882488</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09696431195854642</v>
+        <v>0.09492069708890313</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.003248848554202646</v>
+        <v>-0.0033948337743768</v>
       </c>
       <c r="J206" t="n">
-        <v>0.168340558775428</v>
+        <v>0.1643800605847536</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09606673185644077</v>
+        <v>0.09745052488476427</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.004121217525445219</v>
+        <v>-0.00403996035404993</v>
       </c>
       <c r="M206" t="n">
-        <v>0.3756295806203344</v>
+        <v>0.3917277480827036</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09488229800312735</v>
+        <v>0.099017313005984</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.002341489051780209</v>
+        <v>-0.00268368869068417</v>
       </c>
       <c r="P206" t="n">
-        <v>0.5949396833577645</v>
+        <v>0.600322277154992</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.09681345114501086</v>
+        <v>0.09561592238964998</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.005066860111507189</v>
+        <v>-0.001956716540112743</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.06431101057526258</v>
+        <v>0.0627623563694444</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09776566990861704</v>
+        <v>0.09570516565988581</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.003248848554202646</v>
+        <v>-0.003394494358882462</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1683261154687773</v>
+        <v>0.1644596533480731</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09686067178913862</v>
+        <v>0.09825590112348133</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.004121217525445219</v>
+        <v>-0.00403996035404993</v>
       </c>
       <c r="M207" t="n">
-        <v>0.3761733189540677</v>
+        <v>0.391633343423383</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09566644922629369</v>
+        <v>0.09983563790685991</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.002341489051780209</v>
+        <v>-0.002655375886817412</v>
       </c>
       <c r="P207" t="n">
-        <v>0.5958503860194062</v>
+        <v>0.6009875609902232</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.09761356231149855</v>
+        <v>0.09640613662427519</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.005066860111507189</v>
+        <v>-0.001993550388995914</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06432380421508695</v>
+        <v>0.06283001565207319</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09856702785868768</v>
+        <v>0.09648963423086848</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.003149892923725529</v>
+        <v>-0.003314910964444917</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1683106570762727</v>
+        <v>0.1645374797427826</v>
       </c>
       <c r="K208" t="n">
-        <v>0.09765461172183648</v>
+        <v>0.0990612773621984</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.003991247452682413</v>
+        <v>-0.003777929223759507</v>
       </c>
       <c r="M208" t="n">
-        <v>0.3767279204194489</v>
+        <v>0.3917006025718103</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09645060044946004</v>
+        <v>0.1006539628077358</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.002334578898384911</v>
+        <v>-0.002655375886817412</v>
       </c>
       <c r="P208" t="n">
-        <v>0.5968534306012575</v>
+        <v>0.6018149016609106</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.09841367347798624</v>
+        <v>0.0971963508589004</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.004771636737292823</v>
+        <v>-0.001993550388995914</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.0643101077776292</v>
+        <v>0.06290578870475602</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0993683858087583</v>
+        <v>0.09727410280185116</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.003150207913017901</v>
+        <v>-0.003314579473348473</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1683378429804327</v>
+        <v>0.1646565473632547</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09844855165453434</v>
+        <v>0.09986665360091546</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.003991247452682413</v>
+        <v>-0.003777929223759507</v>
       </c>
       <c r="M209" t="n">
-        <v>0.3774501050690797</v>
+        <v>0.3917129306834355</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09723475167262637</v>
+        <v>0.1014722877086117</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.002334578898384911</v>
+        <v>-0.002655375886817412</v>
       </c>
       <c r="P209" t="n">
-        <v>0.5976931620837442</v>
+        <v>0.6023778862964375</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.09921378464447395</v>
+        <v>0.0979865650935256</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.004771636737292823</v>
+        <v>-0.001993550388995914</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.06433141024870379</v>
+        <v>0.06294640697880891</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1001697437588289</v>
+        <v>0.09805857137283382</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.003149577934433156</v>
+        <v>-0.003314579473348473</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1682766972164609</v>
+        <v>0.1647310890485219</v>
       </c>
       <c r="K210" t="n">
-        <v>0.0992424915872322</v>
+        <v>0.1006720298396325</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.003991247452682413</v>
+        <v>-0.003777929223759507</v>
       </c>
       <c r="M210" t="n">
-        <v>0.3780749677338119</v>
+        <v>0.3917787477341776</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09801890289579271</v>
+        <v>0.1022906126094876</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.002334578898384911</v>
+        <v>-0.002655375886817412</v>
       </c>
       <c r="P210" t="n">
-        <v>0.5982825882728711</v>
+        <v>0.6031018301269035</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.1000138958109616</v>
+        <v>0.09877677932815081</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.004771636737292823</v>
+        <v>-0.001993550388995914</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.06431747871087247</v>
+        <v>0.06303825722438051</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1009711017088996</v>
+        <v>0.09884303994381649</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.003041988350836828</v>
+        <v>-0.003314579473348473</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1683018484799015</v>
+        <v>0.1648685469438165</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1000364315199301</v>
+        <v>0.1014774060783496</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.003991247452682413</v>
+        <v>-0.003777929223759507</v>
       </c>
       <c r="M211" t="n">
-        <v>0.3787063735101444</v>
+        <v>0.3918439622416517</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09880305411895905</v>
+        <v>0.1031089375103635</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.002334578898384911</v>
+        <v>-0.002655375886817412</v>
       </c>
       <c r="P211" t="n">
-        <v>0.5992986664329506</v>
+        <v>0.6040719337015975</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.1008140069774493</v>
+        <v>0.09956699356277601</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.004771636737292823</v>
+        <v>-0.001993550388995914</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.064321023762639</v>
+        <v>0.06310346728821266</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1017724596589702</v>
+        <v>0.09962750851479917</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.003042292580094837</v>
+        <v>-0.003224639258602429</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1682386835615113</v>
+        <v>0.1649186229256359</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1008303714526279</v>
+        <v>0.1022827823170666</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.003835990063408276</v>
+        <v>-0.003500606501822274</v>
       </c>
       <c r="M212" t="n">
-        <v>0.3792369945115899</v>
+        <v>0.391854478202339</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0995872053421254</v>
+        <v>0.1039272624112394</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.002326799973300889</v>
+        <v>-0.002622727660269143</v>
       </c>
       <c r="P212" t="n">
-        <v>0.5999759596715609</v>
+        <v>0.6046899830358975</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.101614118143937</v>
+        <v>0.1003572077974012</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.004446796675688928</v>
+        <v>-0.002032247328415441</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06433328454958716</v>
+        <v>0.06315058500030078</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1025738176090408</v>
+        <v>0.1004119770857818</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.003042901038610856</v>
+        <v>-0.003224961690285121</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1682618015566694</v>
+        <v>0.165074810541153</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1016243113853258</v>
+        <v>0.1030881585557837</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.003835990063408276</v>
+        <v>-0.003500606501822274</v>
       </c>
       <c r="M213" t="n">
-        <v>0.3798239293721514</v>
+        <v>0.3918645468566948</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1003713565652917</v>
+        <v>0.1047455873121153</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.002326799973300889</v>
+        <v>-0.002622727660269143</v>
       </c>
       <c r="P213" t="n">
-        <v>0.6010776169181853</v>
+        <v>0.605211102603363</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1024142293104247</v>
+        <v>0.1011474220320264</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.004446796675688928</v>
+        <v>-0.002032247328415441</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.06433671557551593</v>
+        <v>0.06320552868997774</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1033751755591115</v>
+        <v>0.1011964456567645</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.003041988350836828</v>
+        <v>-0.003224639258602429</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1681966204769425</v>
+        <v>0.1651006875227341</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1024182513180236</v>
+        <v>0.1038935347945008</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.003835990063408276</v>
+        <v>-0.003500606501822274</v>
       </c>
       <c r="M214" t="n">
-        <v>0.3805189408447255</v>
+        <v>0.3917658938088854</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1011555077884581</v>
+        <v>0.1055639122129912</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.002326799973300889</v>
+        <v>-0.002622727660269143</v>
       </c>
       <c r="P214" t="n">
-        <v>0.6017515023339767</v>
+        <v>0.6059768586063482</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1032143404769124</v>
+        <v>0.1019376362666516</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.004446796675688928</v>
+        <v>-0.002032247328415441</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.06433133567964801</v>
+        <v>0.06329429302519246</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1041765335091821</v>
+        <v>0.1019809142277472</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.003041988350836828</v>
+        <v>-0.003223994395237046</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1681958891699518</v>
+        <v>0.1651898582627176</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1032121912507215</v>
+        <v>0.1046989110332178</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.003835990063408276</v>
+        <v>-0.003221539266131145</v>
       </c>
       <c r="M215" t="n">
-        <v>0.381267817979779</v>
+        <v>0.391721124787428</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1019396590116244</v>
+        <v>0.1063822371138671</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.002326799973300889</v>
+        <v>-0.002622727660269143</v>
       </c>
       <c r="P215" t="n">
-        <v>0.6025915147634177</v>
+        <v>0.6068159066050471</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.1040144516434001</v>
+        <v>0.1027278505012768</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.004446796675688928</v>
+        <v>-0.002032247328415441</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.0643347314673125</v>
+        <v>0.06333873498982558</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1049778914592527</v>
+        <v>0.1027653827987298</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.002925560166422228</v>
+        <v>-0.003125626597592268</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1681723273795062</v>
+        <v>0.1653209488722116</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1040061311834194</v>
+        <v>0.1055042872719349</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.003663356682284388</v>
+        <v>-0.003221539266131145</v>
       </c>
       <c r="M216" t="n">
-        <v>0.3818565516632069</v>
+        <v>0.3917303214610778</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1027238102347908</v>
+        <v>0.107200562014743</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.002317759903826982</v>
+        <v>-0.002584833127887039</v>
       </c>
       <c r="P216" t="n">
-        <v>0.6035111635881705</v>
+        <v>0.6073848955192273</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1048145628098878</v>
+        <v>0.1035180647359021</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.004103401774224931</v>
+        <v>-0.002072450870339417</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.06435570804529994</v>
+        <v>0.06339953603102098</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1057792494093234</v>
+        <v>0.1035498513697125</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.002926437922247737</v>
+        <v>-0.003124689097113087</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1681041301248538</v>
+        <v>0.1654079327472557</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1048000711161172</v>
+        <v>0.1063096635106519</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.003663356682284388</v>
+        <v>-0.003221539266131145</v>
       </c>
       <c r="M217" t="n">
-        <v>0.382442817643462</v>
+        <v>0.3917393859997512</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1035079614579571</v>
+        <v>0.1080188869156189</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.002317759903826982</v>
+        <v>-0.002584833127887039</v>
       </c>
       <c r="P217" t="n">
-        <v>0.6042527693485807</v>
+        <v>0.6081115864321013</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1056146739763755</v>
+        <v>0.1043082789705273</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.004103401774224931</v>
+        <v>-0.002072450870339417</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.0643327954145223</v>
+        <v>0.06347667365685376</v>
       </c>
       <c r="G218" t="n">
-        <v>0.106580607359394</v>
+        <v>0.1043343199406952</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.002926437922247737</v>
+        <v>-0.003124689097113087</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1681439835537187</v>
+        <v>0.1654939279474613</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1055940110488151</v>
+        <v>0.107115039749369</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.003663356682284388</v>
+        <v>-0.003221539266131145</v>
       </c>
       <c r="M218" t="n">
-        <v>0.3830784444232632</v>
+        <v>0.3919109379359721</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1042921126811234</v>
+        <v>0.1088372118164948</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.002317759903826982</v>
+        <v>-0.002584833127887039</v>
       </c>
       <c r="P218" t="n">
-        <v>0.60498520100679</v>
+        <v>0.6084805956201207</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1064147851428632</v>
+        <v>0.1050984932051525</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.004103401774224931</v>
+        <v>-0.002072450870339417</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06433628752335323</v>
+        <v>0.0635353153054382</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1073819653094646</v>
+        <v>0.1051187885116779</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.002925560166422228</v>
+        <v>-0.003017088377988149</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1680737751596535</v>
+        <v>0.1655358987656577</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1063879509815129</v>
+        <v>0.107920415988086</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.003663356682284388</v>
+        <v>-0.003221539266131145</v>
       </c>
       <c r="M219" t="n">
-        <v>0.3837087714739313</v>
+        <v>0.3919199771938207</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1050762639042898</v>
+        <v>0.1096555367173707</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.002317759903826982</v>
+        <v>-0.002584833127887039</v>
       </c>
       <c r="P219" t="n">
-        <v>0.6059635732783165</v>
+        <v>0.6090919853977392</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1072148963093509</v>
+        <v>0.1058887074397777</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.004103401774224931</v>
+        <v>-0.002072450870339417</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.06435742212004211</v>
+        <v>0.06356665889770056</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1081833232595352</v>
+        <v>0.1059032570826605</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.002805047734759074</v>
+        <v>-0.003017691795663747</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1680897875363688</v>
+        <v>0.1656201271200249</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1071818909142108</v>
+        <v>0.1087257922268031</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.003476601078328783</v>
+        <v>-0.002951365320088105</v>
       </c>
       <c r="M220" t="n">
-        <v>0.3843857518357799</v>
+        <v>0.3917665743988891</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1058604151274561</v>
+        <v>0.1104738616182466</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.002306841806656989</v>
+        <v>-0.002542654458242365</v>
       </c>
       <c r="P220" t="n">
-        <v>0.606758617136725</v>
+        <v>0.6099456820325987</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.1080150074758386</v>
+        <v>0.1066789216744029</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.00375618485564372</v>
+        <v>-0.002111998226592138</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06434350746684495</v>
+        <v>0.06364901692435496</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1089846812096059</v>
+        <v>0.1066877256536432</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.002805328267585833</v>
+        <v>-0.003017390086825947</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1680393752072227</v>
+        <v>0.1657035943029974</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1079758308469086</v>
+        <v>0.1095311684655202</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.003476601078328783</v>
+        <v>-0.002951365320088105</v>
       </c>
       <c r="M221" t="n">
-        <v>0.3848941108611194</v>
+        <v>0.3918300809987324</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1066445663506225</v>
+        <v>0.1112921865191225</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.002306841806656989</v>
+        <v>-0.002542654458242365</v>
       </c>
       <c r="P221" t="n">
-        <v>0.6074539494501621</v>
+        <v>0.6105253713093208</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.1088151186423263</v>
+        <v>0.1074691359090281</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.00375618485564372</v>
+        <v>-0.002111998226592138</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.06435606104417027</v>
+        <v>0.06367780178229998</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1097860391596765</v>
+        <v>0.1074721942246259</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.002805328267585833</v>
+        <v>-0.00301678666915035</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1679661623567353</v>
+        <v>0.165829537674527</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1087697707796065</v>
+        <v>0.1103365447042372</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.003476601078328783</v>
+        <v>-0.002951365320088105</v>
       </c>
       <c r="M222" t="n">
-        <v>0.3856602629661378</v>
+        <v>0.3918396672106085</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1074287175737888</v>
+        <v>0.1121105114199984</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.002306841806656989</v>
+        <v>-0.002542654458242365</v>
       </c>
       <c r="P222" t="n">
-        <v>0.6083909764581978</v>
+        <v>0.6110020909607374</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.109615229808814</v>
+        <v>0.1082593501436533</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.00375618485564372</v>
+        <v>-0.002111998226592138</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.06435996055411503</v>
+        <v>0.06373137658060278</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1105873971097471</v>
+        <v>0.1082566627956085</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.002805608800412591</v>
+        <v>-0.003017390086825947</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1679355462211216</v>
+        <v>0.1659117262565111</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1095637107123044</v>
+        <v>0.1111419209429543</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.003476601078328783</v>
+        <v>-0.002951365320088105</v>
       </c>
       <c r="M223" t="n">
-        <v>0.3860938638064846</v>
+        <v>0.3919037788367264</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1082128687969551</v>
+        <v>0.1129288363208743</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.002306841806656989</v>
+        <v>-0.002542654458242365</v>
       </c>
       <c r="P223" t="n">
-        <v>0.6090533442976963</v>
+        <v>0.6115473456285169</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1104153409753016</v>
+        <v>0.1090495643782785</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.00375618485564372</v>
+        <v>-0.002111998226592138</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.06435522469326688</v>
+        <v>0.06380973056885443</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1113887550598178</v>
+        <v>0.1090411313665912</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.002683308670144365</v>
+        <v>-0.002905026602873995</v>
       </c>
       <c r="J224" t="n">
-        <v>0.167925716402967</v>
+        <v>0.1659501865093075</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1103576506450022</v>
+        <v>0.1119472971816713</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.003282629299242933</v>
+        <v>-0.002703731831982323</v>
       </c>
       <c r="M224" t="n">
-        <v>0.3868364499069604</v>
+        <v>0.3918057537721209</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1089970200201215</v>
+        <v>0.1137471612217502</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.002294130968555747</v>
+        <v>-0.002498391251037691</v>
       </c>
       <c r="P224" t="n">
-        <v>0.6096966426205942</v>
+        <v>0.6119020783513613</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1112154521417893</v>
+        <v>0.1098397786129037</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.003413794785639848</v>
+        <v>-0.002149109604726551</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06438580819864587</v>
+        <v>0.06384297281586779</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1121901130098884</v>
+        <v>0.1098255999375739</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.002683845385549935</v>
+        <v>-0.002905026602873995</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1678930850414902</v>
+        <v>0.1660529719896612</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1111515905777001</v>
+        <v>0.1127526734203884</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.003282629299242933</v>
+        <v>-0.002703731831982323</v>
       </c>
       <c r="M225" t="n">
-        <v>0.3874040080492817</v>
+        <v>0.3918707836440589</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1097811712432878</v>
+        <v>0.1145654861226261</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.002294130968555747</v>
+        <v>-0.002498391251037691</v>
       </c>
       <c r="P225" t="n">
-        <v>0.6104052660812864</v>
+        <v>0.6124966084589349</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.112015563308277</v>
+        <v>0.1106299928475289</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.003413794785639848</v>
+        <v>-0.002149109604726551</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.0643726471618738</v>
+        <v>0.063892146559521</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1129914709599591</v>
+        <v>0.1106100685085565</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.002684113743252719</v>
+        <v>-0.002904445713731249</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1679030203062599</v>
+        <v>0.166112164547103</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1119455305103979</v>
+        <v>0.1135580496591055</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.003282629299242933</v>
+        <v>-0.002703731831982323</v>
       </c>
       <c r="M226" t="n">
-        <v>0.3879021171561972</v>
+        <v>0.3918822042783975</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1105653224664542</v>
+        <v>0.115383811023502</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.002294130968555747</v>
+        <v>-0.002498391251037691</v>
       </c>
       <c r="P226" t="n">
-        <v>0.6112638845549097</v>
+        <v>0.6131581665486142</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1128156744747647</v>
+        <v>0.1114202070821541</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.003413794785639848</v>
+        <v>-0.002149109604726551</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.06437727161852656</v>
+        <v>0.06394847795447395</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1137928289100297</v>
+        <v>0.1113945370795392</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.002683845385549935</v>
+        <v>-0.002904736158302623</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1678248070739159</v>
+        <v>0.1662142772695328</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1127394704430958</v>
+        <v>0.1143634258978225</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.003282629299242933</v>
+        <v>-0.002703731831982323</v>
       </c>
       <c r="M227" t="n">
-        <v>0.3883291363474255</v>
+        <v>0.3920026592923744</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1113494736896205</v>
+        <v>0.1162021359243779</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.002294130968555747</v>
+        <v>-0.002498391251037691</v>
       </c>
       <c r="P227" t="n">
-        <v>0.6118403667475113</v>
+        <v>0.6133681907394307</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1136157856412524</v>
+        <v>0.1122104213167793</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.003413794785639848</v>
+        <v>-0.002149109604726551</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.0643821269829251</v>
+        <v>0.0639944238800291</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1145941868601003</v>
+        <v>0.1121790056505219</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.002562687335757262</v>
+        <v>-0.0027870467176346</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1678327193915099</v>
+        <v>0.1662945457997268</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1135334103757936</v>
+        <v>0.1151688021365396</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.003084565043913108</v>
+        <v>-0.002487165218250183</v>
       </c>
       <c r="M228" t="n">
-        <v>0.3890067753128652</v>
+        <v>0.391961281593991</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1121336249127869</v>
+        <v>0.1170204608252538</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.002280854558418707</v>
+        <v>-0.002450701780269643</v>
       </c>
       <c r="P228" t="n">
-        <v>0.6123911896880734</v>
+        <v>0.6138164945320154</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1144158968077401</v>
+        <v>0.1130006355514045</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.003090276131929374</v>
+        <v>-0.002183521295566986</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.06437844399650569</v>
+        <v>0.06402115819819137</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1153955448101709</v>
+        <v>0.1129634742215045</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.002562687335757262</v>
+        <v>-0.002787325422306364</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1677960629205965</v>
+        <v>0.1664179342234897</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1143273503084915</v>
+        <v>0.1159741783752566</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.003084565043913108</v>
+        <v>-0.002487165218250183</v>
       </c>
       <c r="M229" t="n">
-        <v>0.3893949147380358</v>
+        <v>0.3920290985342955</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1129177761359532</v>
+        <v>0.1178387857261297</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.002280854558418707</v>
+        <v>-0.002450701780269643</v>
       </c>
       <c r="P229" t="n">
-        <v>0.6130873096883565</v>
+        <v>0.6143299914036633</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.1152160079742278</v>
+        <v>0.1137908497860297</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.003090276131929374</v>
+        <v>-0.002183521295566986</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06438382024399969</v>
+        <v>0.06406362702704442</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1161969027602416</v>
+        <v>0.1137479427924872</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.002563199873224413</v>
+        <v>-0.002786768012962837</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1677584031683895</v>
+        <v>0.1664763389907525</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1151212902411893</v>
+        <v>0.1167795546139737</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.003084565043913108</v>
+        <v>-0.002487165218250183</v>
       </c>
       <c r="M230" t="n">
-        <v>0.3899772259765887</v>
+        <v>0.391935229723006</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1137019273591195</v>
+        <v>0.1186571106270056</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.002280854558418707</v>
+        <v>-0.002450701780269643</v>
       </c>
       <c r="P230" t="n">
-        <v>0.6136683575129301</v>
+        <v>0.6148217055523446</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1160161191407155</v>
+        <v>0.1145810640206549</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.003090276131929374</v>
+        <v>-0.002183521295566986</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.06439827720687021</v>
+        <v>0.06413055859097685</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1169982607103122</v>
+        <v>0.1145324113634699</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.002562943604490837</v>
+        <v>-0.002787604126978127</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1676762054395999</v>
+        <v>0.1665780312100403</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1159152301738872</v>
+        <v>0.1175849308526908</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.003084565043913108</v>
+        <v>-0.002487165218250183</v>
       </c>
       <c r="M231" t="n">
-        <v>0.3903745595393472</v>
+        <v>0.3920049107184074</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1144860785822859</v>
+        <v>0.1194754355278815</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.002280854558418707</v>
+        <v>-0.002450701780269643</v>
       </c>
       <c r="P231" t="n">
-        <v>0.6142189204022395</v>
+        <v>0.6152910063800835</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.1168162303072032</v>
+        <v>0.1153712782552802</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.003090276131929374</v>
+        <v>-0.002183521295566986</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06440425488652674</v>
+        <v>0.06416933532264162</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1177996186603828</v>
+        <v>0.1153168799344526</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.002445626396358189</v>
+        <v>-0.002668661582985796</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1676800760032904</v>
+        <v>0.1666148272991462</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1167091701065851</v>
+        <v>0.1183903070914078</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002889180695697221</v>
+        <v>-0.002315933476253307</v>
       </c>
       <c r="M232" t="n">
-        <v>0.3908013353538576</v>
+        <v>0.3920214476551949</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1152702298054522</v>
+        <v>0.1202937604287574</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.002266399038577353</v>
+        <v>-0.002401758653195017</v>
       </c>
       <c r="P232" t="n">
-        <v>0.6148238115658999</v>
+        <v>0.6154776197534124</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1176163414736909</v>
+        <v>0.1161614924899054</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.002797228449036291</v>
+        <v>-0.00221194826875835</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06442814573598742</v>
+        <v>0.06417986337509712</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1186009766104535</v>
+        <v>0.1161013485054352</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.002445626396358189</v>
+        <v>-0.002668127904037094</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1676176500929459</v>
+        <v>0.1667167479072706</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1175031100392829</v>
+        <v>0.1191956833301249</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002889180695697221</v>
+        <v>-0.002315933476253307</v>
       </c>
       <c r="M233" t="n">
-        <v>0.3911479713582053</v>
+        <v>0.3920391128313918</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1160543810286186</v>
+        <v>0.1211120853296333</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.002266399038577353</v>
+        <v>-0.002401758653195017</v>
       </c>
       <c r="P233" t="n">
-        <v>0.6152219838609705</v>
+        <v>0.6157269376734901</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1184164526401786</v>
+        <v>0.1169517067245306</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.002797228449036291</v>
+        <v>-0.00221194826875835</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.06440842873815189</v>
+        <v>0.06424100717828107</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1194023345605241</v>
+        <v>0.1168858170764179</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.0024453818826213</v>
+        <v>-0.002668928422460148</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1675542314163213</v>
+        <v>0.1667538757868602</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1182970499719808</v>
+        <v>0.120001059568842</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002889180695697221</v>
+        <v>-0.002315933476253307</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3915211794862837</v>
+        <v>0.3920579850220487</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1168385322517849</v>
+        <v>0.1219304102305092</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.002266399038577353</v>
+        <v>-0.002401758653195017</v>
       </c>
       <c r="P234" t="n">
-        <v>0.6154980637489023</v>
+        <v>0.6160384441803929</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1192165638066663</v>
+        <v>0.1177419209591558</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.002797228449036291</v>
+        <v>-0.00221194826875835</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.06443304172707461</v>
+        <v>0.06424745627642892</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1202036925105947</v>
+        <v>0.1176702856474006</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002444892855147523</v>
+        <v>-0.002668127904037094</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1675115719765186</v>
+        <v>0.1668508478231359</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1190909899046786</v>
+        <v>0.120806435807559</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002889180695697221</v>
+        <v>-0.002315933476253307</v>
       </c>
       <c r="M235" t="n">
-        <v>0.3918112182800013</v>
+        <v>0.3920781430022169</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1176226834749513</v>
+        <v>0.1227487351313851</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.002249757724139693</v>
+        <v>-0.002351500990116073</v>
       </c>
       <c r="P235" t="n">
-        <v>0.6161698847048959</v>
+        <v>0.6164982499828952</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.120016674973154</v>
+        <v>0.118532135193781</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.002797228449036291</v>
+        <v>-0.00221194826875835</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.0644316667882605</v>
+        <v>0.06428688555553383</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1210050504606654</v>
+        <v>0.1184547542183833</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.002335593055522199</v>
+        <v>-0.002550992540603341</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1674896595214506</v>
+        <v>0.1669587047096605</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1198849298373765</v>
+        <v>0.1216118120462761</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002700702763766562</v>
+        <v>-0.002192310455749147</v>
       </c>
       <c r="M236" t="n">
-        <v>0.3923096781531222</v>
+        <v>0.392045461000847</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1184068346981176</v>
+        <v>0.123567060032261</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.002249757724139693</v>
+        <v>-0.002351500990116073</v>
       </c>
       <c r="P236" t="n">
-        <v>0.6165432820722976</v>
+        <v>0.6165858842646891</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.1208167861396417</v>
+        <v>0.1193223494284062</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.002545273995954785</v>
+        <v>-0.002234147510742188</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.06444828875472734</v>
+        <v>0.06431536247441737</v>
       </c>
       <c r="G237" t="n">
-        <v>0.121806408410736</v>
+        <v>0.1192392227893659</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.002335593055522199</v>
+        <v>-0.002550482444114518</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1674449965484102</v>
+        <v>0.1670172676166154</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1206788697700744</v>
+        <v>0.1224171882849931</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002700702763766562</v>
+        <v>-0.002192310455749147</v>
       </c>
       <c r="M237" t="n">
-        <v>0.3925744039313416</v>
+        <v>0.3921768382737492</v>
       </c>
       <c r="N237" t="n">
-        <v>0.119190985921284</v>
+        <v>0.1243853849331369</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.002249757724139693</v>
+        <v>-0.002351500990116073</v>
       </c>
       <c r="P237" t="n">
-        <v>0.6167029386063544</v>
+        <v>0.6169939515922264</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1216168973061293</v>
+        <v>0.1201125636630314</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.002545273995954785</v>
+        <v>-0.002234147510742188</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06443895642813741</v>
+        <v>0.06433281953514236</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1226077663608066</v>
+        <v>0.1200236913603486</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.002335126030316136</v>
+        <v>-0.002550482444114518</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1673775970006394</v>
+        <v>0.1670970867757817</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1214728097027722</v>
+        <v>0.1232225645237102</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002700702763766562</v>
+        <v>-0.002192310455749147</v>
       </c>
       <c r="M238" t="n">
-        <v>0.3928574377930666</v>
+        <v>0.3920387008482696</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1199751371444503</v>
+        <v>0.1252037098340128</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.002249757724139693</v>
+        <v>-0.002351500990116073</v>
       </c>
       <c r="P238" t="n">
-        <v>0.6169071258789565</v>
+        <v>0.6172018244587979</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.122417008472617</v>
+        <v>0.1209027778976566</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.002545273995954785</v>
+        <v>-0.002234147510742188</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.06444766222328768</v>
+        <v>0.06435676451039188</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1234091243108772</v>
+        <v>0.1208081599313313</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.002335593055522199</v>
+        <v>-0.002550992540603341</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1673526747029829</v>
+        <v>0.1672198946384548</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1222667496354701</v>
+        <v>0.1240279407624273</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002700702763766562</v>
+        <v>-0.002192310455749147</v>
       </c>
       <c r="M239" t="n">
-        <v>0.3929768040154297</v>
+        <v>0.3920647845197359</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1207592883676166</v>
+        <v>0.1260220347348887</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.002249757724139693</v>
+        <v>-0.002351500990116073</v>
       </c>
       <c r="P239" t="n">
-        <v>0.6173277404243479</v>
+        <v>0.6174689429472954</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1232171196391047</v>
+        <v>0.1216929921322818</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.002545273995954785</v>
+        <v>-0.002234147510742188</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.06446821519087478</v>
+        <v>0.06437835650537811</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1242104822609479</v>
+        <v>0.1215926285023139</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.002234847252938152</v>
+        <v>-0.002435302343226041</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1672832885932255</v>
+        <v>0.1672553761895539</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1230606895681679</v>
+        <v>0.1248333170011443</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.002523834233946943</v>
+        <v>-0.002077484415287597</v>
       </c>
       <c r="M240" t="n">
-        <v>0.393312354911235</v>
+        <v>0.3922551915487275</v>
       </c>
       <c r="N240" t="n">
-        <v>0.121543439590783</v>
+        <v>0.1268403596357646</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.002220858460172905</v>
+        <v>-0.002301078053316691</v>
       </c>
       <c r="P240" t="n">
-        <v>0.6176163486487164</v>
+        <v>0.6175344944367662</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1240172308055924</v>
+        <v>0.122483206366907</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.002346589858105201</v>
+        <v>-0.002248129540217141</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.06447542281660061</v>
+        <v>0.06441511863811762</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1250118402110185</v>
+        <v>0.1223770970732966</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.002234847252938152</v>
+        <v>-0.002435789403694686</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1672129150356897</v>
+        <v>0.1673555615480307</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1238546295008658</v>
+        <v>0.1256386932398614</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.002523834233946943</v>
+        <v>-0.002077484415287597</v>
       </c>
       <c r="M241" t="n">
-        <v>0.3936467774425677</v>
+        <v>0.3922847214944365</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1223275908139493</v>
+        <v>0.1276586845366405</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.002220858460172905</v>
+        <v>-0.002301078053316691</v>
       </c>
       <c r="P241" t="n">
-        <v>0.6175109450396057</v>
+        <v>0.6176580435965682</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.1248173419720801</v>
+        <v>0.1232734206015322</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.002346589858105201</v>
+        <v>-0.002248129540217141</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06447734992012613</v>
+        <v>0.06441424573511494</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1258131981610892</v>
+        <v>0.1231615656442793</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.00223440032818004</v>
+        <v>-0.002435058812991718</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1672284288718291</v>
+        <v>0.1674552884953202</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1246485694335636</v>
+        <v>0.1264440694785784</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.002523834233946943</v>
+        <v>-0.002077484415287597</v>
       </c>
       <c r="M242" t="n">
-        <v>0.3939254709330692</v>
+        <v>0.3921534265445236</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1231117420371156</v>
+        <v>0.1284770094375164</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.002220858460172905</v>
+        <v>-0.002301078053316691</v>
       </c>
       <c r="P242" t="n">
-        <v>0.6177685084831086</v>
+        <v>0.6176654703554836</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.1256174531385678</v>
+        <v>0.1240636348361574</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.002346589858105201</v>
+        <v>-0.002248129540217141</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.06450661036949844</v>
+        <v>0.06442842506014261</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1266145561111598</v>
+        <v>0.1239460342152619</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.002235070715317208</v>
+        <v>-0.002435545873460363</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1671560626955857</v>
+        <v>0.1675110498868145</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1254425093662615</v>
+        <v>0.1272494457172955</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.002523834233946943</v>
+        <v>-0.001965288603007025</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3942569682407813</v>
+        <v>0.3923493723644947</v>
       </c>
       <c r="N243" t="n">
-        <v>0.123895893260282</v>
+        <v>0.1292953343383923</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.002220858460172905</v>
+        <v>-0.002301078053316691</v>
       </c>
       <c r="P243" t="n">
-        <v>0.6177597903616481</v>
+        <v>0.6179032233465626</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.1264175643050555</v>
+        <v>0.1248538490707826</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.002346589858105201</v>
+        <v>-0.002248129540217141</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.06451038636835038</v>
+        <v>0.06446640143975875</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1274159140612304</v>
+        <v>0.1247305027862446</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.002138008118708684</v>
+        <v>-0.002325081348445096</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1671044194779658</v>
+        <v>0.1675880601239668</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1262364492989594</v>
+        <v>0.1280548219560126</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.002365288912733899</v>
+        <v>-0.001965288603007025</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3943689270589301</v>
+        <v>0.3923304232351378</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1246800444834483</v>
+        <v>0.1301136592392682</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.002173824895262605</v>
+        <v>-0.002251595928619273</v>
       </c>
       <c r="P244" t="n">
-        <v>0.6176724342181732</v>
+        <v>0.6177685084831086</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.1272176754715432</v>
+        <v>0.1256440633054078</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.00220907116923825</v>
+        <v>-0.002252487810379239</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.06452385730278952</v>
+        <v>0.06447534689360626</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1282172720113011</v>
+        <v>0.1255149713572273</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.002138435720332426</v>
+        <v>-0.002324616378672385</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1670517812655265</v>
+        <v>0.167664568885777</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1270303892316572</v>
+        <v>0.1288601981947296</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.002365288912733899</v>
+        <v>-0.001965288603007025</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3947510326594269</v>
+        <v>0.3923096781531222</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1254641957066147</v>
+        <v>0.1309319841401441</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.002173824895262605</v>
+        <v>-0.002251595928619273</v>
       </c>
       <c r="P245" t="n">
-        <v>0.6178379731599579</v>
+        <v>0.6177642996761327</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.1280177866380309</v>
+        <v>0.126434277540033</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.00220907116923825</v>
+        <v>-0.002252487810379239</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.06453820280156147</v>
+        <v>0.06448158482592772</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1290186299613717</v>
+        <v>0.12629943992821</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.002138008118708684</v>
+        <v>-0.002325313833331452</v>
       </c>
       <c r="J246" t="n">
-        <v>0.167019846249108</v>
+        <v>0.1677623389113735</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1278243291643551</v>
+        <v>0.1296655744334467</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.002365288912733899</v>
+        <v>-0.001965288603007025</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3949675062648353</v>
+        <v>0.3923221614485114</v>
       </c>
       <c r="N246" t="n">
-        <v>0.126248346929781</v>
+        <v>0.1317503090410201</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.002173824895262605</v>
+        <v>-0.002251595928619273</v>
       </c>
       <c r="P246" t="n">
-        <v>0.6175559008811116</v>
+        <v>0.6178080243218054</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.1288178978045186</v>
+        <v>0.1272244917746582</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.00220907116923825</v>
+        <v>-0.002252487810379239</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.06454459693416252</v>
+        <v>0.06446821519087478</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1298199879114423</v>
+        <v>0.1270839084991926</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.002138435720332426</v>
+        <v>-0.00232484886355874</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1669218298561815</v>
+        <v>0.1678378248484234</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1286182690970529</v>
+        <v>0.1304709506721637</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.002365288912733899</v>
+        <v>-0.001965288603007025</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3952905096096039</v>
+        <v>0.3924247027426035</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1270324981529474</v>
+        <v>0.1325686339418959</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.002173824895262605</v>
+        <v>-0.002251595928619273</v>
       </c>
       <c r="P247" t="n">
-        <v>0.6170888448923222</v>
+        <v>0.6178058393563333</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.1296180089710063</v>
+        <v>0.1280147060092834</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.00220907116923825</v>
+        <v>-0.002252487810379239</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.06456943674587547</v>
+        <v>0.06447670343300448</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1306213458615129</v>
+        <v>0.1278683770701753</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.002040616586480185</v>
+        <v>-0.002220014863756819</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1669095887382854</v>
+        <v>0.1678909949152869</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1294122090297508</v>
+        <v>0.1312763269108808</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.002229008973939534</v>
+        <v>-0.00185719091114083</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3955017890716348</v>
+        <v>0.3925659898556336</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1278166493761137</v>
+        <v>0.1333869588427719</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.002108913505008486</v>
+        <v>-0.002197597379201982</v>
       </c>
       <c r="P248" t="n">
-        <v>0.6168725555361</v>
+        <v>0.6174115073243096</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.130418120137494</v>
+        <v>0.1288049202439087</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.002087803143737419</v>
+        <v>-0.002237893466780835</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.06458628481830336</v>
+        <v>0.06446156930248455</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1314227038115836</v>
+        <v>0.128652845641158</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.002040004523916754</v>
+        <v>-0.002219348992471949</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1668238948816438</v>
+        <v>0.1679436120106596</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1302061489624486</v>
+        <v>0.1320817031495979</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.002229008973939534</v>
+        <v>-0.00185719091114083</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3958192787469658</v>
+        <v>0.3927448816401906</v>
       </c>
       <c r="N249" t="n">
-        <v>0.12860080059928</v>
+        <v>0.1342052837436477</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.002108913505008486</v>
+        <v>-0.002197597379201982</v>
       </c>
       <c r="P249" t="n">
-        <v>0.6163023086931749</v>
+        <v>0.6173198603477813</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.1312182313039817</v>
+        <v>0.1295951344785339</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.002087803143737419</v>
+        <v>-0.002237893466780835</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.06461273750518544</v>
+        <v>0.06446480218625972</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1322240617616542</v>
+        <v>0.1294373142121406</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.002040616586480185</v>
+        <v>-0.002219348992471949</v>
       </c>
       <c r="J250" t="n">
-        <v>0.166754058872338</v>
+        <v>0.1680174689042678</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1310000888951465</v>
+        <v>0.1328870793883149</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.002229008973939534</v>
+        <v>-0.00185719091114083</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3959699100050733</v>
+        <v>0.3930145384027043</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1293849518224464</v>
+        <v>0.1350236086445236</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.002108913505008486</v>
+        <v>-0.002197597379201982</v>
       </c>
       <c r="P250" t="n">
-        <v>0.6159002143246042</v>
+        <v>0.6171846076591968</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.1320183424704694</v>
+        <v>0.1303853487131591</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.002087803143737419</v>
+        <v>-0.002237893466780835</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.06463115486881738</v>
+        <v>0.06442504200235057</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1330254197117248</v>
+        <v>0.1302217827831233</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.002040616586480185</v>
+        <v>-0.002220014863756819</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1665699039740564</v>
+        <v>0.168112578612793</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1317940288278444</v>
+        <v>0.133692455627032</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.002229008973939534</v>
+        <v>-0.00185719091114083</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3962263783397398</v>
+        <v>0.3932109146342431</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1301691030456127</v>
+        <v>0.1358419335453995</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.002108913505008486</v>
+        <v>-0.002197597379201982</v>
       </c>
       <c r="P251" t="n">
-        <v>0.615235381303058</v>
+        <v>0.6170065117263152</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.132818453636957</v>
+        <v>0.1311755629477843</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.002087803143737419</v>
+        <v>-0.002237893466780835</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.06465032575278415</v>
+        <v>0.06441284722238015</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1338267776617955</v>
+        <v>0.131006251354106</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.001941475558893101</v>
+        <v>-0.002112176270518321</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1664889405114067</v>
+        <v>0.1681853211163779</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1325879687605422</v>
+        <v>0.134497831865749</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.002103298230045501</v>
+        <v>-0.001754571280686273</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3964793176618333</v>
+        <v>0.3935501285617734</v>
       </c>
       <c r="N252" t="n">
-        <v>0.130953254268779</v>
+        <v>0.1366602584462754</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.002027762677233259</v>
+        <v>-0.002136135198309726</v>
       </c>
       <c r="P252" t="n">
-        <v>0.6142239886345628</v>
+        <v>0.616439724776083</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.1336185648034448</v>
+        <v>0.1319657771824095</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.001969901751685874</v>
+        <v>-0.002200197672202344</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06467022996850996</v>
+        <v>0.06436688208893815</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1346281356118661</v>
+        <v>0.1317907199250886</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.001941087341424816</v>
+        <v>-0.002111965052891269</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1663171337738964</v>
+        <v>0.1682793125880718</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1333819086932401</v>
+        <v>0.1353032081044661</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.002103298230045501</v>
+        <v>-0.001754571280686273</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3968925497806197</v>
+        <v>0.3938136725454754</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1317374054919454</v>
+        <v>0.1374785833471513</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.002027762677233259</v>
+        <v>-0.002136135198309726</v>
       </c>
       <c r="P253" t="n">
-        <v>0.6133870853372149</v>
+        <v>0.616091752364361</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.1344186759699324</v>
+        <v>0.1327559914170347</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.001969901751685874</v>
+        <v>-0.002200197672202344</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.06469084732741912</v>
+        <v>0.06433129896071238</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1354294935619367</v>
+        <v>0.1325751884960713</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.001941475558893101</v>
+        <v>-0.002112598705772425</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1660771434980894</v>
+        <v>0.1682854117393586</v>
       </c>
       <c r="K254" t="n">
-        <v>0.134175848625938</v>
+        <v>0.1361085843431832</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.002103298230045501</v>
+        <v>-0.001754571280686273</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3971378652114504</v>
+        <v>0.3942723140549602</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1325215567151117</v>
+        <v>0.1382969082480272</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.002027762677233259</v>
+        <v>-0.002136135198309726</v>
       </c>
       <c r="P254" t="n">
-        <v>0.612639874431002</v>
+        <v>0.6157898988423515</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.1352187871364201</v>
+        <v>0.1335462056516599</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.001969901751685874</v>
+        <v>-0.002200197672202344</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.06471215764093587</v>
+        <v>0.06425361717185314</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1362308515120073</v>
+        <v>0.133359657067054</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.001941475558893101</v>
+        <v>-0.002112387488145373</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1658995136664094</v>
+        <v>0.1684219022976314</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1349697885586358</v>
+        <v>0.1369139605819002</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.002103298230045501</v>
+        <v>-0.001754571280686273</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3972148300659094</v>
+        <v>0.3945984860432061</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1333057079382781</v>
+        <v>0.1391152331489031</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.002027762677233259</v>
+        <v>-0.002067890096701516</v>
       </c>
       <c r="P255" t="n">
-        <v>0.6116393453893195</v>
+        <v>0.6154482748929928</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.1360188983029078</v>
+        <v>0.1343364198862851</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.001969901751685874</v>
+        <v>-0.002200197672202344</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.06473414072048447</v>
+        <v>0.06421304979472513</v>
       </c>
       <c r="G256" t="n">
-        <v>0.137032209462078</v>
+        <v>0.1341441256380367</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.001840915472326796</v>
+        <v>-0.002000765499267611</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1656123732144392</v>
+        <v>0.1684922986033723</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1357637284913337</v>
+        <v>0.1377193368206173</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.001980832418313374</v>
+        <v>-0.001657571497539825</v>
       </c>
       <c r="M256" t="n">
-        <v>0.397615773732688</v>
+        <v>0.3950086994222906</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1340898591614444</v>
+        <v>0.1399335580497791</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.001933391355886522</v>
+        <v>-0.002067890096701516</v>
       </c>
       <c r="P256" t="n">
-        <v>0.6104743569120807</v>
+        <v>0.6148081757475532</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.1368190094693955</v>
+        <v>0.1351266341209103</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.001858979585860732</v>
+        <v>-0.002142739209623798</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06476560157628589</v>
+        <v>0.06415712743964133</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1378335674121486</v>
+        <v>0.1349285942090193</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.001841467802201482</v>
+        <v>-0.002001165692386776</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1653676680777852</v>
+        <v>0.1685183800120172</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1365576684240315</v>
+        <v>0.1385247130593343</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.001980832418313374</v>
+        <v>-0.001657571497539825</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3977931665585674</v>
+        <v>0.3955564806196789</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1348740103846108</v>
+        <v>0.1407518829506549</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.001933391355886522</v>
+        <v>-0.002067890096701516</v>
       </c>
       <c r="P257" t="n">
-        <v>0.6094052627554276</v>
+        <v>0.6143030147642269</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.1376191206358832</v>
+        <v>0.1359168483555355</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.001858979585860732</v>
+        <v>-0.002142739209623798</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06478004442337428</v>
+        <v>0.06407731818441645</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1386349253622192</v>
+        <v>0.135713062780002</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.001841283692243253</v>
+        <v>-0.002001165692386776</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1651015323688827</v>
+        <v>0.1686312484102724</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1373516083567294</v>
+        <v>0.1393300892980514</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.001980832418313374</v>
+        <v>-0.001657571497539825</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3979657045749276</v>
+        <v>0.395913419939149</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1356581616077771</v>
+        <v>0.1415702078515308</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.001933391355886522</v>
+        <v>-0.002067890096701516</v>
       </c>
       <c r="P258" t="n">
-        <v>0.608090323029052</v>
+        <v>0.6138468795880765</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.1384192318023709</v>
+        <v>0.1367070625901607</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.001858979585860732</v>
+        <v>-0.002142739209623798</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.06478626484325505</v>
+        <v>0.06399137346102016</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1394362833122899</v>
+        <v>0.1364975313509847</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.001740272771203319</v>
+        <v>-0.002000765499267611</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1647719073754267</v>
+        <v>0.1686560524183465</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1381455482894272</v>
+        <v>0.1401354655367684</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.001860990401231201</v>
+        <v>-0.001657571497539825</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3981879948750948</v>
+        <v>0.3964602851183043</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1364423128309435</v>
+        <v>0.1423885327524068</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.001933391355886522</v>
+        <v>-0.002067890096701516</v>
       </c>
       <c r="P259" t="n">
-        <v>0.6069609026690982</v>
+        <v>0.6131813914600723</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.1392193429688586</v>
+        <v>0.1374972768247859</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.001858979585860732</v>
+        <v>-0.002142739209623798</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.0648283969274826</v>
+        <v>0.06390824418322436</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1402376412623605</v>
+        <v>0.1372819999219674</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.001740620860566495</v>
+        <v>-0.001885641527793415</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1644656505367879</v>
+        <v>0.1687020630217674</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1389394882221251</v>
+        <v>0.1409408417754855</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.001860990401231201</v>
+        <v>-0.001568559238338351</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3983502099447584</v>
+        <v>0.3969776160163861</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1372264640541098</v>
+        <v>0.1432068576532826</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.001826349590231734</v>
+        <v>-0.001993343470720741</v>
       </c>
       <c r="P260" t="n">
-        <v>0.6055047491642979</v>
+        <v>0.6128252755724454</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.1400194541353463</v>
+        <v>0.1382874910594111</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.001754927586057219</v>
+        <v>-0.002066691579681306</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.06484460614426112</v>
+        <v>0.06382811329459001</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1410389992124312</v>
+        <v>0.13806646849295</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.001740620860566495</v>
+        <v>-0.001886018656098974</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1640764191357641</v>
+        <v>0.168791170755506</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1397334281548229</v>
+        <v>0.1417462180142026</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.001860990401231201</v>
+        <v>-0.001568559238338351</v>
       </c>
       <c r="M261" t="n">
-        <v>0.398726381460686</v>
+        <v>0.3974093697764878</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1380106152772761</v>
+        <v>0.1440251825541586</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.001826349590231734</v>
+        <v>-0.001993343470720741</v>
       </c>
       <c r="P261" t="n">
-        <v>0.6039815217072797</v>
+        <v>0.612175135892166</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.140819565301834</v>
+        <v>0.1390777052940363</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.001754927586057219</v>
+        <v>-0.002066691579681306</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.06487019930059468</v>
+        <v>0.06374243743703691</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1418403571625018</v>
+        <v>0.1388509370639327</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.001740794905248084</v>
+        <v>-0.001885641527793415</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1637336605344641</v>
+        <v>0.168857749299465</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1405273680875208</v>
+        <v>0.1425515942529196</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.001860990401231201</v>
+        <v>-0.001568559238338351</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3988226047428711</v>
+        <v>0.3981376863007273</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1387947665004425</v>
+        <v>0.1448435074550345</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.001826349590231734</v>
+        <v>-0.001993343470720741</v>
       </c>
       <c r="P262" t="n">
-        <v>0.6025639472491481</v>
+        <v>0.6113184645792501</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.1416196764683217</v>
+        <v>0.1398679195286615</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.001754927586057219</v>
+        <v>-0.002066691579681306</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.06491400392191828</v>
+        <v>0.06363399701248063</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1426417151125724</v>
+        <v>0.1396354056349154</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.001740794905248084</v>
+        <v>-0.001885641527793415</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1633099408823198</v>
+        <v>0.1689674466400946</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1413213080202186</v>
+        <v>0.1433569704916367</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.001860990401231201</v>
+        <v>-0.001568559238338351</v>
       </c>
       <c r="M263" t="n">
-        <v>0.399132481656667</v>
+        <v>0.3986685373195233</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1395789177236088</v>
+        <v>0.1456618323559103</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.001826349590231734</v>
+        <v>-0.001993343470720741</v>
       </c>
       <c r="P263" t="n">
-        <v>0.6009980427824594</v>
+        <v>0.610772828249907</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.1424197876348094</v>
+        <v>0.1406581337632868</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.001754927586057219</v>
+        <v>-0.002066691579681306</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.06494064500457063</v>
+        <v>0.06351176371120143</v>
       </c>
       <c r="G264" t="n">
-        <v>0.143443073062643</v>
+        <v>0.140419874205898</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001638798297354249</v>
+        <v>-0.001766219359766862</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1629555641922234</v>
+        <v>0.1689888994407771</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1421152479529165</v>
+        <v>0.1441623467303538</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001744862894935654</v>
+        <v>-0.001486951182548136</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3992166620941818</v>
+        <v>0.3992746827046563</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1403630689467752</v>
+        <v>0.1464801572567863</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.001708591156114603</v>
+        <v>-0.001913391296114084</v>
       </c>
       <c r="P264" t="n">
-        <v>0.5992015606106005</v>
+        <v>0.6099362263387197</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1432198988012971</v>
+        <v>0.1414483479979119</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.00166037063730131</v>
+        <v>-0.001976193313341489</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06496777720517517</v>
+        <v>0.06340205425796668</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1442444310127137</v>
+        <v>0.1412043427768807</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001638962193573606</v>
+        <v>-0.001766219359766862</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1625434293063422</v>
+        <v>0.1690753581044604</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1429091878856144</v>
+        <v>0.1449677229690708</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001744862894935654</v>
+        <v>-0.001486951182548136</v>
       </c>
       <c r="M265" t="n">
-        <v>0.3993494060570451</v>
+        <v>0.3999001782723944</v>
       </c>
       <c r="N265" t="n">
-        <v>0.1411472201699415</v>
+        <v>0.1472984821576622</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.001708591156114603</v>
+        <v>-0.001913391296114084</v>
       </c>
       <c r="P265" t="n">
-        <v>0.5976015239238035</v>
+        <v>0.6090678395805439</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1440200099677847</v>
+        <v>0.1422385622325372</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.00166037063730131</v>
+        <v>-0.001976193313341489</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.0649688358169043</v>
+        <v>0.06328765062937461</v>
       </c>
       <c r="G266" t="n">
-        <v>0.1450457889627843</v>
+        <v>0.1419888113478634</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001638798297354249</v>
+        <v>-0.001765866151215764</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1620746809079516</v>
+        <v>0.1691173127234624</v>
       </c>
       <c r="K266" t="n">
-        <v>0.1437031278183122</v>
+        <v>0.1457730992077879</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001744862894935654</v>
+        <v>-0.001486951182548136</v>
       </c>
       <c r="M266" t="n">
-        <v>0.399640475695501</v>
+        <v>0.4005989315304511</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1419313713931079</v>
+        <v>0.1481168070585381</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.001708591156114603</v>
+        <v>-0.001913391296114084</v>
       </c>
       <c r="P266" t="n">
-        <v>0.5959448527347581</v>
+        <v>0.6083401037163668</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.1448201211342725</v>
+        <v>0.1430287764671624</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.00166037063730131</v>
+        <v>-0.001976193313341489</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.06500573224405672</v>
+        <v>0.06317742881275741</v>
       </c>
       <c r="G267" t="n">
-        <v>0.1458471469128549</v>
+        <v>0.142773279918846</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001639289986012321</v>
+        <v>-0.001766395964042411</v>
       </c>
       <c r="J267" t="n">
-        <v>0.1616351428762213</v>
+        <v>0.1692023882411572</v>
       </c>
       <c r="K267" t="n">
-        <v>0.1444970677510101</v>
+        <v>0.1465784754465049</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001744862894935654</v>
+        <v>-0.001486951182548136</v>
       </c>
       <c r="M267" t="n">
-        <v>0.3998149368765532</v>
+        <v>0.4012046544530343</v>
       </c>
       <c r="N267" t="n">
-        <v>0.1427155226162742</v>
+        <v>0.148935131959414</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001708591156114603</v>
+        <v>-0.001913391296114084</v>
       </c>
       <c r="P267" t="n">
-        <v>0.5940649288403232</v>
+        <v>0.6073245917876737</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.1456202323007601</v>
+        <v>0.1438189907017876</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.00166037063730131</v>
+        <v>-0.001976193313341489</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.06503421095920837</v>
+        <v>0.06305424803768932</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1466485048629256</v>
+        <v>0.1435577484898287</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.00153651928872987</v>
+        <v>-0.001643634472348409</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1612465695013939</v>
+        <v>0.1692867646149444</v>
       </c>
       <c r="K268" t="n">
-        <v>0.145291007683708</v>
+        <v>0.147383851685222</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.00163081794760028</v>
+        <v>-0.001415167415722915</v>
       </c>
       <c r="M268" t="n">
-        <v>0.4000374500246427</v>
+        <v>0.4018261696976401</v>
       </c>
       <c r="N268" t="n">
-        <v>0.1434996738394405</v>
+        <v>0.1497534568602898</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.001581341783074297</v>
+        <v>-0.001828898595452249</v>
       </c>
       <c r="P268" t="n">
-        <v>0.5923019433206119</v>
+        <v>0.6065367785601827</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.1464203434672478</v>
+        <v>0.1446092049364128</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.001577460309975873</v>
+        <v>-0.001872648951778729</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.06506309994787994</v>
+        <v>0.06293563930577308</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1474498628129962</v>
+        <v>0.1443422170608114</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001536672940658743</v>
+        <v>-0.001643305778323342</v>
       </c>
       <c r="J269" t="n">
-        <v>0.1607408483996068</v>
+        <v>0.1693265715608996</v>
       </c>
       <c r="K269" t="n">
-        <v>0.1460849476164058</v>
+        <v>0.1481892279239391</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.00163081794760028</v>
+        <v>-0.001415167415722915</v>
       </c>
       <c r="M269" t="n">
-        <v>0.400087814927607</v>
+        <v>0.4025728348561386</v>
       </c>
       <c r="N269" t="n">
-        <v>0.1442838250626069</v>
+        <v>0.1505717817611658</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.001581341783074297</v>
+        <v>-0.001828898595452249</v>
       </c>
       <c r="P269" t="n">
-        <v>0.5902368239748284</v>
+        <v>0.6055488274495153</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.1472204546337355</v>
+        <v>0.145399419171038</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.001577460309975873</v>
+        <v>-0.001872648951778729</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.06510123866509551</v>
+        <v>0.06278725117687388</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1482512207630668</v>
+        <v>0.1451266856317941</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001536672940658743</v>
+        <v>-0.001643634472348409</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1602457386391819</v>
+        <v>0.1694095093770709</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1468788875491037</v>
+        <v>0.1489946041626561</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.00163081794760028</v>
+        <v>-0.001415167415722915</v>
       </c>
       <c r="M270" t="n">
-        <v>0.400240798898083</v>
+        <v>0.4032226384381137</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1450679762857732</v>
+        <v>0.1513901066620416</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.001581341783074297</v>
+        <v>-0.001828898595452249</v>
       </c>
       <c r="P270" t="n">
-        <v>0.5882927059498404</v>
+        <v>0.6047039451886056</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.1480205658002232</v>
+        <v>0.1461896334056632</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.001577460309975873</v>
+        <v>-0.001872648951778729</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.065139753212512</v>
+        <v>0.06266972731259288</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1490525787131375</v>
+        <v>0.1459111542027767</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001536365636800997</v>
+        <v>-0.001643798819360943</v>
       </c>
       <c r="J271" t="n">
-        <v>0.1597619986031178</v>
+        <v>0.1694697775298284</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1476728274818015</v>
+        <v>0.1497999804013732</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.00163081794760028</v>
+        <v>-0.001415167415722915</v>
       </c>
       <c r="M271" t="n">
-        <v>0.4003862032731709</v>
+        <v>0.403884800437512</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1458521275089396</v>
+        <v>0.1522084315629176</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.001581341783074297</v>
+        <v>-0.001828898595452249</v>
       </c>
       <c r="P271" t="n">
-        <v>0.5865542728067834</v>
+        <v>0.6039169660859407</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1488206769667109</v>
+        <v>0.1469798476402884</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.001577460309975873</v>
+        <v>-0.001872648951778729</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.06516089229579095</v>
+        <v>0.06251429025855224</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1498539366632081</v>
+        <v>0.1466956227737594</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001433606329578793</v>
+        <v>-0.001518371638323097</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1592903806717114</v>
+        <v>0.1694854002619287</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1484667674144994</v>
+        <v>0.1506053566400902</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001519909488647262</v>
+        <v>-0.001353075745666851</v>
       </c>
       <c r="M272" t="n">
-        <v>0.4005788672643653</v>
+        <v>0.404669109892824</v>
       </c>
       <c r="N272" t="n">
-        <v>0.1466362787321059</v>
+        <v>0.1530267564637935</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.001446219779372549</v>
+        <v>-0.001740520663626589</v>
       </c>
       <c r="P272" t="n">
-        <v>0.584437858141153</v>
+        <v>0.6029325336291362</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1496207881331986</v>
+        <v>0.1477700618749136</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.001507537812867826</v>
+        <v>-0.001758542385798945</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.06519122354579297</v>
+        <v>0.06237284694407566</v>
       </c>
       <c r="G273" t="n">
-        <v>0.1506552946132787</v>
+        <v>0.147480091344742</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001433606329578793</v>
+        <v>-0.001517916217915681</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1587689951578307</v>
+        <v>0.1695221964269754</v>
       </c>
       <c r="K273" t="n">
-        <v>0.1492607073471972</v>
+        <v>0.1514107328788073</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001519909488647262</v>
+        <v>-0.001353075745666851</v>
       </c>
       <c r="M273" t="n">
-        <v>0.4007084858992637</v>
+        <v>0.4054637843085243</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1474204299552722</v>
+        <v>0.1538450813646693</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.001446219779372549</v>
+        <v>-0.001740520663626589</v>
       </c>
       <c r="P273" t="n">
-        <v>0.5823642648093607</v>
+        <v>0.6019223641446917</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1504208992996863</v>
+        <v>0.1485602761095388</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.001507537812867826</v>
+        <v>-0.001758542385798945</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.06523073587038886</v>
+        <v>0.06222837218041793</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1514566525633494</v>
+        <v>0.1482645599157247</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.001433749675877121</v>
+        <v>-0.001518068024718153</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1583031830737144</v>
+        <v>0.1696460553792685</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1500546472798951</v>
+        <v>0.1522161091175244</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001519909488647262</v>
+        <v>-0.001353075745666851</v>
       </c>
       <c r="M274" t="n">
-        <v>0.4008849620875951</v>
+        <v>0.4062676852602702</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1482045811784386</v>
+        <v>0.1546634062655453</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.001446219779372549</v>
+        <v>-0.001740520663626589</v>
       </c>
       <c r="P274" t="n">
-        <v>0.5802520655609341</v>
+        <v>0.6006320180431431</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.151221010466174</v>
+        <v>0.149350490344164</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.001507537812867826</v>
+        <v>-0.001758542385798945</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.06526166876782348</v>
+        <v>0.06210675190934019</v>
       </c>
       <c r="G275" t="n">
-        <v>0.15225801051342</v>
+        <v>0.1490490284867074</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001433749675877121</v>
+        <v>-0.001518219831520625</v>
       </c>
       <c r="J275" t="n">
-        <v>0.1577687202674888</v>
+        <v>0.1696593434531112</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1508485872125929</v>
+        <v>0.1530214853562414</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001519909488647262</v>
+        <v>-0.001353075745666851</v>
       </c>
       <c r="M275" t="n">
-        <v>0.4009979389720532</v>
+        <v>0.4070239826072058</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1489887324016049</v>
+        <v>0.1554817311664212</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.001446219779372549</v>
+        <v>-0.001648745654486759</v>
       </c>
       <c r="P275" t="n">
-        <v>0.578020669777964</v>
+        <v>0.5998279162427296</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1520211216326617</v>
+        <v>0.1501407045787893</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.001507537812867826</v>
+        <v>-0.001758542385798945</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.06529287068667192</v>
+        <v>0.06193970404273023</v>
       </c>
       <c r="G276" t="n">
-        <v>0.1530593684634906</v>
+        <v>0.1498334970576901</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.001329789584618214</v>
+        <v>-0.001389750704415804</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1572913179234311</v>
+        <v>0.1696937956283658</v>
       </c>
       <c r="K276" t="n">
-        <v>0.1516425271452908</v>
+        <v>0.1538268615949585</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001412217743251103</v>
+        <v>-0.001302555490628556</v>
       </c>
       <c r="M276" t="n">
-        <v>0.4009369710609856</v>
+        <v>0.4076755405757757</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1497728836247713</v>
+        <v>0.1563000560672971</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.001305369817103355</v>
+        <v>-0.001648745654486759</v>
       </c>
       <c r="P276" t="n">
-        <v>0.5760032789215818</v>
+        <v>0.5987451889001358</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.1528212327991494</v>
+        <v>0.1509309188134144</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001452608503019008</v>
+        <v>-0.00163718167454489</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.06530655931711871</v>
+        <v>0.06178736674243117</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1538607264135613</v>
+        <v>0.1506179656286727</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.001330055569133589</v>
+        <v>-0.001389889693385142</v>
       </c>
       <c r="J277" t="n">
-        <v>0.1567680407411892</v>
+        <v>0.1697713970687305</v>
       </c>
       <c r="K277" t="n">
-        <v>0.1524364670779887</v>
+        <v>0.1546322378336755</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001412217743251103</v>
+        <v>-0.001302555490628556</v>
       </c>
       <c r="M277" t="n">
-        <v>0.4011426292529561</v>
+        <v>0.4085558230005354</v>
       </c>
       <c r="N277" t="n">
-        <v>0.1505570348479376</v>
+        <v>0.157118380968173</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.001305369817103355</v>
+        <v>-0.001648745654486759</v>
       </c>
       <c r="P277" t="n">
-        <v>0.573623584448088</v>
+        <v>0.5975550796464881</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.1536213439656371</v>
+        <v>0.1517211330480397</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001452608503019008</v>
+        <v>-0.00163718167454489</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.06532934814548451</v>
+        <v>0.06163282913600841</v>
       </c>
       <c r="G278" t="n">
-        <v>0.1546620843636319</v>
+        <v>0.1514024341996554</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.001330188561391277</v>
+        <v>-0.001389750704415804</v>
       </c>
       <c r="J278" t="n">
-        <v>0.1562001001411131</v>
+        <v>0.1698482065269611</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1532304070106865</v>
+        <v>0.1554376140723926</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001412217743251103</v>
+        <v>-0.001302555490628556</v>
       </c>
       <c r="M278" t="n">
-        <v>0.4012290163383511</v>
+        <v>0.4091613178954649</v>
       </c>
       <c r="N278" t="n">
-        <v>0.1513411860711039</v>
+        <v>0.1579367058690489</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.001305369817103355</v>
+        <v>-0.001648745654486759</v>
       </c>
       <c r="P278" t="n">
-        <v>0.571379300452208</v>
+        <v>0.5964279707853871</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1544214551321248</v>
+        <v>0.1525113472826648</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001452608503019008</v>
+        <v>-0.00163718167454489</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.06537011383563152</v>
+        <v>0.06148479711860748</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1554634423137025</v>
+        <v>0.1521869027706381</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.001329789584618214</v>
+        <v>-0.001390028682354481</v>
       </c>
       <c r="J279" t="n">
-        <v>0.155712113879612</v>
+        <v>0.1699242146208488</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1540243469433844</v>
+        <v>0.1562429903111097</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.001412217743251103</v>
+        <v>-0.001302555490628556</v>
       </c>
       <c r="M279" t="n">
-        <v>0.4013612426391576</v>
+        <v>0.4099937156514174</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1521253372942703</v>
+        <v>0.1587550307699248</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.001305369817103355</v>
+        <v>-0.001648745654486759</v>
       </c>
       <c r="P279" t="n">
-        <v>0.5691893812866812</v>
+        <v>0.5953642997554462</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1552215662986124</v>
+        <v>0.15330156151729</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001452608503019008</v>
+        <v>-0.00163718167454489</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.06541107414228528</v>
+        <v>0.06130950224890061</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1562648002637731</v>
+        <v>0.1529713713416208</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.001225372459194456</v>
+        <v>-0.001259973041001558</v>
       </c>
       <c r="J280" t="n">
-        <v>0.1551607455697712</v>
+        <v>0.1699114385917548</v>
       </c>
       <c r="K280" t="n">
-        <v>0.1548182868760822</v>
+        <v>0.1570483665498267</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.001307259802487858</v>
+        <v>-0.001264354061305569</v>
       </c>
       <c r="M280" t="n">
-        <v>0.4014288515251138</v>
+        <v>0.4107163437660346</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1529094885174366</v>
+        <v>0.1595733556708007</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.001159546792974946</v>
+        <v>-0.001554097954522177</v>
       </c>
       <c r="P280" t="n">
-        <v>0.566973667999479</v>
+        <v>0.5941112834383783</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1560216774651002</v>
+        <v>0.1540917757519153</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.001414511700407524</v>
+        <v>-0.001509359211745521</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.06542552739390943</v>
+        <v>0.06114962688259139</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1570661582138438</v>
+        <v>0.1537558399126034</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.001225004920964344</v>
+        <v>-0.001259595124672523</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1546292141220828</v>
+        <v>0.1699637962710548</v>
       </c>
       <c r="K281" t="n">
-        <v>0.1556122268087801</v>
+        <v>0.1578537427885438</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.001307259802487858</v>
+        <v>-0.001264354061305569</v>
       </c>
       <c r="M281" t="n">
-        <v>0.4013764718791107</v>
+        <v>0.4114960592066012</v>
       </c>
       <c r="N281" t="n">
-        <v>0.153693639740603</v>
+        <v>0.1603916805716766</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.001159546792974946</v>
+        <v>-0.001554097954522177</v>
       </c>
       <c r="P281" t="n">
-        <v>0.5645714668779337</v>
+        <v>0.5928389719751201</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1568217886315878</v>
+        <v>0.1548819899865405</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.001414511700407524</v>
+        <v>-0.001509359211745521</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.06545790972308826</v>
+        <v>0.06101373305417775</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1578675161639144</v>
+        <v>0.1545403084835861</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.001225249946451085</v>
+        <v>-0.001259973041001558</v>
       </c>
       <c r="J282" t="n">
-        <v>0.1540978500451515</v>
+        <v>0.1700153144486182</v>
       </c>
       <c r="K282" t="n">
-        <v>0.1564061667414779</v>
+        <v>0.1586591190272608</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.001307259802487858</v>
+        <v>-0.001264354061305569</v>
       </c>
       <c r="M282" t="n">
-        <v>0.401369289042203</v>
+        <v>0.4123319546496061</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1544777909637693</v>
+        <v>0.1612100054725525</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.001159546792974946</v>
+        <v>-0.001554097954522177</v>
       </c>
       <c r="P282" t="n">
-        <v>0.562311247344653</v>
+        <v>0.5917164729911177</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1576218997980755</v>
+        <v>0.1556722042211657</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.001414511700407524</v>
+        <v>-0.001509359211745521</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.06549932003690422</v>
+        <v>0.06083441166657547</v>
       </c>
       <c r="G283" t="n">
-        <v>0.158668874113985</v>
+        <v>0.1553247770545688</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.001146501856312572</v>
+        <v>-0.001160172751395114</v>
       </c>
       <c r="J283" t="n">
-        <v>0.1535471962259276</v>
+        <v>0.1700879927851645</v>
       </c>
       <c r="K283" t="n">
-        <v>0.1572001066741758</v>
+        <v>0.1594644952659779</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.001230295942041302</v>
+        <v>-0.001244531501926911</v>
       </c>
       <c r="M283" t="n">
-        <v>0.4014622534562809</v>
+        <v>0.4132231225113672</v>
       </c>
       <c r="N283" t="n">
-        <v>0.1552619421869357</v>
+        <v>0.1620283303734284</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.00104802106110062</v>
+        <v>-0.001481750676508495</v>
       </c>
       <c r="P283" t="n">
-        <v>0.5597889162812092</v>
+        <v>0.5904076694877535</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1584220109645632</v>
+        <v>0.1564624184557909</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.001397812306827335</v>
+        <v>-0.001412022549108413</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.06554084433927719</v>
+        <v>0.0606794548235427</v>
       </c>
       <c r="G284" t="n">
-        <v>0.1594702320640557</v>
+        <v>0.1561092456255515</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.001146501856312572</v>
+        <v>-0.001160404809151169</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1530595163211056</v>
+        <v>0.1701598233062042</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1579940466068737</v>
+        <v>0.160269871504695</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.001230295942041302</v>
+        <v>-0.001244531501926911</v>
       </c>
       <c r="M284" t="n">
-        <v>0.4014345756494432</v>
+        <v>0.4138867104515439</v>
       </c>
       <c r="N284" t="n">
-        <v>0.156046093410102</v>
+        <v>0.1628466552743043</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.00104802106110062</v>
+        <v>-0.001481750676508495</v>
       </c>
       <c r="P284" t="n">
-        <v>0.5575740077093497</v>
+        <v>0.5891658265403407</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1592221221310509</v>
+        <v>0.1572526326904161</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.001397812306827335</v>
+        <v>-0.001412022549108413</v>
       </c>
     </row>
   </sheetData>
